--- a/getpivo/gr/gr2.xlsx
+++ b/getpivo/gr/gr2.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="strings" sheetId="1" r:id="rId4"/>
-    <sheet name="html" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="strings" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="html" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mh7UWldgsubPgH73IYaIUezbIr+3g=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>Cube</t>
   </si>
@@ -26,7 +31,7 @@
     <t>Μεταφερθείτε στο πειεχόμενο</t>
   </si>
   <si>
-    <t>Σαν</t>
+    <t xml:space="preserve">Σαν </t>
   </si>
   <si>
     <t>τους φωτογράφους,</t>
@@ -38,10 +43,49 @@
     <t>από</t>
   </si>
   <si>
-    <t>Παραγγείλτε Cube</t>
-  </si>
-  <si>
-    <t>Ένας μικρός Cube, με ατελείωτες δυνατότητες</t>
+    <t>138€</t>
+  </si>
+  <si>
+    <t>69€</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Παραγγείλτε </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">το </t>
+    </r>
+    <r>
+      <t>Cube</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Παραγγείλτε </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">το </t>
+    </r>
+    <r>
+      <t>Cube</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">Ένα μικρό </t>
+    </r>
+    <r>
+      <t>Cube, με ατελείωτες δυνατότητες</t>
+    </r>
   </si>
   <si>
     <t>Μετατρέψτε το smartphone σας σε προσωπικό φωτογράφο.</t>
@@ -65,13 +109,35 @@
     <t>Έτοιμο τρίποδο</t>
   </si>
   <si>
-    <t>Μοιραστείτε πληροφορίες</t>
+    <r>
+      <t xml:space="preserve">Μοιραστείτε </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">τις </t>
+    </r>
+    <r>
+      <t>πληροφορίες</t>
+    </r>
   </si>
   <si>
     <t>Στο κέντρο της προσοχής.</t>
   </si>
   <si>
-    <t>Όπου κι αν πάτε, ο Cube θα σας ακολουθεί</t>
+    <r>
+      <t xml:space="preserve">Όπου κι αν πάτε, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve">το </t>
+    </r>
+    <r>
+      <t>Cube θα σας ακολουθεί</t>
+    </r>
   </si>
   <si>
     <t>Το Face Tracking σας κρατάει σε εγρήγορση, οπότε βρίσκεστε πάντα σε ετοιμότητα για τη τέλεια λήψη. Λειτουργεί τόσο σε κατακόρυφη όσο και σε οριζόντια θέση</t>
@@ -83,13 +149,13 @@
     <t>Εάν θέλετε το Cube να εστιάσει σε ένα συγκεκριμένο σημείο, απλώς επιλέξτε τον επιθυμητό στόχο και το Cube θα εστιάση αυτόματα. Λειτουργεί τόσο με τις μπροστινές όσο και τις πίσω κάμερες.</t>
   </si>
   <si>
-    <t>ΕΞΥΠΝΗ ΛΗΨΗ</t>
+    <t xml:space="preserve">ΕΞΥΠΝΗ ΛΗΨΗ </t>
   </si>
   <si>
     <t>Επειδή μερικές φορές τα χέρια σας είναι απασχολημένα.</t>
   </si>
   <si>
-    <t>Αντίο σε αδέξιες και επίπεδες όψεις selfies. Το να τραβάτε τον εαυτό σας φωτογραφίες και βίντεο είναι τόσο εύκολο όσο όταν χαμογελάτε στην κάμερα.</t>
+    <t xml:space="preserve">Αντίο σε αδέξιες και επίπεδες όψεις selfies. Το να τραβάτε τον εαυτό σας φωτογραφίες και βίντεο είναι τόσο εύκολο όσο όταν χαμογελάτε στην κάμερα. </t>
   </si>
   <si>
     <t>ΖΩΝΤΑΝΗ ΣΥΝΔΕΣΗ MULTI STREAM</t>
@@ -164,7 +230,7 @@
     <t>CUBE</t>
   </si>
   <si>
-    <t>Ένα έξυπνο μικρό εργαλείο. Ατελείωτη δημιουργικότητα.</t>
+    <t xml:space="preserve"> Ένα έξυπνο μικρό εργαλείο. Ατελείωτη δημιουργικότητα.</t>
   </si>
   <si>
     <t>Άνετη φορητή συσκευή</t>
@@ -173,7 +239,7 @@
     <t>Πάρτε ένα Cube to-go με αυτόματη περιστροφή 360 °, επεκτάσιμα πόδια σταθεροποιητή και υποστήριξη για στάνταρ τρίποδα κάμερας.</t>
   </si>
   <si>
-    <t>Устойчивая основа</t>
+    <t>Σταθερή βάση</t>
   </si>
   <si>
     <t>Τραβήξτε τα πόδια του Cube για πρόσθετη σταθερότητα ή απλώς συνδέστε το με οποιοδήποτε σύγχρονο τρίποδο ¼ ".</t>
@@ -185,10 +251,21 @@
     <t>Εξαιρετική ευκολία. Κάθε Cube διαθέτει τηλεχειριστήριο, διευκολύνοντας τη λήψη φωτογραφιών.</t>
   </si>
   <si>
-    <t>Вертушка</t>
-  </si>
-  <si>
-    <t>Τραβήξτε όλες τις γωνίες, μπρός-πίσω και στο πλάι. Ιδανικό για λήψη 360 μοιρών που μπορούν να ενσωματωθούν και να μεταφορτωθούν σε ιστολόγια, στους ιστότοπους και σε άλλα κοινωνικά δίκτυα.</t>
+    <t>Περιστρεφόμενο εργαλείο</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Τραβήξτε </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>απ' όλες</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> τις γωνίες, μπρός-πίσω και στο πλάι. Ιδανικό για λήψη 360 μοιρών που μπορούν να ενσωματωθούν και να μεταφορτωθούν σε ιστολόγια, στους ιστότοπους και σε άλλα κοινωνικά δίκτυα.</t>
+    </r>
   </si>
   <si>
     <t>Lightbox</t>
@@ -224,7 +301,7 @@
     <t>Παραγγέιλτε τώρα</t>
   </si>
   <si>
-    <t>ⓒ2020 GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Spain (поменять в соответствии с гео)</t>
+    <t>GADGET SHOP, 26th Oktovriou, 546 27, Thessaloniki, Greece</t>
   </si>
   <si>
     <t>Privacy policy</t>
@@ -322,10 +399,322 @@
   &lt;script&gt;!function (o) { function n() { var o = []; function n() { o.push(Array.prototype.slice.apply(arguments)) } return n.q = o, n } var t = o.Shopify = o.Shopify || {}; t.loadFeatures = n(), t.autoloadFeatures = n() }(window);&lt;/script&gt;
   &lt;script&gt;window.ShopifyPay = window.ShopifyPay || {};
     window.ShopifyPay.apiHost = "pay.shopify.com";&lt;/script&gt;
-  &lt;script crossorigin="anonymous" data-source-attribution="shopify.loadfeatures" defer="defer" src="js/load_feature-589ff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3342d639ed23c94f5fc11e03d64e0788e2a4a687391ebeeeef20eaf2f50.js"&gt;&lt;/script&gt;
+  &lt;script&gt;(function () {
+      function asyncLoad() {
+        var urls = ["https:\/\/shy.elfsight.com\/p\/platform.js?shop=</t>
+  </si>
+  <si>
+    <t>youvr.myshopify.com", "https:\/\/chimpstatic.com\/mcjs-connected\/js\/users\/ba9866d4177c3e496314374f0\/9c425ab15b1006d290779d98c.js?shop=youvr.myshopify.com", "https:\/\/cdn.shopify.com\/s\/files\/1\/2065\/8833\/t\/308\/assets\/basic.js?v=1591164969\u0026shop=youvr.myshopify.com", "https:\/\/affilo.io\/libs\/affi_auto_apply_codes.js?shop=youvr.myshopify.com", "https:\/\/cdn.judge.me\/assets\/installed.js?shop=youvr.myshopify.com", "https:\/\/d1639lhkj5l89m.cloudfront.net\/js\/script_tag\/sca_affiliate.js?shop=youvr.myshopify.com", "https:\/\/cdn.refersion.com\/shop.js?key=pub_0306edf1768126030ebf\u0026check_token=true\u0026shop=youvr.myshopify.com"];
+        for (var i = 0; i &lt; urls.length; i++) {
+          var s = document.createElement('script');
+          s.type = 'text/javascript';
+          s.async = true;
+          s.src = urls[i];
+          var x = document.getElementsByTagName('script')[0];
+          x.parentNode.insertBefore(s, x);
+        }
+      };
+      if (window.attachEvent) {
+        window.attachEvent('onload', asyncLoad);
+      } else {
+        window.addEventListener('load', asyncLoad, false);
+      }
+    })();&lt;/script&gt;
+  &lt;script id="__st"&gt;var __st = { "a": 20658833, "offset": 32400, "reqid": "0f7ec1c6-94f2-4136-b859-b1cf8b886f61", "pageurl": "getpivo.com\/", "u": "770e06789c3a", "p": "home" };&lt;/script&gt;
+  &lt;script&gt;window.ShopifyPaypalV4VisibilityTracking = true;&lt;/script&gt;
+  &lt;script&gt;window.ShopifyAnalytics = window.ShopifyAnalytics || {};
+    window.ShopifyAnalytics.meta = window.ShopifyAnalytics.meta || {};
+    window.ShopifyAnalytics.meta.currency = 'USD';
+    var meta = { "page": { "pageType": "home" } };
+    for (var attr in meta) {
+      window.ShopifyAnalytics.meta[attr] = meta[attr];
+    }&lt;/script&gt;
+  &lt;script&gt;window.ShopifyAnalytics.merchantGoogleAnalytics = function () {
+      window.dataLayer = window.dataLayer || [];
+      function gtag() { dataLayer.push(arguments); }
+      gtag('js', new Date());
+      gtag('config', 'UA-129007769-3',
+        {
+          'linker': { 'domains': ['getpivo.com'] }
+        }
+      );
+      ga('require', 'GTM-PPPK68Q');
+    };
+  &lt;/script&gt;
+  &lt;script class="analytics"&gt;(window.gaDevIds = window.gaDevIds || []).push('BwiEti');
+    (function () {
+      var customDocumentWrite = function (content) {
+        var jquery = null;
+        if (window.jQuery) {
+          jquery = window.jQuery;
+        } else if (window.Checkout &amp;&amp; window.Checkout.$) {
+          jquery = window.Checkout.$;
+        }
+        if (jquery) {
+          jquery('body').append(content);
+        }
+      };
+      var isDuplicatedThankYouPageView = function () {
+        return document.cookie.indexOf('loggedConversion=' + window.location.pathname) !== -1;
+      }
+      var setCookieIfThankYouPage = function () {
+        if (window.location.pathname.indexOf('/checkouts') !== -1 &amp;&amp;
+          window.location.pathname.indexOf('/thank_you') !== -1) {
+          var twoMonthsFromNow = new Date(Date.now());
+          twoMonthsFromN</t>
+  </si>
+  <si>
+    <t>ow.setMonth(twoMonthsFromNow.getMonth() + 2);
+          document.cookie = 'loggedConversion=' + window.location.pathname + '; expires=' + twoMonthsFromNow;
+        }
+      }
+      var trekkie = window.ShopifyAnalytics.lib = window.trekkie = window.trekkie || [];
+      if (trekkie.integrations) {
+        return;
+      }
+      trekkie.methods = [
+        'identify',
+        'page',
+        'ready',
+        'track',
+        'trackForm',
+        'trackLink'
+      ];
+      trekkie.factory = function (method) {
+        return function () {
+          var args = Array.prototype.slice.call(arguments);
+          args.unshift(method);
+          trekkie.push(args);
+          return trekkie;
+        };
+      };
+      for (var i = 0; i &lt; trekkie.methods.length; i++) {
+        var key = trekkie.methods[i];
+        trekkie[key] = trekkie.factory(key);
+      }
+      trekkie.load = function (config) {
+        trekkie.config = config;
+        var script = document.createElement('script');
+        script.type = 'text/javascript';
+        script.onerror = function (e) {
+          (new Image()).src = '//v.shopify.com/internal_errors/track?error=trekkie_load';
+        };
+        script.async = true;
+        script.src = '//cdn.shopify.com/s/javascripts/tricorder/trekkie.storefront.min.js?v=2020.04.13.1';
+        var first = document.getElementsByTagName('script')[0];
+        first.parentNode.insertBefore(script, first);
+      };
+      trekkie.load(
+        { "Trekkie": { "appName": "storefront", "development": false, "defaultAttributes": { "shopId": 20658833, "isMerchantRequest": null, "themeId": 82972344402, "themeCityHash": "16479402654401789107", "contentLanguage": "en", "currency": "USD" }, "isServerSideCookieWritingEnabled": true }, "Performance": { "navigationTimingApiMeasurementsEnabled": true, "navigationTimingApiMeasurementsSampleRate": 1 }, "Google Analytics": { "trackingId": "UA-129007769-3", "domain": "auto", "siteSpeedSampleRate": "10", "enhancedEcommerce": true, "doubleClick": true, "includeSearch": true }, "Facebook Pixel": { "pixelIds": ["745969829165253", "329101937939042"], "agent": "plshopify1.2" }, "Session Attribution": {} }
+      );
+      var loaded = false;
+      trekkie.ready(function () {
+        if (loaded) return;
+        loaded = true;
+        window.ShopifyAnalytics.lib = window.trekkie;
+        ga('require', 'linker');
+        function addListener(element, type, callback) {
+          if (element.addEventListener) {
+            element.addEventListener(type, callback);
+          }
+          else if (element.attachEvent) {
+            element.attachEvent('on' + type, callback);
+          }
+        }
+        function decorate(event) {
+          event = event || window.event;
+          var target = event.target || event.srcElement;
+          if (target &amp;&amp; (target.getAttribute('action') || target.getAttribute('href'))) {
+            ga(function (tracker) {
+              var linkerParam = tracker.get('linkerParam');
+              document.c</t>
+  </si>
+  <si>
+    <t>ookie = '_shopify_ga=' + linkerParam + '; ' + 'path=/';
+            });
+          }
+        }
+        addListener(window, 'load', function () {
+          for (var i = 0; i &lt; document.forms.length; i++) {
+            var action = document.forms[i].getAttribute('action');
+            if (action &amp;&amp; action.indexOf('/cart') &gt;= 0) {
+              addListener(document.forms[i], 'submit', decorate);
+            }
+          }
+          for (var i = 0; i &lt; document.links.length; i++) {
+            var href = document.links[i].getAttribute('href');
+            if (href &amp;&amp; href.indexOf('/checkout') &gt;= 0) {
+              addListener(document.links[i], 'click', decorate);
+            }
+          }
+        });
+        var originalDocumentWrite = document.write;
+        document.write = customDocumentWrite;
+        try { window.ShopifyAnalytics.merchantGoogleAnalytics.call(this); } catch (error) { };
+        document.write = originalDocumentWrite;
+        (function () {
+          if (window.BOOMR &amp;&amp; (window.BOOMR.version || window.BOOMR.snippetExecuted)) {
+            return;
+          }
+          window.BOOMR = window.BOOMR || {};
+          window.BOOMR.snippetStart = new Date().getTime();
+          window.BOOMR.snippetExecuted = true;
+          window.BOOMR.snippetVersion = 12;
+          window.BOOMR.application = "storefront-renderer";
+          window.BOOMR.shopId = 20658833;
+          window.BOOMR.themeId = 82972344402;
+          window.BOOMR.url =
+            "https://cdn.shopify.com/shopifycloud/boomerang/shopify-boomerang-1.0.0.min.js";
+          var where = document.currentScript || document.getElementsByTagName("script")[0];
+          var parentNode = where.parentNode;
+          var promoted = false;
+          var LOADER_TIMEOUT = 3000;
+          function promote() {
+            if (promoted) {
+              return;
+            }
+            var script = document.createElement("script");
+            script.id = "boomr-scr-as";
+            script.src = window.BOOMR.url;
+            script.async = true;
+            parentNode.appendChild(script);
+            promoted = true;
+          }
+          function iframeLoader(wasFallback) {
+            promoted = true;
+            var dom, bootstrap, iframe, iframeStyle;
+            var doc = document;
+            var win = window;
+            window.BOOMR.snippetMethod = wasFallback ? "if" : "i";
+            bootstrap = function (parent, scriptId) {
+              var script = doc.createElement("script");
+              script.id = scriptId || "boomr-if-as";
+              script.src = window.BOOMR.url;
+              BOOMR_lstart = new Date().getTime();
+              parent = parent || doc.body;
+              parent.appendChild(script);
+            };
+            if (!window.addEventListener &amp;&amp; window.attachEvent &amp;&amp; navigator.userAgent.match(/MSIE [67]./)) {
+              window.BOOMR.snippetMethod = "s";
+              bootstrap(parentNode, "boomr-async");
+              return;
+            }
+            iframe =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> document.createElement("IFRAME");
+            iframe.src = "about:blank";
+            iframe.title = "";
+            iframe.role = "presentation";
+            iframe.loading = "eager";
+            iframeStyle = (iframe.frameElement || iframe).style;
+            iframeStyle.width = 0;
+            iframeStyle.height = 0;
+            iframeStyle.border = 0;
+            iframeStyle.display = "none";
+            parentNode.appendChild(iframe);
+            try {
+              win = iframe.contentWindow;
+              doc = win.document.open();
+            } catch (e) {
+              dom = document.domain;
+              iframe.src = "javascript:var d=document.open();d.domain='" + dom + "';void(0);";
+              win = iframe.contentWindow;
+              doc = win.document.open();
+            }
+            if (dom) {
+              doc._boomrl = function () {
+                this.domain = dom;
+                bootstrap();
+              };
+              doc.write("&lt;body onload='document._boomrl();'&gt;");
+            } else {
+              win._boomrl = function () {
+                bootstrap();
+              };
+              if (win.addEventListener) {
+                win.addEventListener("load", win._boomrl, false);
+              } else if (win.attachEvent) {
+                win.attachEvent("onload", win._boomrl);
+              }
+            }
+            doc.close();
+          }
+          var link = document.createElement("link");
+          if (link.relList &amp;&amp;
+            typeof link.relList.supports === "function" &amp;&amp;
+            link.relList.supports("preload") &amp;&amp;
+            ("as" in link)) {
+            window.BOOMR.snippetMethod = "p";
+            link.href = window.BOOMR.url;
+            link.rel = "preload";
+            link.as = "script";
+            link.addEventListener("load", promote);
+            link.addEventListener("error", function () {
+              iframeLoader(true);
+            });
+            setTimeout(function () {
+              if (!promoted) {
+                iframeLoader(true);
+              }
+            }, LOADER_TIMEOUT);
+            BOOMR_lstart = new Date().getTime();
+            parentNode.appendChild(link);
+          } else {
+            iframeLoader(false);
+          }
+          function boomerangSaveLoadTime(e) {
+            window.BOOMR_onload = (e &amp;&amp; e.timeStamp) || new Date().getTime();
+          }
+          if (window.addEventListener) {
+            window.addEventListener("load", boomerangSaveLoadTime, false);
+          } else if (window.attachEvent) {
+            window.attachEvent("onload", boomerangSaveLoadTime);
+          }
+          if (document.addEventListener) {
+            document.addEventListener("onBoomerangLoaded", function (e) {
+              e.detail.BOOMR.init({
+                producer_url: "https://monorail-edge.shopifysvc.com/v1/produce",
+                ResourceTiming: {
+                  enabled: true,
+                  trackedResourceTypes: ["script", "img", "css"]
+                },
+         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     });
+              e.detail.BOOMR.t_end = new Date().getTime();
+            });
+          } else if (document.attachEvent) {
+            document.attachEvent("onpropertychange", function (e) {
+              if (!e) e = event;
+              if (e.propertyName === "onBoomerangLoaded") {
+                e.detail.BOOMR.init({
+                  producer_url: "https://monorail-edge.shopifysvc.com/v1/produce",
+                  ResourceTiming: {
+                    enabled: true,
+                    trackedResourceTypes: ["script", "img", "css"]
+                  },
+                });
+                e.detail.BOOMR.t_end = new Date().getTime();
+              }
+            });
+          }
+        })();
+        if (!isDuplicatedThankYouPageView()) {
+          setCookieIfThankYouPage();
+          window.ShopifyAnalytics.lib.page(
+            null,
+            { "pageType": "home" }
+          );
+        }
+      });
+      var eventsListenerScript = document.createElement('script');
+      eventsListenerScript.async = true;
+      eventsListenerScript.src = "//cdn.shopify.com/s/assets/shop_events_listener-43fce3d908d9bd272394a7b71efb84146cdd385cdb9ca0fd444b2281d7f9b65a.js";
+      document.getElementsByTagName('head')[0].appendChild(eventsListenerScript);
+    })();&lt;/script&gt;
+  &lt;script crossorigin="anonymous" data-source-attribution="shopify.loadfeatures" defer="defer" src="js/load_feature-589ff3342d639ed23c94f5fc11e03d64e0788e2a4a687391ebeeeef20eaf2f50.js"&gt;&lt;/script&gt;
   &lt;script crossorigin="anonymous" defer="defer" src="js/storefront-21b5dddfc8b64c1ad68cee3ba7448d1ffa15c24e969ebc1fbccf1a3784b659ad.js"&gt;&lt;/script&gt;
   &lt;script data-source-attribution="shopify.dynamic-checkout" defer="defer" src="js/features-87e8399988880142f2c62771b9d8f2ff6c290b3ff745dd426eb0dfe0db9d1dae.js" crossorigin="anonymous"&gt;&lt;/script&gt;
   &lt;style id="shopify-dynamic-checkout-cart"&gt;
@@ -375,7 +764,10 @@
       padding: 5px 20px;
       border-radius: 60px;
       width: 200px;
-      font-weight: 700;
+      font-we</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ight: 700;
       letter-spacing: 1px;
       text-align: center;
       line-height: 2.2;
@@ -424,10 +816,6 @@
     .main-content .shopify-section {
       display: none;
     }
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
     .main-content .shopify-section:first-child {
       display: inherit;
     }
@@ -495,7 +883,10 @@
         line-height: 1.5;
       }
     }
-    /* ------------------------------ Buttons ----------------------------------- */
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   /* ------------------------------ Buttons ----------------------------------- */
     .btn,
     .btn--secondary {
       -moz-user-select: "none";
@@ -551,10 +942,7 @@
       top: 0;
       left: 0;
       width: 100%;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     height: 100%;
+      height: 100%;
       outline: 2px solid #df0f4f;
       transition: outline 0.1s linear;
     }
@@ -616,7 +1004,10 @@
     }
     .announcement-bar__close {
       position: absolute;
-      right: 20px;
+      righ</t>
+  </si>
+  <si>
+    <t>t: 20px;
       padding: 0;
       width: 30px;
       height: 30px;
@@ -673,10 +1064,7 @@
     @media only screen and (max-width: 749px) {
       .site-header__logo-image {
         max-height: 30px;
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     }
+      }
     }
     .site-header__logo-image--transparent {
       display: none;
@@ -740,7 +1128,10 @@
       height: 2px;
       width: 16px;
       left: 50%;
-      margin-left: -8px;
+      margin-l</t>
+  </si>
+  <si>
+    <t>eft: -8px;
       background: #df0f4f;
       position: absolute;
       transition: all 0.25s ease-out;
@@ -800,10 +1191,7 @@
     }
     /* ----------------------------- Slideshow --------------------------------- */
     .slideshow {
-      display: -webkit-fl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex;
+      display: -webkit-flex;
       display: -ms-flexbox;
       display: flex;
       width: 100%;
@@ -866,17 +1254,17 @@
       left: 0;
     }
   &lt;/style&gt;
-  &lt;link title="theme" rel="preload" href="//cdn.shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919" as="style"&gt;
+  &lt;link title="theme" rel="preload" href="//cdn.</t>
+  </si>
+  <si>
+    <t>shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919" as="style"&gt;
   &lt;noscript&gt;&lt;span data-translate="2"&gt;&lt;span data-translate="2"&gt;
       &lt;link rel="stylesheet" href="css/theme.scss.css"&gt;&lt;/span&gt;&lt;/span&gt;&lt;/noscript&gt;
   &lt;script&gt;
     /*! loadCSS. [c]2017 Filament Group, Inc. MIT License */
     !function (a) { "use strict"; var b = function (b, c, d) { function e(a) { return h.body ? a() : void setTimeout(function () { e(a) }) } function f() { i.addEventListener &amp;&amp; i.removeEventListener("load", f); if (!Shopify.designMode) i.media = d || "all" } var g, h = a.document, i = h.createElement("link"); if (c) g = c; else { var j = (h.body || h.getElementsByTagName("head")[0]).childNodes; g = j[j.length - 1] } var k = h.styleSheets; i.rel = "stylesheet", i.href = b, i.media = Shopify.designMode ? d || "all" : "only x", e(function () { g.parentNode.insertBefore(i, c ? g : g.nextSibling) }); var l = function (a) { for (var b = i.href, c = k.length; c--;)if (k[c].href === b) return a(); setTimeout(function () { l(a) }) }; return i.addEventListener &amp;&amp; i.addEventListener("load", f), i.onloadcssdefined = l, l(f), i }; "undefined" != typeof exports ? exports.loadCSS = b : a.loadCSS = b }("undefined" != typeof global ? global : this);
     /*! onloadCSS. (onload callback for loadCSS) [c]2017 Filament Group, Inc. MIT License */
-    function onloadCSS(a, b) { function c() { !d &amp;&amp; b &amp;&amp; (d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">= !0, b.call(a)) } var d; a.addEventListener &amp;&amp; a.addEventListener("load", c), a.attachEvent &amp;&amp; a.attachEvent("onload", c), "isApplicationInstalled" in navigator &amp;&amp; "onloadcssdefined" in a &amp;&amp; a.onloadcssdefined(c) }
+    function onloadCSS(a, b) { function c() { !d &amp;&amp; b &amp;&amp; (d = !0, b.call(a)) } var d; a.addEventListener &amp;&amp; a.addEventListener("load", c), a.attachEvent &amp;&amp; a.attachEvent("onload", c), "isApplicationInstalled" in navigator &amp;&amp; "onloadcssdefined" in a &amp;&amp; a.onloadcssdefined(c) }
     // Insert our stylesheet before our preload &lt;link&gt; tag
     var preload = document.querySelector('link[href="//cdn.shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919"]');
     var stylesheet = loadCSS('//cdn.shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919', preload);
@@ -901,7 +1289,10 @@
         },
         map: {
           zeroResults: "No results for that address",
-          overQueryLimit: "You have exceeded the Google API usage limit. Consider upgrading to a \u003ca href=\"https:\/\/developers.google.com\/maps\/premium\/usage-limits\"\u003ePremium Plan\u003c\/a\u003e.",
+          overQueryLimit: "You have exceeded the Google API usage limit. Consider upgrading to a \u003ca href=\"https:\/\/</t>
+  </si>
+  <si>
+    <t>developers.google.com\/maps\/premium\/usage-limits\"\u003ePremium Plan\u003c\/a\u003e.",
           authError: "There was a problem authenticating your Google Maps API Key.",
           addressError: "Error looking up that address"
         }
@@ -937,17 +1328,17 @@
   &lt;!-- start Mixpanel --&gt;
   &lt;script type="text/javascript"&gt;(function (c, a) {
       if (!a.__SV) {
-        var b = window; try { var d, m, j, k = b.location, f </t>
-  </si>
-  <si>
-    <t>= k.hash; d = function (a, b) { return (m = a.match(RegExp(b + "=([^&amp;]*)"))) ? m[1] : null }; f &amp;&amp; d(f, "state") &amp;&amp; (j = JSON.parse(decodeURIComponent(d(f, "state"))), "mpeditor" === j.action &amp;&amp; (b.sessionStorage.setItem("_mpcehash", f), history.replaceState(j.desiredHash || "", c.title, k.pathname + k.search))) } catch (n) { } var l, h; window.mixpanel = a; a._i = []; a.init = function (b, d, g) {
+        var b = window; try { var d, m, j, k = b.location, f = k.hash; d = function (a, b) { return (m = a.match(RegExp(b + "=([^&amp;]*)"))) ? m[1] : null }; f &amp;&amp; d(f, "state") &amp;&amp; (j = JSON.parse(decodeURIComponent(d(f, "state"))), "mpeditor" === j.action &amp;&amp; (b.sessionStorage.setItem("_mpcehash", f), history.replaceState(j.desiredHash || "", c.title, k.pathname + k.search))) } catch (n) { } var l, h; window.mixpanel = a; a._i = []; a.init = function (b, d, g) {
           function c(b, i) {
             var a = i.split("."); 2 == a.length &amp;&amp; (b = b[a[0]], i = a[1]); b[i] = function () {
               b.push([i].concat(Array.prototype.slice.call(arguments,
                 0)))
             }
           } var e = a; "undefined" !== typeof g ? e = a[g] = [] : g = "mixpanel"; e.people = e.people || []; e.toString = function (b) { var a = "mixpanel"; "mixpanel" !== g &amp;&amp; (a += "." + g); b || (a += " (stub)"); return a }; e.people.toString = function () { return e.toString(1) + ".people (stub)" }; l = "disable time_event track track_pageview track_links track_forms track_with_groups add_group set_group remove_group register register_once alias unregister identify name_tag set_config reset opt_in_tracking opt_out_tracking has_opted_in_tracking has_opted_out_tracking clear_opt_in_out_tracking people.set people.set_once people.unset people.increment people.append people.union people.track_charge people.clear_charges people.delete_user people.remove".split(" ");
-          for (h = 0; h &lt; l.length; h++)c(e, l[h]); var f = "set set_once union unset remove delete".split(" "); e.get_group = function () { function a(c) { b[c] = function () { call2_args = arguments; call2 = [c].concat(Array.prototype.slice.call(call2_args, 0)); e.push([d, call2]) } } for (var b = {}, d = ["get_group"].concat(Array.prototype.slice.call(arguments, 0)), c = 0; c &lt; f.length; c++)a(f[c]); return b }; a._i.push([b, d, g])
+          for (h = 0; h &lt; l.length; h++)c(e, l[h]); var f = "set set_once union unset remove delete".split(" "); e.get_group = function () { function a(c) { b[c] = function () { c</t>
+  </si>
+  <si>
+    <t>all2_args = arguments; call2 = [c].concat(Array.prototype.slice.call(call2_args, 0)); e.push([d, call2]) } } for (var b = {}, d = ["get_group"].concat(Array.prototype.slice.call(arguments, 0)), c = 0; c &lt; f.length; c++)a(f[c]); return b }; a._i.push([b, d, g])
         }; a.__SV = 1.2; b = c.createElement("script"); b.type = "text/javascript"; b.async = !0; b.src = "undefined" !== typeof MIXPANEL_CUSTOM_LIB_URL ?
           MIXPANEL_CUSTOM_LIB_URL : "file:" === c.location.protocol &amp;&amp; "//cdn4.mxpnl.com/libs/mixpanel-2-latest.min.js".match(/^\/\//) ? "https://cdn4.mxpnl.com/libs/mixpanel-2-latest.min.js" : "//cdn4.mxpnl.com/libs/mixpanel-2-latest.min.js"; d = c.getElementsByTagName("script")[0]; d.parentNode.insertBefore(b, d)
       }
@@ -979,10 +1370,7 @@
       align-items: center;
       justify-content: space-between;
     }
-    .preload</t>
-  </si>
-  <si>
-    <t>_header-left {
+    .preload_header-left {
       background: #eee;
       border-radius: 100px;
       width: 200px;
@@ -1021,7 +1409,10 @@
       /* Chrome10+,Safari5.1+ */
       background: -o-linear-gradient(left, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
       /* Opera 11.10+ */
-      background: -ms-linear-gradient(left, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
+      background: -ms-linear-gradient(le</t>
+  </si>
+  <si>
+    <t>ft, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
       /* IE10+ */
       background: linear-gradient(to right, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
       /* W3C */
@@ -1049,10 +1440,7 @@
       display: none !important
     }
     .jdgm-author-all-initials {
-      display: none !important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+      display: none !important
     }
     .jdgm-author-last-initial {
       display: none !important
@@ -1108,7 +1496,10 @@
         transform: rotate(0deg)
       }
       100% {
-        -webkit-transform: rotate(359deg);
+        -webkit</t>
+  </si>
+  <si>
+    <t>-transform: rotate(359deg);
         -ms-transform: rotate(359deg);
         transform: rotate(359deg)
       }
@@ -1127,10 +1518,7 @@
     }
     @font-face {
       font-family: 'JudgemeStar';
-      src: url("data:application/x-font-woff;charset=utf-8;base64,d09GRgABAAAAAAScAA0AAAAABrAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABGRlRNAAAEgAAAABoAAAAcbyQ+3kdERUYAAARgAAAAHgAAACAAMwAGT1MvMgAAAZgAAABGAAAAVi+vS9xjbWFwAAAB8AAAAEAAAAFKwBMjvmdhc3AAAARYAAAACAAAAAj//wADZ2x5ZgAAAkAAAAEJAAABdH33LXtoZWFkAAABMAAAAC0AAAA2BroQKWhoZWEAAAFgAAAAHAAAACQD5QHQaG10eAAAAeAAAAAPAAAAFAYAAABsb2NhAAACMAAAAA4AAAAOAO4AeG1heHAAAAF8AAAAHAAAACAASgAvbmFtZQAAA0wAAADeAAABkorWfVZwb3N0AAAELAAAACkAAABEp3ubLXgBY2BkYADhPPP4OfH8Nl8ZuJkYQODS2fRrCPr/aSYGxq1ALgcDWBoAO60LkwAAAHgBY2BkYGDc+v80gx4TAwgASaAICmABAFB+Arl4AWNgZGBgYGPQYWBiAAIwyQgWc2AAAwAHVQB6eAFjYGRiYJzAwMrAwejDmMbAwOAOpb8ySDK0MDAwMbByMsCBAAMCBKS5pjA4PGB4wMR44P8BBj3GrQymQGFGkBwAjtgK/gAAeAFjYoAAEA1jAwAAZAAHAHgB3crBCcAwDEPRZydkih567CDdf4ZskmLwFBV8xBfCaC4BXkOUmx4sU0h2ngNb9V0vQCxaRKIAevT7fGWuBrEAAAAAAAAAAAA0AHgAugAAeAF9z79Kw1AUx/FzTm7un6QmJtwmQ5Bg1abgEGr/BAqlU6Gju+Cgg1MkQ/sA7Vj7BOnmO/gUvo2Lo14NqIO6/IazfD8HEODtmQCfoANwNsyp2/G</t>
-  </si>
-  <si>
-    <t>Jt3WKQrd1NLiYYWx2PBqOsmJMEOznPOTzfSCrhAtbbLdmeFLJV9eKd63WLrZcIcuaEVdssWCKM6pLCfTVOYbz/0pNSMSZKLIZpvh78sAUH6PlMrreTCabP9r+Z/puPZ2ur/RqpQHgh+MIegCnXeM4MRAPjYN//5tj4ZtTjkFqEdmeMShlEJ7tVAly2TAkx6R68Fl4E/aVvn8JqHFQ4JS1434gXKcuL31dDhzs3YbsEOAd/IU88gAAAHgBfY4xTgMxEEVfkk0AgRCioKFxQYd2ZRtpixxgRU2RfhU5q5VWseQ4JdfgAJyBlmNwAM7ABRhZQ0ORwp7nr+eZAa54YwYg9zm3ynPOeFRe8MCrciXOh/KSS76UV5L/iDmrLiS5AeU519wrL3jmSbkS5115yR2fyivJv9kx0ZMZ2RLZw27q87iNQi8EBo5FSPIMw3HqBboi5lKTGAGDp8FKXWP+t9TU01Lj5His1Ba6uM9dTEMwvrFmbf5GC/q2drW3ruXUhhsCiQOjznFlCzYhHUZp4xp76vsvQh89CQAAeAFjYGJABowM6IANLMrEyMTIzMjCXpyRWJBqZshWXJJYBKOMAFHFBucAAAAAAAAB//8AAngBY2BkYGDgA2IJBhBgAvKZGViBJAuYxwAABJsAOgAAeAFjYGBgZACCk535hiD60tn0azAaAEqpB6wAAA==") format("woff");
+      src: url("data:application/x-font-woff;charset=utf-8;base64,d09GRgABAAAAAAScAA0AAAAABrAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABGRlRNAAAEgAAAABoAAAAcbyQ+3kdERUYAAARgAAAAHgAAACAAMwAGT1MvMgAAAZgAAABGAAAAVi+vS9xjbWFwAAAB8AAAAEAAAAFKwBMjvmdhc3AAAARYAAAACAAAAAj//wADZ2x5ZgAAAkAAAAEJAAABdH33LXtoZWFkAAABMAAAAC0AAAA2BroQKWhoZWEAAAFgAAAAHAAAACQD5QHQaG10eAAAAeAAAAAPAAAAFAYAAABsb2NhAAACMAAAAA4AAAAOAO4AeG1heHAAAAF8AAAAHAAAACAASgAvbmFtZQAAA0wAAADeAAABkorWfVZwb3N0AAAELAAAACkAAABEp3ubLXgBY2BkYADhPPP4OfH8Nl8ZuJkYQODS2fRrCPr/aSYGxq1ALgcDWBoAO60LkwAAAHgBY2BkYGDc+v80gx4TAwgASaAICmABAFB+Arl4AWNgZGBgYGPQYWBiAAIwyQgWc2AAAwAHVQB6eAFjYGRiYJzAwMrAwejDmMbAwOAOpb8ySDK0MDAwMbByMsCBAAMCBKS5pjA4PGB4wMR44P8BBj3GrQymQGFGkBwAjtgK/gAAeAFjYoAAEA1jAwAAZAAHAHgB3crBCcAwDEPRZydkih567CDdf4ZskmLwFBV8xBfCaC4BXkOUmx4sU0h2ngNb9V0vQCxaRKIAevT7fGWuBrEAAAAAAAAAAAA0AHgAugAAeAF9z79Kw1AUx/FzTm7un6QmJtwmQ5Bg1abgEGr/BAqlU6Gju+Cgg1MkQ/sA7Vj7BOnmO/gUvo2Lo14NqIO6/IazfD8HEODtmQCfoANwNsyp2/GJt3WKQrd1NLiYYWx2PBqOsmJMEOznPOTzfSCrhAtbbLdmeFLJV9eKd63WLrZcIcuaEVdssWCKM6pLCfTVOYbz/0pNSMSZKLIZpvh78sAUH6PlMrreTCabP9r+Z/puPZ2ur/RqpQHgh+MIegCnXeM4MRAPjYN//5tj4ZtTjkFqEdmeMShlEJ7tVAly2TAkx6R68Fl4E/aVvn8JqHFQ4JS1434gXKcuL31dDhzs3YbsEOAd/IU88gAAAHgBfY4xTgMxEEVfkk0AgRCioKFxQYd2ZRtpixxgRU2RfhU5q5VWseQ4JdfgAJyBlmNwAM7ABRhZQ0ORwp7nr+eZAa54YwYg9zm3ynPOeFRe8MCrciXOh/KSS76UV5L/iDmrLiS5AeU519wrL3jmSbkS5115yR2fyivJv9kx0ZMZ2RLZw27q87iNQi8EBo5FSPIMw3HqBboi5lKTGAGDp8FKXWP+t9TU01Lj5His1Ba6uM9dTEMwvrFmbf5GC/q2drW3ruXUhhsCiQOjznFlCzYhHUZp4xp76vsvQh89CQAAeAFjYGJABowM6IANLMrEyMTIzMjCXpyRWJBqZshWXJJYBKOMAFHFBucAAAAAAAAB//8AAngBY2BkYGDgA2IJBhBgAvKZGViBJAuYxwAABJsAOgAAeAFjYGBgZACCk535hiD60tn0azAaAEqpB6wAAA==") format("woff");
       font-weight: normal;
       font-style: normal
     }
@@ -1166,7 +1554,10 @@
       -webkit-box-sizing: border-box;
       -moz-box-sizing: border-box;
       box-sizing: border-box;
-      -webkit-overflow-scrolling: touch
+      -webkit-overf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low-scrolling: touch
     }
     .jdgm-hidden {
       display: none !important;
@@ -1203,10 +1594,7 @@
 &lt;/head&gt;
 &lt;body id="pivo" class="template-index data-animations"&gt;
   &lt;a class="visually-hidden skip-link" href="#MainContent"&gt;&lt;span data-translate="4"&gt;Перейти к содержанию&lt;/span&gt;&lt;/a&gt;
-  &lt;d</t>
-  </si>
-  <si>
-    <t>iv class="preload_header"&gt;
+  &lt;div class="preload_header"&gt;
     &lt;div class="preload_header-fakeBox"&gt;
       &lt;div class="preload_header-items preload_header-left"&gt;&lt;/div&gt;
       &lt;div class="preload_header-right-box"&gt;
@@ -1250,52 +1638,55 @@
     #Slideshow-slideshow .slideshow__heading,
     #Slideshow-slideshow .slideshow__button-label {
       color: #ffffff;
-    }
+    </t>
+  </si>
+  <si>
+    <t>}
   &lt;/style&gt;
 &lt;div data-section-id="slideshow" data-section-type="slideshow-section"&gt;
   &lt;div id="Slideshow-slideshow" class="slideshow"&gt;
       &lt;div class="slideshow__image slideshow__image-- slideshow__overlay"&gt;
         &lt;div class="placeholder-background"&gt;
-          &lt;svg class="placeholder-svg" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 1052 400"&gt;&lt;path d="M727.6 121.3c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm-183.5 62.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm235.5 236.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zM43.9 47.9c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm252.3 236c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm706.2-190.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM764.7 283.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM525 40.9c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm37.7 327.7c-4.4 0-8-3.</t>
-  </si>
-  <si>
-    <t>6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM50.9 276.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.5 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.6-6-6-6zM93.6 68.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm194.1-13.8c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm534.9 45c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-124 31.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2s4.2 1.9 4.2 4.2c0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM544.1 44.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zM310.2 268.5c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-9.1-213.3c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM26.6 64.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm776.9 268c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-234.9 13.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-528.4-75c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2 4.2 1.9 4.2 4.2-1.8 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm980.9-3.2c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM463.5 272c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm564.4-88.1L897.9 9.1c-.4-.5-1.2-.5-1.6 0L766.2 176.4c-.2.3-.3.8-.1 1.2.2.3.5.7.9.7h260.1c.4 0 .7-.3.9-.7.2-.4.1-.8-.1-1.1zm-156.5-16.7l-4.8 1.5c-1.8-13.9 2.7-25.4 13.2-34.1.2-.2.2-.5.1-.7-.2-.2-.5-.2-.7-.1-10.9 9-15.4 20.9-13.5 35.2-.5.2-1.1.4-1.7.5-1.2.4-2.3.8-3.5 1.2-.7-3.3-1.4-6.2-2.2-8.7-.1-.3-.4-.4-.6-.3-.3.1-.4.4-.3.6.8 2.5 1.5 5.4 2.2 8.7-1.7.6-3.4 1.1-5.1 1.7-5.6-22.4-9.8-21.8-35.3-18.4-3.2.4-6.8.9-10.8 1.4-4.1.5-7.1-.2-9.1-2.1-1.4-1.4-2.3-3.3-2.7-5.5l1.8-2.3c-.1.2-.2.5-.1.8.2.5.7.7 1.2.5.5-.2.7-.7.5-1.2-.2-.5-.7-.7-1.2-.5-.1 0-.2.1-.3.2l2.5-3.2c.2 2.5.9 4.6 2.4 6.1 1.5 1.4 3.5 2.2 6.3 2.2.8 0 1.7-.1 2.6-.2.3 0 .5-.3.4-.6s-.3-.5-.6-.4c-3.8.5-6.4-.1-8.1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7-1.5-1.5-2.1-3.9-2.2-6.6l4.2-5.4c9.4-.2 18.1-.9 26-2.1.3 0 .5-.3.4-.6 0-.3-.3-.5-.6-.4-7.5 1.2-15.9 1.9-25 2.1l1.3-1.6c.4.5 1 .8 1.6.8.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.6-.6-1-1.2-1.2l1.3-1.6c9.1-.6 19.9-1.8 29.8-4.2 22.2-5.3 29.6-19.6 35.6-31.2 4.8-9.3 8.4-16.1 18-13.8l-1.3 6.7c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.7c3.7.9 7.1 1.6 10.3 2.2l-1.3 6.4c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.4c3 .6 5.8 1.1 8.3 1.6.7.1 1.4.3 2.1.4l-1.3 6.5c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.5c4 .8 7.4 1.5 10.2 2.3l-1.2 6.2c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.2-6c5 1.8 8.2 4.3 10.2 9 0 .1.1.2.1.3 1.6 3.9 2.5 9.3 2.8 16.9-1.5.1-3.3.2-5.3.4-.3 0-.5.3-.5.5 0 .3.2.5.5.5 2-.2 3.8-.3 5.2-.4.1 1.3.1 2.7.1 4.2-3.3.2-14.3.8-26.8 3.4-20.1 4.2-34.3 11.1-42.2 20.5-5.8 7-8 15.2-6.7 24.3zm-61.6-36.2c.4 0 .7.3.9.7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6l1-1.4zm87.3-112.3l61.2 78.8c-4.5-.2-8.8-.7-12.7-1.9-2.3-5.2-6-7.9-11.5-9.9l.5-2.6c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.5 2.4c-2.9-.9-6.3-1.6-10.2-2.3l.4-2.1c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.1c-.7-.1-1.4-.3-2.1-.4-2.5-.5-5.2-1-8.2-1.6l.4-2.2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.2c-3.2-.6-6.6-1.4-10.3-2.2l.4-2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 1.9c-4.8-1.1-8.3-.3-11.1 1.8l-7.3-1.5c-.4-.1-.9.1-1.1.5-.2.3-3.9 7.6-1.2 14.9-5.7 11-13.1 24.2-33.8 29.2-9.1 2.2-19 3.4-27.6 4l83.9-107.5zm-14.6 62.2c-2.4 2.5-4.4 5.9-6.3 9.7-.9-4.6.6-9.1 1.3-10.7l5 1zm-2.9 63.5c9.4-11.3 27.5-17 41-19.9 14.7-3.1 27.4-3.4 27.5-3.4.5 0 1-.5 1-1-.2-10.1-1-17.1-2.7-22.2 3.6.9 8.2 1.5 13.4 1.6l30.5 39.3c-10.9 5.2-22 9.7-33.4 13.5-15.6 5.2-25.8 5.8-36.7 6.4-11.7.6-24.8 1.4-46.9 7.9-1.1-8.4 1-15.9 6.3-22.2zm-89.5 10.4c.1.4.1.9.2 1.3l1.8-2.3 2.9-3.8c.6 1.9 1.5 3.7 2.9 5 2.4 2.4 6.1 3.3 10.7 2.7 4-.5 7.6-1 10.8-1.4 25.6-3.5 27.9-3.7 33.1 17.1-15.8 5-27.4 8.2-35.6 10.2h-15.5c-5.7-8-8.2-19.1-9.4-29.6l-1.8 2.2c1.2 9.7 3.6 19.4 8.6 27.4h-29.9l21.2-27.4c.1-.5.1-.9 0-1.4L767 177.2l23.1-29.8zm85.1 28.8l6.8-2.5.9 2.5h-7.7zm-2.9 0h-28.7c7.8-3 14.7-4.9 20.6-6.9 6.1-2.1 11.1-3.8 14.6-4.8l2.9 8.1-9.4 3.6zm152.8 0h-140l-4.4-12.1c20.6-5 33.8-5.7 47.8-6.4 2.1-.1 4.3-.2 6.5-.4 8.8-.5 30.2-5.7 59.6-20.5l-1.2-1.6c-28.9 14.5-49.9 19.6-58.5 20.1-2.2.1-4.4.2-6.5.3-14.3.7-27.8 1.4-49 6.6-.1 0-.2 0-.3.1h-.1c-3.7.9-8.9 2.8-15.4 5-7.4 2.5-16.6 5.8-26.9 8.8h-11.2c9.6-3 22.4-6.4 39.2-12 27.6-9.3 42.6-10.2 55.7-10.9 11-.6 21.4-1.2 37.2-6.5 11.7-3.9 23-8.5 34.1-13.8l1.8 2.3 1.2 1.6c.3-.1.6-.3.9-.4l.1.1 31.5 40.7-31.5-40.6c-.3.2-.6.3-.9.4l30.3 39.2z"/&gt;&lt;path d="M855 149.4c.1.2.3.3.4.3.1 0 .2 0 .2-.1.2-.1.3-.4.2-.7-6.3-12.2-16.4-10.7-34.7-8.1-1.4.2-2.9.4-4.4.6-.3 0-.5.3-.4.6 0 .3.3.5.6.4 1.5-.2 3-.4 4.4-.6 17.9-2.6 27.8-4 33.7 7.6zm28.3-25.4c.1.1.3.2.4.2.1 0 .2 0 .3-.1 12.1-8.1 30.3-13.5 53.9-15.9.3 0 .5-.3.4-.5 0-.3-.3-.5-.5-.4-23.8 2.4-42 7.8-54.3 16-.3.2-.3.5-.2.7zm3.1-30.9c.3-.1.4-.4.3-.6-.1-.3-.4-.4-.6-.3-3 1-5.5 2.9-7.2 5.5-1.8 2.8-11.5 16.9-25.4 22.2-4.9 1.8-10.4 3.4-16.4 4.5-.3.1-.4.3-.4.6 0 .2.3.4.5.4h.1c6.1-1.2 11.6-2.7 16.5-4.6 14.2-5.4 </t>
-  </si>
-  <si>
-    <t>24.1-19.7 25.9-22.6 1.6-2.4 4-4.2 6.7-5.1zm4.3-.6c.4 0 .9 0 1.3.1l22.1 2.6h.1c.2 0 .5-.2.5-.4 0-.3-.2-.5-.4-.6l-22.1-2.7c-.5-.1-.9-.2-1.4-.2-.3 0-.5.3-.5.6-.1.2.1.6.4.6zm26.5 2.5c0 .3.2.5.4.6 4.6.5 8.3 3.9 9.2 8.4l.3 1.6c0 .2.3.4.5.4h.1c.3-.1.4-.3.4-.6l-.3-1.6c-1-4.9-5.1-8.6-10.1-9.2-.2 0-.4.2-.5.4z"/&gt;&lt;ellipse transform="rotate(-20.016 944.06 109.69)" cx="944.1" cy="109.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 939.31 110.263)" cx="939.4" cy="110.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 914.644 113.925)" cx="914.7" cy="113.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 924.99 112.103)" cx="925" cy="112.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 928.9 111.65)" cx="928.9" cy="111.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 909.974 115.297)" cx="910" cy="115.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 899.37 118.964)" cx="899.4" cy="119" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 894.725 120.853)" cx="894.7" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 874.344 136.748)" cx="874.4" cy="136.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 881.238 129.294)" cx="881.3" cy="129.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 885.095 126.307)" cx="885.1" cy="126.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.082 140.004)" cx="872.1" cy="140" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.997 149.4)" cx="869" cy="149.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.683 152.79)" cx="868.7" cy="152.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 855.214 156.368)" cx="855.2" cy="156.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 853.88 152.703)" cx="853.9" cy="152.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 847.56 144.56)" cx="847.6" cy="144.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 843.473 142.673)" cx="843.5" cy="142.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 827.555 143.41)" cx="827.6" cy="143.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 832.317 142.79)" cx="832.3" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 811.065 145.516)" cx="811.1" cy="145.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 816.355 144.84)" cx="816.4" cy="144.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 800.762 142.79)" cx="800.8" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 930.208 105.774)" cx="930.3" cy="105.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 929.345 101.854)" cx="929.4" cy="101.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 927.505 98.355)" cx="927.6" cy="98.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 925.4 95.16)" cx="925.4" cy="95.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 921.753 93.307)" cx="921.8" cy="93.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 917.842 92.26)" cx="917.9" cy="92.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 913.847 91.802)" cx="913.8" cy="91</t>
-  </si>
-  <si>
-    <t>.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 910.554 91.235)" cx="910.6" cy="91.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 906.513 90.77)" cx="906.5" cy="90.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 901.752 90.09)" cx="901.8" cy="90.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 897.63 89.598)" cx="897.6" cy="89.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 893.483 89.146)" cx="893.5" cy="89.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 889.072 88.807)" cx="889.1" cy="88.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 884.517 89.494)" cx="884.5" cy="89.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 880.373 91.976)" cx="880.4" cy="92" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 877.565 94.954)" cx="877.6" cy="95" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.024 102.866)" cx="872" cy="102.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 869.188 105.844)" cx="869.2" cy="105.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 861.102 113.444)" cx="861.2" cy="113.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 857.688 115.7)" cx="857.8" cy="115.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 848.15 119.605)" cx="848.2" cy="119.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 843.256 120.825)" cx="843.5" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 834.034 122.542)" cx="834.4" cy="122.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 829.758 123.153)" cx="830.1" cy="123.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 818.873 124.066)" cx="819.2" cy="124.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 814.146 124.62)" cx="814.4" cy="124.6" rx=".9" ry=".9"/&gt;&lt;path d="M874.7 100.6c.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.4.9 1.1 1.4 2 1.4zm-.4-3c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3zm-10.2 13.5c.3.1.6.2.9.2.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.4.6.8 1.1 1zm0-2.3c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.2.5-.1 1.1-.6 1.3-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.2-.2-.5 0-.8zm-11.3 10.4c.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.4-1.1-1.6-1.6-2.6-1.2-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.7 1.1 1.2 1.9 1.2zm-.9-2.5c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.4 0 .8.3 1 .7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6-.3-.2-.3-.5-.1-.8zm-13.8 6.4c.3.1.6.2.9.2.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.2.5.6.9 1.1 1.2zm.5-2.8c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.6.1-1.2.6-1.3zm-13.1 1.4c-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.3.8 1.1 1.3 1.9 1.3.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.4-.5-.8-1-1zm0 2.3c-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3.1 0 .2-.1.4-.1.1 0 .3 0 .4.</t>
-  </si>
-  <si>
-    <t>1.2.1.4.3.5.6.2.2.2.5 0 .8zm30.3 35.3c-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.2-.5-.5-.8-1-1-.4-.3-.9-.3-1.4-.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.3.1.5 0 .7zm13.2-4.3c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.3-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4s-.4.1-.7 0c-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zm2.5-13.5c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1.1-.4 1.6-1.4 1.2-2.4zm-1.4 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.5-.1 1-.5 1.1zm8.5-12.4c.2-.4.2-1 .1-1.4-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1.5-.3.9-.6 1.1-1zm-.9-.5c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm10.5-11.3c-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.4-1-1.5-1.5-2.4-1.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.4 0 .7zm14.9-8.3c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.4 1.5-1.4 1.1-2.4-.1-.4-.4-.8-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm17.1-5.7c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.2-2.4zm-1.5 1.5c-.4.2-.9-.1-1.1-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.2.4 0 .9-.5 1.1zm14.4-4.7c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.1-.4-.4-.7-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5 0 1-.5 1.1zM853 147.5c-.2-.5-.5-.8-1-1-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.9-.4 1.4-1.5 1.1-2.4zm-1.5 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm-11.4-7.2c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .3-.4.3-.9.1-1.4zm-.9 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm-17-.4c-.4-.2-1-.2-1.4-.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.2-.4-.6-.8-1-1zm-.5 2.5c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5-.1 1-.5 1.1zm-14.8 0c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.2-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zM986.7 210.2h-170c-.6 0-1 .4-1 1v170c0 .6.4 1 1 1h170c.6 0 1-.4 1-1v-170c0-.5-.4-1-1-1zm-126.5 104c2.3</t>
-  </si>
-  <si>
-    <t>.8 33.8 12.3 71.3 30.6 8.6 4.2 16.7 8.4 24.1 12.3v.1c.1.1.3.2.4.2h.1c8.7 4.6 16.4 9 22.8 12.7.1.1.3.2.4.2.1 0 .2 0 .3-.1-.1.1-.1.1-.2.1 2.3 1.3 4.3 2.5 6.3 3.6v6.2h-34.4c-.1 0-.2.1-.3.1h-.2c-.1 0-.3-.1-.4-.1h-10.7c-8.5-3-16.8-6.7-24.7-10.6-22.8-11.2-46.8-27.4-67.3-41.8-.1-.1-.2-.2-.3-.2-2.9-2-5.7-4-8.5-6-8.1-5.7-15.2-10.8-21.2-14.7v-4.6c5 2.8 10.3 6.5 16.5 10.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2 0-.5-.2-.7-6.5-4.5-12-8.3-17-11.1v-.5c1 .2.9.3 1.3.5 28.5 12.1 39.7 13.1 41.2 13.1zm27.3-46.9c-2.6-3.4-3.9-6.7-4.5-9.6 3.6 4.8 8.4 7.7 9.4 8.3.2 2.1.5 4.2.9 6.5v.1c0 .1 0 .3.1.4.4 2.6 1 5.3 1.7 8.1 0 .1.1.1.1.2.1.1.2 0 .4 0-.1 0-.3.2-.4.1 1.4 5.6 3.4 11.7 6.1 17.7.6.2.9.3 1 .3.2 0 .4.2.4.5 0-.2-.2-.4-.4-.4 0 0-.4-.1-1-.2-2.7-.7-10.6-3.2-18.6-8.3-.6-.8-1.1-1.4-1.5-2l9.7-1.1c.4 0 .8-.4.9-.8s-.1-.9-.5-1.1c-6.8-3.8-10.1-14.1-11.1-17.8l6.5.8c.4 0 .8-.1 1-.5.1-.4 0-.9-.2-1.2zm-4.8-17.2l4.3 2.1c.3.1.6.1.9 0s.5-.4.5-.7c.4-2.1-2.5-8.6-3.7-11 .4-2.1 1.8-4.4 3.5-6.6-1.1 7.1 3.1 13.6 3.7 14.5-.3 4.4-.4 10 .2 16.4-1.8-1.2-6.6-4.5-9.6-9.4-.2-2.3 0-4.2.2-5.3zm14.6 1.6c.4.3.9.3 1.3-.1l8.4-7.9c.2.6.4 1.3.6 2-2.2 2.7-10.5 13-13.7 24.3-1.2-8.8-1.2-16.4-.8-21.9.4-1.5 2.9-9.8 7.1-14.3 1 1.5 1.8 2.9 1.9 3.5.3 1.6-2.7 8.6-5 13.1-.3.5-.2 1 .2 1.3zm42.3-20.1c6.3 3.4 10.1 9.3 14.1 15.5 4.4 6.7 8.9 13.7 16.9 17.6.1.1.3.1.4.1.4 0 .7-.2.9-.6.2-.5 0-1.1-.5-1.3-7.5-3.7-11.9-10.4-16.1-16.9-1.7-2.7-3.5-5.4-5.5-7.9 1.9 1.4 3.7 2.7 5.6 4.1 4.2 3.1 8.4 6.3 13.6 9.3.3.2.6.4.9.5 1.4.8 2.7 1.6 4.2 2.3.4.2.9.4 1.3.6 3.5 1.7 7.1 3 10.1 4.2V353c-17-9.3-41-22.1-70.2-35.2l-1 .7.9-.7 8.9-6.9c.4-.3.5-.8.3-1.2-.2-.4-.7-.7-1.1-.6l-7.5 1.6 5.2-7.9c.3-.4.2-.9-.1-1.2-.3-.3-.8-.4-1.2-.1l-5.5 3.4c1.4-2.6 3.3-5.8 3.9-6.8 3.7-6.3 1.5-14.7-.9-23.6-.6-2.2-1.2-4.5-1.7-6.7-.1-.4-.4-.7-.9-.8-.4 0-.8.2-1 .5l-6.8 13.4c.3-3.4 1.4-9.2 4.9-17.4 1.8-4.2-2.4-18.4-3.3-21.4.7-.8 1.3-1.5 1.7-2 1.6-1.9 5.8-5.8 11.2-8.3 6.7-3.2 12.8-3.2 18.3-.2zM958 356.2l13.1-9c.8.4 1.6.9 2.5 1.3l-13.1 9c-.9-.4-1.7-.8-2.5-1.3zm-6.9-3.6l13.1-9c2 1.1 4 2.1 5.9 3.1l-13.1 9c-1.9-1-3.9-2.1-5.9-3.1zm-51.6-41.9c0-.2-.1-.4-.3-.5l-1.4-1.2 4.6-.1c.5 0 .8-.3 1-.8.1-.4-.1-.9-.5-1.1-8.7-4.7-14.5-9.9-18-13.7 8.1 4.7 15.6 6.9 16.9 6.9.3 1 1 1.2 1 1.8v.2c.6 1.1 1.1 2.3 1.7 3.5 0 .1 0 .1.1.2 1.7 3.1 3.6 6.3 5.7 9.5-3.6-1.6-7.2-3.2-10.8-4.7zm-5.3-38.2c2.5-11.4 10.8-22.2 13.6-25.7.4 1.4.8 2.9 1.1 4.4-2.5 2.7-11.7 13.8-13.7 26.7-.3-1.8-.7-3.6-1-5.4zm1.8 8.5c.7-13.1 10.1-24.8 13.2-28.5 1 4.4 1.5 8.6.8 10.1-6.5 15.1-5.1 22.2-5 22.5.1.4.4.7.9.8.4 0 .8-.2 1-.5l7.4-14.6c.4 1.4.7 2.8 1.1 4.1.1.2.1.4.2.6-.9 4-4.4 17.4-12.4 25.5-3.3-6.9-5.6-13.6-7.2-20 0 .1 0-.1 0 0zm20.5 16c-1.1 1.8-5.8 10.2-5.8 10.3-.2.4-.2.9.2 1.2.3.3.8.4 1.2.1l5-3.1-4 6.1c-.2.3-.2.8 0 1.1.2.3.6.5 1 .4l5.6-1.2-6.3 4.8c-.6-.3-1.3-.6-1.9-.8.1-.1 0-.3 0-.5-2.2-3.3-4.2-6.6-6-9.8 6.3-5.5 10.6-14.7 12.4-19.2.5 4 .3 7.6-1.4 10.6zm-11.5 7.7c-.5-.9-.9-1.9-1.4-2.8 7.4-7.3 11.1-18.9 12.5-24.4.6 2.4 1.2 4.7 1.5 6.9-1.3 3.4-5.8 14.3-12.6 20.3zm-2.5-3c0-.1.1-.2.1-.2 0 .1-.1.2-.1.2zm9.5 16.6l-13.4 9.2-2.7-1.2 13.4-9.</t>
-  </si>
-  <si>
-    <t>2 2.7 1.2zm1.1.5c.9.4 1.8.8 2.6 1.2l-13.2 9.1c-.1 0-.1.1-.1.1l-2.7-1.2 13.4-9.2zm3.7 1.7c2.1 1 4.2 1.9 6.3 2.9l-13.3 9.1c-2.2-1-4.3-1.9-6.4-2.8l13.4-9.2zm7.4 3.3c.9.4 1.7.8 2.6 1.2l-13.2 9.1c-.9-.4-1.8-.8-2.6-1.2l13.2-9.1zm3.6 1.7c2.1 1 4.2 2 6.2 2.9l-13.2 9.1c-2.1-1-4.2-2-6.3-2.9l13.3-9.1zm7.3 3.5c.9.4 1.7.8 2.6 1.2l-13.1 9.1c-.9-.4-1.7-.8-2.6-1.2l13.1-9.1zm3.6 1.7c2.1 1 4.1 2 6.1 3l-13.1 9c-2.1-1-4.1-2-6.2-3l13.2-9zm7.2 3.5c4.8 2.4 9.4 4.7 13.8 7l-13.1 9c-4.4-2.3-9-4.6-13.8-6.9l13.1-9.1zm14.7 7.5c.8.4 1.7.9 2.5 1.3l-13.1 9c-.8-.4-1.7-.9-2.5-1.3l13.1-9zm-67.1-98.2c.4-3.3.8-5.1.9-5.2 0 0 .8-3.6 3.6-7.7.6.8 1.1 1.6 1.6 2.3-2.9 2.9-4.9 7.3-6.1 10.6zm-.1-5.4s-.1.3-.2.7c-.4-2.7-.7-7.2 1.1-10.8.1-.1.1-.3 0-.4.3-.2.5-.5.7-.6.7.9 1.5 1.9 2.2 2.9-2.9 4.2-3.8 8-3.8 8.2zm-.7 3.5c-.2 1.4-.4 3.1-.6 5.1-1.4-2.5-4.3-8.5-2.4-14.5 1.1-1.2 2.2-2.4 3.2-3.3-2 5.6-.3 12-.2 12.7zm-4.8 44.5l-8.6 1c-.3 0-.6.2-.8.5s-.1.7 0 .9c.2.4 5.6 9.7 20.2 18.4l-3.5.1c-.4 0-.8.3-.9.7-.1.3-.1.6.1.9-8.5-3.5-17.3-7-26.3-10.5 3.2-6.7 7.6-14.6 12.8-21.8 1.6 3.5 3.9 7.2 7 9.8zm20.4 30.6l-13.4 9.3c-17.2-7.3-29.6-12-33.1-13.3.1-.2.2-.5.3-.7.9-2.3 2.7-6.7 5.2-12 14.4 5.4 28.1 11 41 16.7zm-90.6 63.5v-59.5c12 4.2 26.9 8.2 28.8 8.7-1.7-1.2-3.3-2.3-4.9-3.5-5.9-1.7-15.9-4.5-23.9-7.4v-9.2c6 3.9 12.6 8.7 20.1 13.9l3.9 2.7c1.6 1.1 3.2 2.3 4.9 3.4h.5-.5c20.5 14.4 44.6 30.8 67.6 42 6.4 3.2 13.1 5.8 20 8.8H817.7zm0-79.5c-.1 0-.2-.1-.3-.1.1.1.2.1.3.1zm-1 0v-.3l.1.1-.1.2.1 1.2c.2.1.4.3.6.4-.3-.1-.7-.2-.7-.4v-1.2zm170 69l-1 .7v1.3c0-.2-.8-.4-1.1-.6l-1.4.9 1.4-.9 1.1-.7 1-.7v-1.2 1.2zm0-13.9v1.2l-1 .7v3.1l-8.6 5.9.9.6 7.7-5.3v-.1l1-.6V360v1.2l-1 .7v3.1l-5.3 3.6.9.6 4.4-3v-.1l1-.6v-1.2 1.2l-1 .7v2.9l-.1.1-2 1.4c-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.5-3.7-2.1-7.8-4.4-12.1-6.7l13.1-9 .4-.3-.4.3c4 2.2 7.1 4.2 11.1 6.1.2.3 1.2.4 1.2.7zm0-96.3l-.1-.1v-.1l-.9-.3v-.1c0 .1 1 .2 1 .3v.3zm0-2.1c0-.1 0-.1 0 0v-.2c0-.1-.7-.2-1-.3v-.1c-3-1-5.7-2.1-8.7-3.5-.6-.3-1.2-.5-1.8-.8-1.4-.7-2.8-1.5-4.1-2.2-3.9-2.3-7.5-5-11.3-7.8-3.4-2.5-6.8-5-10.6-7.4-2.6-1.8-5.5-3.6-8.6-5.3-13.8-7.5-27.7 3.8-31.9 8.8-.5.6-1.2 1.5-2.1 2.5-.1.1-.1.2-.1.2l-5.4 5.1c1.5-3.5 3.2-7.7 2.8-9.5-.5-2.9-7.2-11.2-8-12.1-.2-.2-.4-.3-.7-.4-.3 0-.5.1-.7.2-.4.4-10.6 8.7-11.8 15.8 0 .2 0 .4.1.6 1.4 3 2.8 6.5 3.4 8.5l-3.8-1.9c-.3-.1-.6-.1-.8 0-.3.1-.5.3-.6.6-.1.4-2.7 8.6 3.6 18.3l-5.7-.7c-.3 0-.6.1-.9.3-.2.2-.3.6-.2.9.1.3.7 3.4 2.3 7.2-.2.1-.4.2-.5.3-5.5 7.4-10 15.7-13.3 22.7-.7-.3-1.4-.5-2.1-.8-.5-.2-1.1.1-1.3.6s.1 1.1.6 1.3c.6.2 1.3.5 1.9.7-2.5 5.3-4.2 9.6-5.2 12-.2.4-.3.8-.4 1-2.7-.3-14.3-2-39.9-12.7-.7-.3-1.1-.6-2.1-.8v-86.4h168v44.6c0 .1 1 .2 1 .4v.3z"/&gt;&lt;path d="M986.7 357v-1.3c0-.2-1-.4-1-.6v1.4l-12 8.2c.3.2.6.4.9.5l11.1-7.6v-.1l1-.5zm-140.9-35.6c2.7 1.9 5.4 3.8 8.3 5.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2.1-.5-.1-.7-2.8-2-5.6-3.9-8.3-5.8l-2.2-1.6c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l2.2 1.6zm105.3 57.9c-12.3-4.3-22.7-8.5-31.8-13-20.5-10-41.2-23.8-57-34.6-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7 15.8 10</t>
-  </si>
-  <si>
-    <t>.9 36.5 24.7 57.1 34.8 9.1 4.4 19.4 8.9 31.6 12.9h.6c.1 0 .2 0 .2-.1h.1c.1 0 .1-.1.1-.2.1-.1 0-.5-.3-.6zm-56-97.8c0-.1-.1-.3-.1-.4v.1c0 .1 0 .2.1.3zM776.7 224.3L648 60.4c-.4-.5-1.2-.5-1.6 0l-128.7 164c-.3.4-.3.9 0 1.2l128.7 164c.2.2.5.4.8.4s.6-.1.8-.4l128.7-164c.3-.4.3-.9 0-1.3zm-129.5 163l-87.1-111 13.9 4.1h.3c.4 0 .8-.3 1-.7l17.2-57.6c2.9 4.3 10.5 16.8 17.5 35.4 8.5 22.6 13.8 34.7 31.1 41.9 13.2 5.5 34.3 8.1 67 10.4l-60.9 77.5zM543.5 255.2l33.9 10.1-1.9 6.2-25.1-7.5-6.9-8.8zm5.8-61.8l-3.9-1.2 4.3-5.5 24.6 7.3c3.4 2.9 6.8 6.1 10.3 9.8l-24.7-7.4c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l26.3 7.8c2.5 2.7 4.9 5.6 7.3 8.7-.1 0-.2.1-.3.1l-50.5-15.1.5-3.7 1.9-2.4 4.3 1.3h.1c.2 0 .4-.1.5-.4.1.2-.1-.1-.4-.2zm1.1-7.5l4.4-5.6c4.8 2.7 10.9 6.7 17.6 12.2l-22-6.6zm38 42.6l-18.7-5.6c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l18.7 5.6-1.9 6.2-47.2-14.1 1-6.5 22.6 6.7h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-22.7-6.8 1-6.5 49.1 14.7-1.9 6.4zm-8.6 28.7l-44-13.1 1-6.5 37.1 11.1h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-37.3-11.1 1-6.5 46 13.7-4.1 13.4zm4.3-14.3L538 229.1l1-6.5 47 14-1.9 6.3zm6.4-21.6l-49.3-14.7 1-6.5 50.2 15-1.9 6.2zm-50.7-21.9l.5.1-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.6-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.8.2-.9 6-14.2-17.9 20.1-25.6zm-4.2 45.7l43.9 13.1-1.9 6.2-35.2-10.5-6.8-8.7v-.1zm39.6 27.4l-1.7 5.7-15.6-4.7-6.4-8.1 23.7 7.1zm36.6-15.6c-8-21.3-17-34.7-18.7-37.2l1.2-4.1c5.7 7.6 11 16.5 15.7 26.8 2.4 5.4 4.5 10.4 6.3 14.9 13.6 32.9 17.5 42.5 95.9 47.1l-2.8 3.6c-78-5.6-82.6-11.2-97.6-51.1zm6.4-.4c-1.8-4.4-3.9-9.5-6.4-14.9-16.2-36.1-41.5-54.7-55.8-62.8l41.1-52.4c-1.8 4.7-3.5 8.8-5 12.4-7.8 19.1-10.7 26.2-2.3 39 10.7 16.1 27.2 32.1 41.5 28.4 6.1-1.6 10.1-6.7 10.8-13.9.4-4.2.7-8.8 1-13.6 1-15.5 2.3-34.9 7-55.8 3.8-16.9 12.7-16.1 26-15 2.3.2 4.6.4 6.9.5l3.4 4.3c-1.5 12.4-5.2 44.2-6.2 66.8-3 70 9.2 77.6 32.7 85.8 8.9 3.1 15.6 7.4 20.1 12.7l-19.3 24.6c-78.4-4.7-82.2-13.9-95.5-46.1zm-6.8-148.2c24.6 5.9 34.3 12.3 36.8 14.2-4.8 21.1-6 40.5-7 56.1-.3 4.8-.6 9.3-1 13.6-.6 6.3-3.9 10.8-9.3 12.1-8.7 2.2-23.6-3.9-39.3-27.6-.5-.7-.9-1.4-1.3-2.1 10.6 15.3 22.4 24.1 32.3 24.1h1.1c.3 0 .5-.3.5-.5 0-.3-.3-.5-.5-.5-10.4.7-23.3-9.2-34.5-26.6-.2-.2-.5-.3-.7-.1-3.6-8.7-.7-15.7 5.7-31.3 2.1-5 4.6-11.2 7.3-18.5l9.9-12.9zm70-2.1c-1.7-.1-3.5-.3-5.1-.4-13.1-1.1-23.6-2-27.9 15.5-3-2.2-12.7-8.3-36.3-14l35.1-44.8 34.2 43.7zm32.3 157.1c-23.3-8.2-34.4-15.2-31.4-83.9.9-21.4 4.3-51.1 5.9-64.6L774.6 225l-40.3 51.3c-4.6-5.4-11.5-9.8-20.6-13z"/&gt;&lt;path d="M632.9 193.5c.2 0 .3-.1.4-.2 1.5-2.2 2.5-4.9 2.8-8 .3-3.6.6-7.6.9-11.4 0-.3-.2-.5-.5-.5-.2 0-.5.2-.5.5-.3 3.8-.6 7.7-.9 11.4-.3 2.9-1.1 5.4-2.6 7.5-.2.2-.1.5.1.7.1-.1.2 0 .3 0zm4.2-28.6s.1 0 0 0c.3 0 .5-.2.5-.5.7-9.7 1.8-21.4 4-34.1 0-.3-.1-.5-.4-.6-.3 0-.5.1-.6.4-2.3 12.7-3.3 24.4-4.1 34.2.1.3.4.5.6.6zM508.7 10.2h-183c-.6 0-1 .4-1 1v181c0 .6.4 1 1 1h183c.6 0 1-.4 1-1v-181c0-.5-.4-1-1-1zm-1 181h-181v-179h181v16H5</t>
-  </si>
-  <si>
-    <t>04c-.6 0-1.3.6-1.3 1.1v3.9h-91c-2.5-3-3.7-4.6-3.7-4.7-.2-.4-.7-.6-1.1-.5l-10.8 3.1c-.3.1-.5.2-.6.5s-.2.6-.1.8c0 .1.1-.3.3.7h-7v-3.9c0-.6-.4-1.1-.9-1.1h-17.3c-.6 0-.7.6-.7 1.1v3.9h-25.1c-1.8 0-2.9 1.3-2.9 3.2v15.2c0 12.1-1.5 24.4-2.8 37.5-1.4 14.3-3 29-3 44.5 0 12.5 2.3 17.8 5.9 25.8 1 2.3 2.3 4.9 3.6 8 0 .1.1.2.1.3.1.2 0 .5.1.7 2.3 5.2 7.6 8.9 13.6 8.9h148.4v14zM417.6 52.5l5.7-7.4 4.1 3.1 4.1 3.1-5.7 7.4-8.2-6.2zm6.9 7.8l-.8 1-3.3-2.5.8-1 3.3 2.5zm-8.1-6.2l3.3 2.5-.8 1-3.3-2.5.8-1zm-18.6-21.3l9-2.6c1.3 1.9 5.8 7.8 14.9 13.8l-5.6 7.3c-12.9-9.2-17.1-16.1-18.3-18.5zm26.7 10.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm4.8 3.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm3.7 5.4l10.4 8-2.1 2.7-3.6 4.7-10.4-8 5.7-7.4zm-.9 14.1c.1-.1.1-.2.2-.3l4.2 3.2-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-4.2-3.2.1-.1c.5-.7 1.3-1.1 2.2-1.2.9-.1 1.7.1 2.4.6l49.1 37.7c1.4 1.1 1.7 3.1.6 4.5-1.1-.8-2.2-1.5-3.3-2.3l.4-.5c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.6-.7 1.9 1.2c.6.4 1.3.8 1.9 1.2-.3 0-.6.1-.8.4-.5.7-1.3 1.1-2.2 1.2-.9.1-1.7-.1-2.4-.6l-49.1-37.7c-.7-.5-1.1-1.3-1.2-2.2-.4-.9-.1-1.7.4-2.4zm54.3 38.3l-1.9-1.1 5.7-7.4c2.3 1.6 4.7 3.2 6.9 4.7 3.6 2.5 6.6 5 10.6 7.3v10c-7-3.9-13.5-8.4-21.3-13.5zm11.9-5.4c-.6-.4-1.3-.8-1.9-1.2 1.7-2.3 1.2-5.5-1-7.2l-49.1-37.7c-1.1-.9-2.5-1.2-3.9-1-1.4.2-2.6.9-3.5 2 0 .1-.1.1-.1.2l-4.7-3.6 1.3-1.7c.3-.4.3-1.1-.2-1.4l-4.1-3.1.3-.4c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.3.4-4.1-3.1c-.2-.2-.5-.2-.7-.2-.3 0-.5.2-.7.4l-1.4 1.8v.1c-3.8-2.5-6.8-5.2-9.1-7.2h94.2V106c-3-2-6.2-4.2-9.4-6.4zm6.7-66.4h-.3v-3h3v3H505zm-118.3-3v3h-15v-3h15zM346.5 169c.1 0 .1 0 0 0zm46.4-32.1c.1.2.3.4.3.6s-.2.4-.3.6c.1-.2.2-.4.2-.6s-.1-.5-.2-.6zm.2 22.3c.1.1.3.1.5.1s.3-.1.5-.1h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.6v2h-.4c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.2v-2h.3zm6.6-19.4c-.6 0-1 .4-1 1v.4h-4v-19h11v19h-5v-.4c0-.5-.4-1-1-1zm-1 3.4v7.4c-.2-.1-.4-.1-.6.1-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.2-.2-.5-.2-.7 0s-.2.5 0 .7c.7.7.7 1.9 0 2.6-.7.7-1.9.7-2.6 0-.7-.7-.7-1.8-.1-2.5v.4c0 .6.4 1 1 1s1-.4 1-1v-8.6h5v9.9c-.1.1-.1.3-.1.4s0 .3.1.4v3.3h-11v-3.7c0 .2 0 .4-.2.5.1-.1.2-.3.2-.5v-10.3h4zm-4 15.4c0 .2-.1.3-.3.4.1-.1.2-.3.3-.4zm11.1-5.8c.1-.4.4-.6.8-.6-.3 0-.6.3-.8.6zm3.2 4.4h-1.3v-3h2.6c.6 0 1.4-.1 1.4-.7v-11.7c0-.6-.9-.6-1.4-.6h-2.6v-3.1c0 .2.3.1.7.1h75.1c.1 0 .3.2.3.2v2.8h-2.6c-.6 0-1.4.1-1.4.6v11.7c0 .6.8.7 1.4.7h2.6v3h-1.3c-.6 0-.7.6-.7 1.1v3.6c0 .6.1 1.3.7 1.3h1.3v6.4c0 .3.1.6.4.8l6 4.8h-88.9l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6.1-4.8c.2-.2.4-.5.4-.8v-6.4h1.3c.6 0 .7-.7.7-1.3v-3.6c-.1-.5-.3-1.1-.8-1.1zm-1.3-5v-9h2v9h-2zm77.5 7h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.5v2h-.3c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.3v-2h.5c.1.1.3.1.5.1s.3 0 .4-.1zm-.5-7c.5 0 .9.5 1 1-.1-.4-.5-1-1-1zm13.1 0c-.5 0-.9.5-1 1v-.1c0-.5.4-.9 1-.9zm-.4-15c0-.6.4-.9 1-.9-.5-.1-.9.4-1 .9zm-.5 21.6c-.1-.1-.1-.3-.1-.5-.1.2 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> .4.1.5zm-.2-17.6h-4v-.4c0-.6-.4-1-1-1s-1 .4-1 1v.4h-5v-19h11v19zm-6 2v8.6c0 .6.4 1 1 1s1-.4 1-1v-.3c.5.7.5 1.7-.2 2.4s-1.9.7-2.6 0c-.7-.7-.7-1.9 0-2.6.2-.2.2-.5 0-.7s-.5-.2-.7 0c-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.1-.1-.3-.2-.5-.1v-7.3h4v14h-11v-14h5zm6.1 18.4c0 .1-.1.2-.1.4 0-.2 0-.3.1-.4zm-.1 1.6v6l-5.5 4.4-5.5-4.4v-6h11zm-13-11h-2v-9h2v9zm-89 11h11v6l-5.5 4.4-5.5-4.4v-6zm-.2-1.7zm13 0c.1.1.2.2.2.5 0-.2-.1-.4-.2-.5zm-.1-2.5c.2-.2.3-.4.3-.6 0 .2-.1.5-.3.6zm-14.7-6.8h-2v-9h2v9zm0-13.9v2.9H390c-.6 0-1.2.1-1.2.6v11.7c0 .6.7.7 1.2.7h2.8v3h-1.5c-.6 0-.5.6-.5 1.1v3.6c0 .6 0 1.3.5 1.3h1.5v6.4c0 .3.1.6.3.8l6 4.8h-39.7c-5.3 0-9.8-3.2-11.8-7.7-.1-.2 0-.5-.1-.7-.1-.3-.2-.5-.3-.8-.3-1.2-.4-2.5-.4-3.7v-26.7c2 1.8 4.7 2.6 7.8 2.6h37.5c.2 0 .6.2.6.1s.1-.1.1-.1l-.1.1zm115 36.9h-15.4l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6-4.8c.2-.2.4-.5.4-.8v-6.4h1.4c.6 0 .6-.7.6-1.3v-3.6c0-.6-.1-1.1-.6-1.1h-1.4v-3h2.7c.6 0 1.3-.1 1.3-.7v-11.7c0-.6-.8-.6-1.3-.6h-2.7v-3h9v37zm-9-23v-9h2v9h-2zm9-20.5v-.3c-.1.1-.1.2-.1.3v.2c0 .1 0 .2.1.3v4h-9v-14h2.9c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h2.9v14.3s-.2-.3-.3-.3h-75.1c-.3 0-.7.4-.7.6v-14.6h2.8c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h3v14.4s0 .1.1.1l-.1-.1v-.1c0-.1-.4-.4-.6-.4h-37.5c-6.2 0-10.8-4.9-10.8-11.1V51.6c0 10.5-1 21.1-2 32.2v41.3c0 3.2 1 6.2 3 8.5v25.6c-.5-.2-.7-.4-.9-.7-3.6-8-5.8-12.9-5.9-25 0-15.4 1.6-30.1 3-44.3.2-1.8-.3-3.6.7-5.5 1-11.1 1.8-21.7 1.8-32.2 0-.5-.3-1-.8-1h.1c.6 0 1 .4 1 1V36.4c0-.7.1-1.2.9-1.2h51c.4 0 .7-.3.9-.6-.3-.6-.6-1.1-.7-1.4.2 0 .4.8.7 1.4 1.8 3.2 6.5 9.8 18.3 18.2l-1.4 1.8c-.2.2-.2.5-.2.7 0 .3.2.5.4.7l4.1 3.1-.3.4c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.3-.4 4.1 3.1c.2.1.4.2.6.2.3 0 .6-.1.8-.4l1.4-1.8 4.7 3.6c-.1.1-.2.1-.3.3-.9 1.1-1.2 2.5-1 3.9.2 1.4.9 2.6 2 3.5l49.1 37.7c.9.7 2 1.1 3.2 1.1h.7c1.4-.2 2.6-.9 3.5-2 .2-.3.2-.7.1-1-.1-.2-.2-.3-.3-.4.1.1.4.3.4.4 7 4.6 13.6 8.7 19.6 12.3v10.6c.1-.1.2-.2.4-.2-.3 0-.5.4-.6.5z"/&gt;&lt;path d="M345.6 168.4s.1 0 0 0c0-.1 0 0 0 0zm100.2-89.6c.3 0 .6-.1.8-.4l.5-.7 25.6 19.6-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-25.6-19.6.4-.6c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4 0 .3.2.3.5.3zm8.2-10.1l25.6 19.6-5.7 7.5-25.6-19.6 5.7-7.5zm-104.8 39.7c.3 0 .5-.2.5-.5V90.6c0-.3-.2-.5-.5-.5s-.5.2-.5.5V108c0 .2.2.4.5.4zm34.7 22.8h-26.3c-4.4 0-7.8-3.3-7.8-7.7v-7.8c0-.3-.2-.5-.5-.5s-.5.2-.5.5v7.8c0 4.9 3.9 8.7 8.8 8.7h26.3c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm74.2 0h-43c-.3 0-.5.2-.5.5s.2.5.5.5h43c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm18.3 0h-11.9c-.3 0-.5.2-.5.5s.2.5.5.5h11.9c.3 0 .5-.2.5-.5s-.2-.5-.5-.5z"/&gt;&lt;g&gt;&lt;path d="M529.9 380.5L398.8 210.7c-.4-.5-1.2-.5-1.6 0L266.1 380.5c-.2.3-.3.8-.1 1.1.2.3.5.6.9.6h262.2c.4 0 .7-.3.9-.6.2-.3.2-.8-.1-1.1zm-166-84c5.9-2.7 10.1-3.7 15.6-1.7 5.9 2.2 8.2 5.8 10.6 11.9-.6 1.1-1.1 2.2-1.6 3.3l-13.1-4.3-12.6-5.4h-.1c.4-1.3.7-2.6 1-3.8h.2zm95.4 49c-.5-.2-1.1.1-1.3.6 0 .1-.1.3-.1.4 0-.1 0-.3.1-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.4.2-.5.8-.8 1.3-.6l1.1.4c1-1.8 1.8-3.6 2.5-5.5s1.3-3.9 1.7-5.9l2.7 1-4.3 11.4-2.7-1-1-.4zm1.8-5.8c-3.6 9.6-10.7 17.3-20 21.5-9.3 4.2-19.6 4.5-29.1.9-19.7-7.4-29.7-29.7-22.3-49.5 3.6-9.6 10.7-17.3 20-21.5 5-2.3 10.3-3.4 15.7-3.4 4.5 0 9.1.8 13.4 2.5 19.6 7.4 29.7 29.6 22.3 49.5zm-100.9-38.2c-3.6 9.6-10.7 17.3-20 21.5-8.9 4.1-18.9 4.5-28.1 1.3l2.2-2.8c3.4 1 6.8 1.6 10.3 1.6 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 3.9-10.5 2.5-21.7-2.9-30.6l2.2-2.8c6.3 10 8.1 22.7 3.7 34.6zm-23.1-9.7l14 5.9-8.1-2.8c-2.2-.8-4.5-1.4-6.8-1.9l.9-1.2zm5.2 5l13.1 4.4h.2c-3.3 7.9-9.4 14.2-17.3 17.8-7.5 3.4-15.7 3.9-23.5 1.6l20-25.9c2.5.7 5.1 1.3 7.5 2.1zm14.5 1.3c-.1-.1-.2-.2-.4-.3l-18-7.6 15.1-19.6c4.8 8 6.2 18 3.3 27.5zm-47 27.6c.2 0 .4.1.6.2.1.1.3.1.4.1 4.5 1.6 9.1 2.5 13.7 2.5 5.6 0 11.2-1.2 16.5-3.6 9.5-4.3 16.7-11.9 20.7-21.5l13 4.3 12.7 5.4c-7 20.6 3.5 43.2 23.9 50.9 4.6 1.7 9.4 2.6 14.1 2.6 3.5 0 7.4-.5 10.4-1.4 1-.2 1.4-.4 2-.6v-.3.3c1.4-.5 2.7-1 4.1-1.6.5-.2.9-.4 1.4-.7.9 2.9 1.6 5.8 2 8.8.2 1.4-.3 2.8-1.5 3.7-1.1.9-2.6 1.1-3.9.5-1.5-.6-2.5-2.2-2.4-3.8 0-.5.1-1 .1-1.6.1-1.4.2-3.2.2-5.3-.7.2-1.3.4-2 .6 0 1.8-.1 3.3-.2 4.6 0 .6-.1 1.2-.1 1.7-.1 2.5 1.3 4.8 3.6 5.8.8.3 1.5.5 2.3.5 1.3 0 2.6-.4 3.6-1.3 1.7-1.3 2.5-3.4 2.2-5.6-.5-3.2-1.2-6.4-2.2-9.5v-.1c-.2-.5-.7-.8-1.3-.7-.4.1-.7.5-.7.9 0-.4.3-.7.7-.9.5-.2 1.1.1 1.3.7v.1c5.9-3.3 10.8-8 14.3-13.7l3.9 1.5c.1 0 .2.1.4.1.1 0 .3 0 .4-.1.2-.1.4-.3.5-.6l5-13.3c.2-.5-.1-1.1-.6-1.3l-3.9-1.5c2.9-18.6-7.4-37.3-25.6-44.2-10-3.8-20.9-3.4-30.7 1-7.3 3.3-13.3 8.6-17.5 15.3-2-4.9-4.6-9.2-11.2-11.6-6.3-2.4-11.2-.9-16 1.2 1.6-10.3-.9-20.6-6.5-28.9L398 213l129.1 167.2H269l41.8-54.1c-.1-.1-.3-.1-.4-.2-.3-.1-.5-.1-.6-.2L267 381.2l42.8-55.5z"/&gt;&lt;path d="M437.6 293.3c-8.7-3.3-18.1-3-26.6.9s-15 10.8-18.3 19.7c-6.8 18.1 2.4 38.4 20.4 45.2 4 1.5 8.1 2.3 12.3 2.3 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 6.7-18.2-2.4-38.5-20.4-45.3zm-24.2 64.8c-17.1-6.4-25.9-25.3-20.3-42.6.1 0 .1.1.2.1l12.7 5.3c7.8 3.3 14.7 8 20.6 13.8v.1c5.2 6.1 8.2 14.1 8.9 23.5 0 .1 0 .2.1.3-7.2 2.4-15 2.2-22.2-.5zm25.8-.9c-.6.3-1.1.5-1.7.7-.4-5-1.4-9.6-3.1-13.8 2.5 3.7 4.7 7.6 6.4 11.8.1.1.1.2.2.3-.5.4-1.1.7-1.8 1zm17.8-19.1c-2.7 7.3-7.7 13.3-14.2 17.2v-.1c-6.9-16.4-19.6-29.2-35.9-36.1l-8-3.4 58.5 19.7c.1 0 .2.1.3.1h.3c-.4.9-.7 1.8-1 2.6zm1.3-4.3c-.1-.1-.2-.2-.4-.3l-63-21.3c-.2-.1-.4-.1-.5 0 3.4-7.7 9.4-13.7 17-17.2 4.4-2 9.2-3 13.9-3 4 0 8 .7 11.9 2.2 16.1 6.1 24.9 23.2 21.1 39.6z"/&gt;&lt;/g&gt;&lt;g&gt;&lt;path d="M299.4 186.4L161.8 11.1c-.4-.5-1.2-.5-1.6 0L22.5 186.4c-.3.4-.3.9 0 1.2l137.6 175.3c.2.2.5.4.8.4s.6-.1.8-.4l137.6-175.3c.4-.3.4-.9.1-1.2zm-71.6-52.5l-2.3-3.7c-.1-.1-.1-.2-.1-.4 0 .1.1.3.1.4l2.3 3.7 3.7 6c-.7 2.7-.5 5.3.6 7.2.9 1.6 2.4 2.8 4.4 3.3.8.2 1.7.4 2.5.6 3.4.7 6.3 1.2 7 5 .1.5.5.8 1 .8h.2c.1 0 .3-.1.4-.1.3 3.8.2 7.9-.2 12-.7 6.8-1.8 13.2-3.3 19.1l-.6 2.3-.9 3.3c-1.9 6.2-4.2 12-6.9 17.3l-7.9-76.8zm-2.6-12.4c0 .1.1.3.1.4l1.5 2.5 10.9 17.9c.3.5.1 1.2-.4 1.5-.2.1-.5.2-.8.1-.3-.1-.5-.2-.7-.5l-8.6-14.2-.5-4.9-1.5-2.5v-.3zm9.1 23c.4.7 1.1 1.2 1.9 1.4.2.1.5.1.7.1.6 </t>
-  </si>
-  <si>
-    <t>0 1.1-.2 1.6-.4 1.4-.9 1.9-2.8 1-4.2l-1.9-3.1c1.2-.4 2.3-.3 3.4.4 3 1.9 5.2 7.5 6.1 14.6-1.6-3-5-3.7-7.8-4.2-.8-.2-1.6-.3-2.4-.5-1.5-.4-2.5-1.2-3.2-2.4-.6-1-.8-2.2-.7-3.6l1.3 1.9zm10 49.9l1.8-6.3v-.1c1.5-6 2.6-12.3 3.2-19.1 1.4-14.8-1.6-28.3-7.2-31.9-1.7-1.1-3.6-1.3-5.6-.5l-9.5-15.6c-.1-.2-.3-.4-.6-.4l-.7-6.4c-.2-2.3-2.1-3.8-4.4-3.8h-36.7c-2-3-4.2-4.9-6.4-6.2v-.1c-1.4-20.5-5.9-40.4-12.9-56.1-4-9.1-8.8-16.6-14.1-22.3l9.7-12.3L297.4 187l-56.9 72.5-4.2-41.8c3.6-8.6 6.1-16.7 8-23.3zM200 174.8c.1-1.1.1-2.3.2-3.4.1.2.4.3.6.4l1.1.2-1.4 7.9-5.7-1-5.7-1 1.4-7.9 1.1.2h.3c-.2 2.1-.4 3.2-.4 3.3 0 .3 0 .5.2.8s.4.4.6.4l6.5 1.1h.2c.2 0 .4-.1.6-.2.3-.3.4-.5.4-.8zm7.3 8.4l-6.1-.9 6.1.9-2.6 34.7c-.1.8-.5 1.5-1.1 2-.6.5-1.4.7-2.2.5l-26.9-4.7c-.8-.1-1.5-.6-1.9-1.3-.4-.7-.6-1.5-.4-2.3l9.5-33.5 6.2 1.1 9.2 1.6-2.6-.5 2.6.5 4.1.9h.1-.1l-4.1-.9 4.1.7-4.1-.7 4.1.7 6.1 1.2zm-9.2-9.7l-4.4-.8c.6-4 2.4-19.5-.7-38.7.6.2 1.1.4 1.7.5 0-.1-.1-.2-.1-.3-.1-.5.2-1.1.7-1.2h.4-.4c-.5.1-.8.7-.7 1.2 0 .1.1.2.1.3 2.2 8.1 4.4 21.3 3.4 39zm-29.4-58.4c-.8-2.4-1.1-4.7-.6-6.5.2 1.1.7 2.1.7 3.1 0 .1.2.2.3.3 0 .1.2.2.3.3 0 .1.1.1.1.2 4.8 8.7 20.9 12.8 30.3 15.2l1 .2v6.3c-23.1-5.9-30.3-13.6-32.1-19.1zm13 16.7l-.2-2c.1 0 .2.1.2.1v1.9zm-1.4-4.6c.5 0 .9.3 1 .8v.1c-.1-.5-.5-.9-1-.9zm3.1 37.8c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6h-14.7c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-.9-.6-1.6l4-35.8h11.2l4.1 35.8zm6.1-41.2h-.2.2zm-1.3-1.4c0 .2.1.4.1.6 0-.2-.2-.5-.3-.7-1.4-.5-2.3-1-4.3-1.6v-3.2c0-.6-.2-1.3-.7-1.3h-4.1l-.1.2v.1c0-1.5 0-3-.1-4.5.1.1.3.2.4.2h3.1c2.5 3 5.1 6.3 6 10.2zm-9.6-12.1v-.1c0-.5 0-1.1-.1-1.6.5.5 1.1.7 1.7 1.7H179c-.1-.1-.2-.1-.4 0zm.2 7.9c-.1 0-.2-.1-.3-.1 0 0 0-.1.1-.1.2.1.4.2.7.2h2.4v1.6c-1-.4-1.5-.6-2.4-1.6h-.5zm-2-1.2c-2.4-1.6-4.4-3.4-5.6-5.6 0 0 0-.1-.1-.1-.1-2.8-.3-5.6-.5-8.5v-.1c-2.2-28.5-10.4-56-24-71.3l3.3-4.2c5.9 6.4 10.4 14.2 13.6 21.5 8.4 18.7 13.2 43.6 13.3 68.3zm13.9 5.9c-2-2.7-4-6.7-6.8-10.7 2.8 4 5 8 6.5 10.7h-.1s.2.1.3.1c0 0 .1 0 .1-.1zm-.4-.1c-.6-3.9-3-7.6-5.4-10.6 2.4 3 4.7 6.6 5.4 10.6zM83.8 110l61-77.7c.2.3.5.5.7.8 4.6 5.3 8.2 11.7 10.9 17.6 6.4 14.2 10.7 32.7 12.3 51.9v.2c-.7.9-2.4 3.4-2.7 7.4 0 0 0-.1 0 0H85l60.4-77.1c-.2-.3-.5-.5-.7-.7l-61 77.8-1.6 2-1.4 1.6 1.4-1.8 1.7-2zm-5.1 8.2v13.5l-.4-3.8c-.1-.5-.5-.7-1-.7h-5.6l6.7-9h.3zM68.8 129l1.6-2 2.6-3.3-2.6 3.5-1.6 2-4.3 5.3-.2 1.9 5.7-7.3h6.3l4 35.9c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6H63.5c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-1.1-.6-1.7l3.2-28.5.2-1.9 4.2-5.5zm9.9 128.5L23.3 187l.1-.1 55.3 70.3.8 1 8.5 11.1-8.5-10.8-.8-1zm153 14.8l-.8-.4-5.7 7.4h-58.9c-2.5 0-5 1.4-7.6 2h-.2 65.2L161 361l-62.6-79.7h14.7c-.5 0-.9-.5-1-1v-.1c.1.5.5.8 1 .8h.1c1-.2 2.2-.3 3.4-.5-1.3.2-2.4.4-3.4.6-.1 0-.1.1-.1.1h45.3c-.5 0-.9-.4-1-.9v-.4.3c.1.5.5.7 1 .7.1 0 .1.1.2.1 2.6-.6 5.2-1.9 7.6-1.9 38.9-11 58-35.7 68.3-57.7l-.4-3.9c-3 6.9-6.8 14-11.7 20.9-14.7 20.5-36.3 33.7-64.2 40.7l-.1-.1c-.1 0-.2.1-.3.1h-31.4c28.6-5 81.3-17.1 107.7-61.7l-.4-3.6c-28.7 51.8-93.1 61.2-117.4 64.7-1.2.2-2.4.6-3.4.6 0 0 0-.1-.1-.1s-.3.1-.4.1H96.8l-16-21h39.7c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H8</t>
-  </si>
-  <si>
-    <t>0l-55.4-70.4L62 139.3l.2-1.8-.2 1.9-2.8 25.3c-.1 1.2.3 2.4 1.1 3.3.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3L79 133.4c.2.3.5.5.8.5.6 0 1-.4 1-1v-15.3c0-.6-.2-1.3-.7-1.3H80l3.6-4H166v-1.9c0 .6-.1.9 0 1.9h.1c.5 0 .9-.5 1-1v.1c0 .6-.4.9-1 .9h-.1c.1 1 .3 2.1.7 3.4.1.3.2.6.3.6h.2c.6 0 1 .6 1 1.1v-.1c0-.5-.5-1.1-1-1.1h-.2s-.1.1-.1 0h-2.3c-.6 0-.9.7-.9 1.3v15.3c0 .6.4 1 1 1s1-.4 1-1v-14.6h1.4c.2 0 .3-.1.5-.2 0 .1.1.2.1.2l.2-.2c-.1.1-.1.2-.2.2 1.8 3.2 4.8 5.9 8.9 8.9h-9.4c-.5 0-.9.3-1 .8l-4.1 36.8c-.1 1.2.3 2.3 1.1 3.2.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3l-3.5-31.3c.2.3.5.5.8.5.6 0 1-.4 1-1v-2c2 .9 4.5 1.8 7 2.6v-.4c-.1-.5.3-1.1.8-1.2-.5.1-.9.6-.8 1.2 0 .1 0 .3.1.4 2.5 15.1 2 28 1.4 34.9 0 0-.1 0-.1-.1l-2.1-.4c-.3 0-.5 0-.7.2-.2.2-.4.4-.4.6l-1.6 8.9-6.1-1.1-3.9-.7c-.5-.1-1.1.3-1.2.8-.1.5.3 1.1.8 1.2l2.8.5-9.4 33.4c-.4 1.3-.1 2.7.6 3.9s1.9 1.9 3.3 2.2l26.9 4.7c.3 0 .6.1.8.1 1.1 0 2.1-.3 3-1 1.1-.8 1.8-2.1 1.9-3.4l2.6-34.5 2.8.5h.2c.5 0 .9-.3 1-.8.1-.5-.3-1.1-.8-1.2l-9.9-1.8 1.6-8.9c0-.3 0-.5-.2-.7-.2-.2-.4-.4-.6-.4l-2.1-.4c-.4-.1-.7.1-.9.3.5-15.5-1.4-27.2-3.3-34.9 1.3.4 2.7.7 4.1 1.1h.2c.2 0 .7-.1.8-.2.2-.2.6-.5.6-.8V127c0-.5-.5-.9-1-1l-1.6-.4c-2.1-.5-4.6-1.2-7.1-1.9.1.4-.1.9-.5 1.1-.1.1-.3.1-.5.1.1 0 .3 0 .4-.1.4-.2.6-.7.5-1.1l-.1-.1c-1.3-2.7-3.8-7.4-6.7-11.4h35.2c1.2 0 2.3.8 2.4 2l10 99.7.3 3.5v.1l.4 3.9 4.1 40.4-7.1 9.1-15.4-10.2c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l15.3 10.1.8.7z"/&gt;&lt;path d="M201.4 207.1c-.3 0-.5.2-.5.5l-.5 7.1c0 .1-.1.3-.2.4-.1.1-.3.1-.4.1l-12.7-2.2-6.6-1.2-2.6-.5c-.1 0-.3-.1-.3-.2-.1-.1-.1-.3-.1-.4l5.3-18.7c.1-.3-.1-.5-.3-.6-.3-.1-.5.1-.6.3l-5.3 18.7c-.1.4 0 .8.2 1.2.2.4.6.6 1 .7l2.6.5 6.6 1.2 12.7 2.2h.3c.3 0 .7-.1.9-.3.3-.3.5-.6.6-1.1l.5-7.1c-.1-.3-.3-.5-.6-.6zm-18.2-18.9h.1c.2 0 .4-.1.5-.4l1-3.7 14.5 2.6c.3 0 .5-.1.6-.4 0-.3-.1-.5-.4-.6l-15-2.6c-.3 0-.5.1-.6.4l-1.2 4.1c.1.3.3.5.5.6zm18.6 14.5c.3 0 .5-.2.5-.5l.9-12c0-.3-.2-.5-.5-.5s-.5.2-.5.5l-.9 12c0 .3.2.5.5.5zm-24.9 54.5h-18.2c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.2-.5-.5-.5zm-18-139.5c0-.3-.2-.5-.5-.5h-42.5c-.3 0-.5.2-.5.5s.2.5.5.5h42.5c.3 0 .5-.2.5-.5zm-93.8 45.6c.1.1.2 0 .4 0h10.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H66l1.4-12.6c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5L65 163.1c-.1.1 0 .1.1.2zm2.4-18.7c.1 0 .1 0 0 0 .3 0 .5-.2.6-.4l1.2-10.9c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4L67.1 144c0 .3.2.6.4.6zm100.7 18.7c.1.1.2 0 .4 0h6.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5h-5.9l.5-3.9c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5l-.5 4.7.1.1zm1.8-12.7s0 .1 0 0c.3 0 .5-.2.6-.4l1.9-17c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4l-1.9 17c-.1.4.1.6.4.6zm-62.6-33.4H89.1c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.1-.5-.4-.5z"/&gt;&lt;/g&gt;&lt;/svg&gt;
+          &lt;svg class="placeholder-svg" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 1052 400"&gt;&lt;path d="M727.6 121.3c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm-183.5 62.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm235.5 236.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zM43.9 47.9c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm252.3 236c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm706.2-190.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM764.7 283.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM525 40.9c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm37.7 327.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM50.9 276.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.5 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.6-6-6-6zM93.6 68.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm194.1-13.8c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm534.9 45c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-124 31.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2s4.2 1.9 4.2 4.2c0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM544.1 44.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zM310.2 268.5c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-9.1-213.3c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM26.6 64.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm776.9 268c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1</t>
+  </si>
+  <si>
+    <t>.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-234.9 13.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-528.4-75c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2 4.2 1.9 4.2 4.2-1.8 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm980.9-3.2c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM463.5 272c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm564.4-88.1L897.9 9.1c-.4-.5-1.2-.5-1.6 0L766.2 176.4c-.2.3-.3.8-.1 1.2.2.3.5.7.9.7h260.1c.4 0 .7-.3.9-.7.2-.4.1-.8-.1-1.1zm-156.5-16.7l-4.8 1.5c-1.8-13.9 2.7-25.4 13.2-34.1.2-.2.2-.5.1-.7-.2-.2-.5-.2-.7-.1-10.9 9-15.4 20.9-13.5 35.2-.5.2-1.1.4-1.7.5-1.2.4-2.3.8-3.5 1.2-.7-3.3-1.4-6.2-2.2-8.7-.1-.3-.4-.4-.6-.3-.3.1-.4.4-.3.6.8 2.5 1.5 5.4 2.2 8.7-1.7.6-3.4 1.1-5.1 1.7-5.6-22.4-9.8-21.8-35.3-18.4-3.2.4-6.8.9-10.8 1.4-4.1.5-7.1-.2-9.1-2.1-1.4-1.4-2.3-3.3-2.7-5.5l1.8-2.3c-.1.2-.2.5-.1.8.2.5.7.7 1.2.5.5-.2.7-.7.5-1.2-.2-.5-.7-.7-1.2-.5-.1 0-.2.1-.3.2l2.5-3.2c.2 2.5.9 4.6 2.4 6.1 1.5 1.4 3.5 2.2 6.3 2.2.8 0 1.7-.1 2.6-.2.3 0 .5-.3.4-.6s-.3-.5-.6-.4c-3.8.5-6.4-.1-8.1-1.7-1.5-1.5-2.1-3.9-2.2-6.6l4.2-5.4c9.4-.2 18.1-.9 26-2.1.3 0 .5-.3.4-.6 0-.3-.3-.5-.6-.4-7.5 1.2-15.9 1.9-25 2.1l1.3-1.6c.4.5 1 .8 1.6.8.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.6-.6-1-1.2-1.2l1.3-1.6c9.1-.6 19.9-1.8 29.8-4.2 22.2-5.3 29.6-19.6 35.6-31.2 4.8-9.3 8.4-16.1 18-13.8l-1.3 6.7c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.7c3.7.9 7.1 1.6 10.3 2.2l-1.3 6.4c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.4c3 .6 5.8 1.1 8.3 1.6.7.1 1.4.3 2.1.4l-1.3 6.5c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.5c4 .8 7.4 1.5 10.2 2.3l-1.2 6.2c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.2-6c5 1.8 8.2 4.3 10.2 9 0 .1.1.2.1.3 1.6 3.9 2.5 9.3 2.8 16.9-1.5.1-3.3.2-5.3.4-.3 0-.5.3-.5.5 0 .3.2.5.5.5 2-.2 3.8-.3 5.2-.4.1 1.3.1 2.7.1 4.2-3.3.2-14.3.8-26.8 3.4-20.1 4.2-34.3 11.1-42.2 20.5-5.8 7-8 15.2-6.7 24.3zm-61.6-36.2c.4 0 .7.3.9.7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6l1-1.4zm87.3-112.3l61.2 78.8c-4.5-.2-8.8-.7-12.7-1.9-2.3-5.2-6-7.9-11.5-9.9l.5-2.6c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.5 2.4c-2.9-.9-6.3-1.6-10.2-2.3l.4-2.1c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.1c-.7-.1-1.4-.3-2.1-.4-2.5-.5-5.2-1-8.2-1.6l.4-2.2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.2c-3.2-.6-6.6-1.4-10.3-2.2l.4-2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 1.9c-4.8-1.1-8.3-.3-11.1 1.8l-7.3-1.5c-.4-.1-.9.1-1.1.5-.2.3-3.9 7.6-1.2 14.9-5.7 11-13.1 24.2-33.8 29.2-9.1 2.2-19 3.4-27.6 4l83.9-107.5zm-14.6 62.2c-2.4 2.5-4.4 5.9-6.3 9.7-.9-4.6.6-9.1 1.3-10.7l5 1zm-2.9 63.5c9.4-11.3 27.5-17 41-19.9 14.7-3.1 27.4-3.4 27.5-3.4.5 0 1-.5 1-1-.2-10.1-1-17.1-2.7-22.2 3.6.9 8.2 1.5 13.4 1.6l30.5 39.3c-10.9 5.2-22 9.7-33.4 13</t>
+  </si>
+  <si>
+    <t>.5-15.6 5.2-25.8 5.8-36.7 6.4-11.7.6-24.8 1.4-46.9 7.9-1.1-8.4 1-15.9 6.3-22.2zm-89.5 10.4c.1.4.1.9.2 1.3l1.8-2.3 2.9-3.8c.6 1.9 1.5 3.7 2.9 5 2.4 2.4 6.1 3.3 10.7 2.7 4-.5 7.6-1 10.8-1.4 25.6-3.5 27.9-3.7 33.1 17.1-15.8 5-27.4 8.2-35.6 10.2h-15.5c-5.7-8-8.2-19.1-9.4-29.6l-1.8 2.2c1.2 9.7 3.6 19.4 8.6 27.4h-29.9l21.2-27.4c.1-.5.1-.9 0-1.4L767 177.2l23.1-29.8zm85.1 28.8l6.8-2.5.9 2.5h-7.7zm-2.9 0h-28.7c7.8-3 14.7-4.9 20.6-6.9 6.1-2.1 11.1-3.8 14.6-4.8l2.9 8.1-9.4 3.6zm152.8 0h-140l-4.4-12.1c20.6-5 33.8-5.7 47.8-6.4 2.1-.1 4.3-.2 6.5-.4 8.8-.5 30.2-5.7 59.6-20.5l-1.2-1.6c-28.9 14.5-49.9 19.6-58.5 20.1-2.2.1-4.4.2-6.5.3-14.3.7-27.8 1.4-49 6.6-.1 0-.2 0-.3.1h-.1c-3.7.9-8.9 2.8-15.4 5-7.4 2.5-16.6 5.8-26.9 8.8h-11.2c9.6-3 22.4-6.4 39.2-12 27.6-9.3 42.6-10.2 55.7-10.9 11-.6 21.4-1.2 37.2-6.5 11.7-3.9 23-8.5 34.1-13.8l1.8 2.3 1.2 1.6c.3-.1.6-.3.9-.4l.1.1 31.5 40.7-31.5-40.6c-.3.2-.6.3-.9.4l30.3 39.2z"/&gt;&lt;path d="M855 149.4c.1.2.3.3.4.3.1 0 .2 0 .2-.1.2-.1.3-.4.2-.7-6.3-12.2-16.4-10.7-34.7-8.1-1.4.2-2.9.4-4.4.6-.3 0-.5.3-.4.6 0 .3.3.5.6.4 1.5-.2 3-.4 4.4-.6 17.9-2.6 27.8-4 33.7 7.6zm28.3-25.4c.1.1.3.2.4.2.1 0 .2 0 .3-.1 12.1-8.1 30.3-13.5 53.9-15.9.3 0 .5-.3.4-.5 0-.3-.3-.5-.5-.4-23.8 2.4-42 7.8-54.3 16-.3.2-.3.5-.2.7zm3.1-30.9c.3-.1.4-.4.3-.6-.1-.3-.4-.4-.6-.3-3 1-5.5 2.9-7.2 5.5-1.8 2.8-11.5 16.9-25.4 22.2-4.9 1.8-10.4 3.4-16.4 4.5-.3.1-.4.3-.4.6 0 .2.3.4.5.4h.1c6.1-1.2 11.6-2.7 16.5-4.6 14.2-5.4 24.1-19.7 25.9-22.6 1.6-2.4 4-4.2 6.7-5.1zm4.3-.6c.4 0 .9 0 1.3.1l22.1 2.6h.1c.2 0 .5-.2.5-.4 0-.3-.2-.5-.4-.6l-22.1-2.7c-.5-.1-.9-.2-1.4-.2-.3 0-.5.3-.5.6-.1.2.1.6.4.6zm26.5 2.5c0 .3.2.5.4.6 4.6.5 8.3 3.9 9.2 8.4l.3 1.6c0 .2.3.4.5.4h.1c.3-.1.4-.3.4-.6l-.3-1.6c-1-4.9-5.1-8.6-10.1-9.2-.2 0-.4.2-.5.4z"/&gt;&lt;ellipse transform="rotate(-20.016 944.06 109.69)" cx="944.1" cy="109.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 939.31 110.263)" cx="939.4" cy="110.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 914.644 113.925)" cx="914.7" cy="113.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 924.99 112.103)" cx="925" cy="112.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 928.9 111.65)" cx="928.9" cy="111.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 909.974 115.297)" cx="910" cy="115.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 899.37 118.964)" cx="899.4" cy="119" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 894.725 120.853)" cx="894.7" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 874.344 136.748)" cx="874.4" cy="136.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 881.238 129.294)" cx="881.3" cy="129.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 885.095 126.307)" cx="885.1" cy="126.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.082 140.004)" cx="872.1" cy="140" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.997 149.4)" cx="869" cy="149.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.683 152.79)" cx="868.7" cy="152.8" rx=".9" ry=".9"/&gt;&lt;ellipse transfor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m="rotate(-20.016 855.214 156.368)" cx="855.2" cy="156.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 853.88 152.703)" cx="853.9" cy="152.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 847.56 144.56)" cx="847.6" cy="144.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 843.473 142.673)" cx="843.5" cy="142.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 827.555 143.41)" cx="827.6" cy="143.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 832.317 142.79)" cx="832.3" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 811.065 145.516)" cx="811.1" cy="145.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 816.355 144.84)" cx="816.4" cy="144.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 800.762 142.79)" cx="800.8" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 930.208 105.774)" cx="930.3" cy="105.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 929.345 101.854)" cx="929.4" cy="101.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 927.505 98.355)" cx="927.6" cy="98.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 925.4 95.16)" cx="925.4" cy="95.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 921.753 93.307)" cx="921.8" cy="93.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 917.842 92.26)" cx="917.9" cy="92.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 913.847 91.802)" cx="913.8" cy="91.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 910.554 91.235)" cx="910.6" cy="91.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 906.513 90.77)" cx="906.5" cy="90.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 901.752 90.09)" cx="901.8" cy="90.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 897.63 89.598)" cx="897.6" cy="89.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 893.483 89.146)" cx="893.5" cy="89.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 889.072 88.807)" cx="889.1" cy="88.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 884.517 89.494)" cx="884.5" cy="89.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 880.373 91.976)" cx="880.4" cy="92" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 877.565 94.954)" cx="877.6" cy="95" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.024 102.866)" cx="872" cy="102.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 869.188 105.844)" cx="869.2" cy="105.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 861.102 113.444)" cx="861.2" cy="113.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 857.688 115.7)" cx="857.8" cy="115.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 848.15 119.605)" cx="848.2" cy="119.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 843.256 120.825)" cx="843.5" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 834.034 122.542)" cx="834.4" cy="122.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 829.758 123.153)" cx="830.1" cy="123.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 818.873 124.066)" </t>
+  </si>
+  <si>
+    <t>cx="819.2" cy="124.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 814.146 124.62)" cx="814.4" cy="124.6" rx=".9" ry=".9"/&gt;&lt;path d="M874.7 100.6c.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.4.9 1.1 1.4 2 1.4zm-.4-3c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3zm-10.2 13.5c.3.1.6.2.9.2.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.4.6.8 1.1 1zm0-2.3c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.2.5-.1 1.1-.6 1.3-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.2-.2-.5 0-.8zm-11.3 10.4c.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.4-1.1-1.6-1.6-2.6-1.2-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.7 1.1 1.2 1.9 1.2zm-.9-2.5c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.4 0 .8.3 1 .7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6-.3-.2-.3-.5-.1-.8zm-13.8 6.4c.3.1.6.2.9.2.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.2.5.6.9 1.1 1.2zm.5-2.8c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.6.1-1.2.6-1.3zm-13.1 1.4c-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.3.8 1.1 1.3 1.9 1.3.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.4-.5-.8-1-1zm0 2.3c-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.2.2.2.5 0 .8zm30.3 35.3c-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.2-.5-.5-.8-1-1-.4-.3-.9-.3-1.4-.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.3.1.5 0 .7zm13.2-4.3c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.3-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4s-.4.1-.7 0c-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zm2.5-13.5c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1.1-.4 1.6-1.4 1.2-2.4zm-1.4 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.5-.1 1-.5 1.1zm8.5-12.4c.2-.4.2-1 .1-1.4-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1.5-.3.9-.6 1.1-1zm-.9-.5c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm10.5-11.3c-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.4-1-1.5-1.5-2.4-1.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.4 0 .7zm14.9-8.3c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.4 1.5-1.4 1.1-2.4-.1-.4-.4-.8-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm17.1-5.7c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.2-2.4zm-1.5 1.</t>
+  </si>
+  <si>
+    <t>5c-.4.2-.9-.1-1.1-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.2.4 0 .9-.5 1.1zm14.4-4.7c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.1-.4-.4-.7-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5 0 1-.5 1.1zM853 147.5c-.2-.5-.5-.8-1-1-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.9-.4 1.4-1.5 1.1-2.4zm-1.5 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm-11.4-7.2c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .3-.4.3-.9.1-1.4zm-.9 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm-17-.4c-.4-.2-1-.2-1.4-.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.2-.4-.6-.8-1-1zm-.5 2.5c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5-.1 1-.5 1.1zm-14.8 0c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.2-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zM986.7 210.2h-170c-.6 0-1 .4-1 1v170c0 .6.4 1 1 1h170c.6 0 1-.4 1-1v-170c0-.5-.4-1-1-1zm-126.5 104c2.3.8 33.8 12.3 71.3 30.6 8.6 4.2 16.7 8.4 24.1 12.3v.1c.1.1.3.2.4.2h.1c8.7 4.6 16.4 9 22.8 12.7.1.1.3.2.4.2.1 0 .2 0 .3-.1-.1.1-.1.1-.2.1 2.3 1.3 4.3 2.5 6.3 3.6v6.2h-34.4c-.1 0-.2.1-.3.1h-.2c-.1 0-.3-.1-.4-.1h-10.7c-8.5-3-16.8-6.7-24.7-10.6-22.8-11.2-46.8-27.4-67.3-41.8-.1-.1-.2-.2-.3-.2-2.9-2-5.7-4-8.5-6-8.1-5.7-15.2-10.8-21.2-14.7v-4.6c5 2.8 10.3 6.5 16.5 10.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2 0-.5-.2-.7-6.5-4.5-12-8.3-17-11.1v-.5c1 .2.9.3 1.3.5 28.5 12.1 39.7 13.1 41.2 13.1zm27.3-46.9c-2.6-3.4-3.9-6.7-4.5-9.6 3.6 4.8 8.4 7.7 9.4 8.3.2 2.1.5 4.2.9 6.5v.1c0 .1 0 .3.1.4.4 2.6 1 5.3 1.7 8.1 0 .1.1.1.1.2.1.1.2 0 .4 0-.1 0-.3.2-.4.1 1.4 5.6 3.4 11.7 6.1 17.7.6.2.9.3 1 .3.2 0 .4.2.4.5 0-.2-.2-.4-.4-.4 0 0-.4-.1-1-.2-2.7-.7-10.6-3.2-18.6-8.3-.6-.8-1.1-1.4-1.5-2l9.7-1.1c.4 0 .8-.4.9-.8s-.1-.9-.5-1.1c-6.8-3.8-10.1-14.1-11.1-17.8l6.5.8c.4 0 .8-.1 1-.5.1-.4 0-.9-.2-1.2zm-4.8-17.2l4.3 2.1c.3.1.6.1.9 0s.5-.4.5-.7c.4-2.1-2.5-8.6-3.7-11 .4-2.1 1.8-4.4 3.5-6.6-1.1 7.1 3.1 13.6 3.7 14.5-.3 4.4-.4 10 .2 16.4-1.8-1.2-6.6-4.5-9.6-9.4-.2-2.3 0-4.2.2-5.3zm14.6 1.6c.4.3.9.3 1.3-.1l8.4-7.9c.2.6.4 1.3.6 2-2.2 2.7-10.5 13-13.7 24.3-1.2-8.8-1.2-16.4-.8-21.9.4-1.5 2.9-9.8 7.1-14.3 1 1.5 1.8 2.9 1.9 3.5.3 1.6-2.7 8.6-5 13.1-.3.5-.2 1 .2 1.3zm42.3-20.1c6.3 3.4 10.1 9.3 14.1 15.5 4.4 6.7 8.9 13.7 16.9 17.6.1.1.3.1.4.1.4 0 .7-.2.9-.6.2-.5 0-1.1-.5-1.3-7.5-3.7-11.9-10.4-16.1-16.9-1.7-2.7-3.5-5.4-5.5-7.9 1.9 1.4 3.7 2.7 5.6 4.1 4.2 3.1 8.4 6.3 13.6 9.3.3.2.6.4.9.5 1.4.8 2.7 1.6 4.2 2.3.4.2.9.4 1.3.6 3.5 1.7 7.1 3 10.1 4.2V353c-17-9.3-41-22.1-70.2-35.2l-1 .7.9-.7 8.9-6.9c.4-.3.5-.8.3-1.2-.2-.4-.7</t>
+  </si>
+  <si>
+    <t>-.7-1.1-.6l-7.5 1.6 5.2-7.9c.3-.4.2-.9-.1-1.2-.3-.3-.8-.4-1.2-.1l-5.5 3.4c1.4-2.6 3.3-5.8 3.9-6.8 3.7-6.3 1.5-14.7-.9-23.6-.6-2.2-1.2-4.5-1.7-6.7-.1-.4-.4-.7-.9-.8-.4 0-.8.2-1 .5l-6.8 13.4c.3-3.4 1.4-9.2 4.9-17.4 1.8-4.2-2.4-18.4-3.3-21.4.7-.8 1.3-1.5 1.7-2 1.6-1.9 5.8-5.8 11.2-8.3 6.7-3.2 12.8-3.2 18.3-.2zM958 356.2l13.1-9c.8.4 1.6.9 2.5 1.3l-13.1 9c-.9-.4-1.7-.8-2.5-1.3zm-6.9-3.6l13.1-9c2 1.1 4 2.1 5.9 3.1l-13.1 9c-1.9-1-3.9-2.1-5.9-3.1zm-51.6-41.9c0-.2-.1-.4-.3-.5l-1.4-1.2 4.6-.1c.5 0 .8-.3 1-.8.1-.4-.1-.9-.5-1.1-8.7-4.7-14.5-9.9-18-13.7 8.1 4.7 15.6 6.9 16.9 6.9.3 1 1 1.2 1 1.8v.2c.6 1.1 1.1 2.3 1.7 3.5 0 .1 0 .1.1.2 1.7 3.1 3.6 6.3 5.7 9.5-3.6-1.6-7.2-3.2-10.8-4.7zm-5.3-38.2c2.5-11.4 10.8-22.2 13.6-25.7.4 1.4.8 2.9 1.1 4.4-2.5 2.7-11.7 13.8-13.7 26.7-.3-1.8-.7-3.6-1-5.4zm1.8 8.5c.7-13.1 10.1-24.8 13.2-28.5 1 4.4 1.5 8.6.8 10.1-6.5 15.1-5.1 22.2-5 22.5.1.4.4.7.9.8.4 0 .8-.2 1-.5l7.4-14.6c.4 1.4.7 2.8 1.1 4.1.1.2.1.4.2.6-.9 4-4.4 17.4-12.4 25.5-3.3-6.9-5.6-13.6-7.2-20 0 .1 0-.1 0 0zm20.5 16c-1.1 1.8-5.8 10.2-5.8 10.3-.2.4-.2.9.2 1.2.3.3.8.4 1.2.1l5-3.1-4 6.1c-.2.3-.2.8 0 1.1.2.3.6.5 1 .4l5.6-1.2-6.3 4.8c-.6-.3-1.3-.6-1.9-.8.1-.1 0-.3 0-.5-2.2-3.3-4.2-6.6-6-9.8 6.3-5.5 10.6-14.7 12.4-19.2.5 4 .3 7.6-1.4 10.6zm-11.5 7.7c-.5-.9-.9-1.9-1.4-2.8 7.4-7.3 11.1-18.9 12.5-24.4.6 2.4 1.2 4.7 1.5 6.9-1.3 3.4-5.8 14.3-12.6 20.3zm-2.5-3c0-.1.1-.2.1-.2 0 .1-.1.2-.1.2zm9.5 16.6l-13.4 9.2-2.7-1.2 13.4-9.2 2.7 1.2zm1.1.5c.9.4 1.8.8 2.6 1.2l-13.2 9.1c-.1 0-.1.1-.1.1l-2.7-1.2 13.4-9.2zm3.7 1.7c2.1 1 4.2 1.9 6.3 2.9l-13.3 9.1c-2.2-1-4.3-1.9-6.4-2.8l13.4-9.2zm7.4 3.3c.9.4 1.7.8 2.6 1.2l-13.2 9.1c-.9-.4-1.8-.8-2.6-1.2l13.2-9.1zm3.6 1.7c2.1 1 4.2 2 6.2 2.9l-13.2 9.1c-2.1-1-4.2-2-6.3-2.9l13.3-9.1zm7.3 3.5c.9.4 1.7.8 2.6 1.2l-13.1 9.1c-.9-.4-1.7-.8-2.6-1.2l13.1-9.1zm3.6 1.7c2.1 1 4.1 2 6.1 3l-13.1 9c-2.1-1-4.1-2-6.2-3l13.2-9zm7.2 3.5c4.8 2.4 9.4 4.7 13.8 7l-13.1 9c-4.4-2.3-9-4.6-13.8-6.9l13.1-9.1zm14.7 7.5c.8.4 1.7.9 2.5 1.3l-13.1 9c-.8-.4-1.7-.9-2.5-1.3l13.1-9zm-67.1-98.2c.4-3.3.8-5.1.9-5.2 0 0 .8-3.6 3.6-7.7.6.8 1.1 1.6 1.6 2.3-2.9 2.9-4.9 7.3-6.1 10.6zm-.1-5.4s-.1.3-.2.7c-.4-2.7-.7-7.2 1.1-10.8.1-.1.1-.3 0-.4.3-.2.5-.5.7-.6.7.9 1.5 1.9 2.2 2.9-2.9 4.2-3.8 8-3.8 8.2zm-.7 3.5c-.2 1.4-.4 3.1-.6 5.1-1.4-2.5-4.3-8.5-2.4-14.5 1.1-1.2 2.2-2.4 3.2-3.3-2 5.6-.3 12-.2 12.7zm-4.8 44.5l-8.6 1c-.3 0-.6.2-.8.5s-.1.7 0 .9c.2.4 5.6 9.7 20.2 18.4l-3.5.1c-.4 0-.8.3-.9.7-.1.3-.1.6.1.9-8.5-3.5-17.3-7-26.3-10.5 3.2-6.7 7.6-14.6 12.8-21.8 1.6 3.5 3.9 7.2 7 9.8zm20.4 30.6l-13.4 9.3c-17.2-7.3-29.6-12-33.1-13.3.1-.2.2-.5.3-.7.9-2.3 2.7-6.7 5.2-12 14.4 5.4 28.1 11 41 16.7zm-90.6 63.5v-59.5c12 4.2 26.9 8.2 28.8 8.7-1.7-1.2-3.3-2.3-4.9-3.5-5.9-1.7-15.9-4.5-23.9-7.4v-9.2c6 3.9 12.6 8.7 20.1 13.9l3.9 2.7c1.6 1.1 3.2 2.3 4.9 3.4h.5-.5c20.5 14.4 44.6 30.8 67.6 42 6.4 3.2 13.1 5.8 20 8.8H817.7zm0-79.5c-.1 0-.2-.1-.3-.1.1.1.2.1.3.1zm-1 0v-.3l.1.1-.1.2.1 1.2c.2.1.4.3.6.4-.3-.1-.7-.2-.7-.4v-1.2zm170 69l-1 .7v1.3c0-.2-.8-.4-1.1-.6l-1.4.9 1.4-.9 1.1-.7 1-.7v-1.2 1.2zm0-13.9v1.2l-1 .7v3.1l-8.6 5.9.9.6 7.</t>
+  </si>
+  <si>
+    <t>7-5.3v-.1l1-.6V360v1.2l-1 .7v3.1l-5.3 3.6.9.6 4.4-3v-.1l1-.6v-1.2 1.2l-1 .7v2.9l-.1.1-2 1.4c-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.5-3.7-2.1-7.8-4.4-12.1-6.7l13.1-9 .4-.3-.4.3c4 2.2 7.1 4.2 11.1 6.1.2.3 1.2.4 1.2.7zm0-96.3l-.1-.1v-.1l-.9-.3v-.1c0 .1 1 .2 1 .3v.3zm0-2.1c0-.1 0-.1 0 0v-.2c0-.1-.7-.2-1-.3v-.1c-3-1-5.7-2.1-8.7-3.5-.6-.3-1.2-.5-1.8-.8-1.4-.7-2.8-1.5-4.1-2.2-3.9-2.3-7.5-5-11.3-7.8-3.4-2.5-6.8-5-10.6-7.4-2.6-1.8-5.5-3.6-8.6-5.3-13.8-7.5-27.7 3.8-31.9 8.8-.5.6-1.2 1.5-2.1 2.5-.1.1-.1.2-.1.2l-5.4 5.1c1.5-3.5 3.2-7.7 2.8-9.5-.5-2.9-7.2-11.2-8-12.1-.2-.2-.4-.3-.7-.4-.3 0-.5.1-.7.2-.4.4-10.6 8.7-11.8 15.8 0 .2 0 .4.1.6 1.4 3 2.8 6.5 3.4 8.5l-3.8-1.9c-.3-.1-.6-.1-.8 0-.3.1-.5.3-.6.6-.1.4-2.7 8.6 3.6 18.3l-5.7-.7c-.3 0-.6.1-.9.3-.2.2-.3.6-.2.9.1.3.7 3.4 2.3 7.2-.2.1-.4.2-.5.3-5.5 7.4-10 15.7-13.3 22.7-.7-.3-1.4-.5-2.1-.8-.5-.2-1.1.1-1.3.6s.1 1.1.6 1.3c.6.2 1.3.5 1.9.7-2.5 5.3-4.2 9.6-5.2 12-.2.4-.3.8-.4 1-2.7-.3-14.3-2-39.9-12.7-.7-.3-1.1-.6-2.1-.8v-86.4h168v44.6c0 .1 1 .2 1 .4v.3z"/&gt;&lt;path d="M986.7 357v-1.3c0-.2-1-.4-1-.6v1.4l-12 8.2c.3.2.6.4.9.5l11.1-7.6v-.1l1-.5zm-140.9-35.6c2.7 1.9 5.4 3.8 8.3 5.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2.1-.5-.1-.7-2.8-2-5.6-3.9-8.3-5.8l-2.2-1.6c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l2.2 1.6zm105.3 57.9c-12.3-4.3-22.7-8.5-31.8-13-20.5-10-41.2-23.8-57-34.6-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7 15.8 10.9 36.5 24.7 57.1 34.8 9.1 4.4 19.4 8.9 31.6 12.9h.6c.1 0 .2 0 .2-.1h.1c.1 0 .1-.1.1-.2.1-.1 0-.5-.3-.6zm-56-97.8c0-.1-.1-.3-.1-.4v.1c0 .1 0 .2.1.3zM776.7 224.3L648 60.4c-.4-.5-1.2-.5-1.6 0l-128.7 164c-.3.4-.3.9 0 1.2l128.7 164c.2.2.5.4.8.4s.6-.1.8-.4l128.7-164c.3-.4.3-.9 0-1.3zm-129.5 163l-87.1-111 13.9 4.1h.3c.4 0 .8-.3 1-.7l17.2-57.6c2.9 4.3 10.5 16.8 17.5 35.4 8.5 22.6 13.8 34.7 31.1 41.9 13.2 5.5 34.3 8.1 67 10.4l-60.9 77.5zM543.5 255.2l33.9 10.1-1.9 6.2-25.1-7.5-6.9-8.8zm5.8-61.8l-3.9-1.2 4.3-5.5 24.6 7.3c3.4 2.9 6.8 6.1 10.3 9.8l-24.7-7.4c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l26.3 7.8c2.5 2.7 4.9 5.6 7.3 8.7-.1 0-.2.1-.3.1l-50.5-15.1.5-3.7 1.9-2.4 4.3 1.3h.1c.2 0 .4-.1.5-.4.1.2-.1-.1-.4-.2zm1.1-7.5l4.4-5.6c4.8 2.7 10.9 6.7 17.6 12.2l-22-6.6zm38 42.6l-18.7-5.6c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l18.7 5.6-1.9 6.2-47.2-14.1 1-6.5 22.6 6.7h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-22.7-6.8 1-6.5 49.1 14.7-1.9 6.4zm-8.6 28.7l-44-13.1 1-6.5 37.1 11.1h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-37.3-11.1 1-6.5 46 13.7-4.1 13.4zm4.3-14.3L538 229.1l1-6.5 47 14-1.9 6.3zm6.4-21.6l-49.3-14.7 1-6.5 50.2 15-1.9 6.2zm-50.7-21.9l.5.1-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.6-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.8.2-.9 6-14.2-17.9 20.1-25.6zm-4.2 45.7l43.9 13.1-1.9 6.2-35.2-10.5-6.8-8.7v-.1zm39.6 27.4l-1.7 5.7-15.6-4.7-6.4-8.1 23.7 7.1zm36.6-15.6c-8-21.3-17-34.7-18.7-37.2l1.2-4.1c5.7 7.6 11 16.5 15.7 26.8 2.4 5.4 4.5 10.4 6.3 14.9 13.6 32.9 17.5 4</t>
+  </si>
+  <si>
+    <t>2.5 95.9 47.1l-2.8 3.6c-78-5.6-82.6-11.2-97.6-51.1zm6.4-.4c-1.8-4.4-3.9-9.5-6.4-14.9-16.2-36.1-41.5-54.7-55.8-62.8l41.1-52.4c-1.8 4.7-3.5 8.8-5 12.4-7.8 19.1-10.7 26.2-2.3 39 10.7 16.1 27.2 32.1 41.5 28.4 6.1-1.6 10.1-6.7 10.8-13.9.4-4.2.7-8.8 1-13.6 1-15.5 2.3-34.9 7-55.8 3.8-16.9 12.7-16.1 26-15 2.3.2 4.6.4 6.9.5l3.4 4.3c-1.5 12.4-5.2 44.2-6.2 66.8-3 70 9.2 77.6 32.7 85.8 8.9 3.1 15.6 7.4 20.1 12.7l-19.3 24.6c-78.4-4.7-82.2-13.9-95.5-46.1zm-6.8-148.2c24.6 5.9 34.3 12.3 36.8 14.2-4.8 21.1-6 40.5-7 56.1-.3 4.8-.6 9.3-1 13.6-.6 6.3-3.9 10.8-9.3 12.1-8.7 2.2-23.6-3.9-39.3-27.6-.5-.7-.9-1.4-1.3-2.1 10.6 15.3 22.4 24.1 32.3 24.1h1.1c.3 0 .5-.3.5-.5 0-.3-.3-.5-.5-.5-10.4.7-23.3-9.2-34.5-26.6-.2-.2-.5-.3-.7-.1-3.6-8.7-.7-15.7 5.7-31.3 2.1-5 4.6-11.2 7.3-18.5l9.9-12.9zm70-2.1c-1.7-.1-3.5-.3-5.1-.4-13.1-1.1-23.6-2-27.9 15.5-3-2.2-12.7-8.3-36.3-14l35.1-44.8 34.2 43.7zm32.3 157.1c-23.3-8.2-34.4-15.2-31.4-83.9.9-21.4 4.3-51.1 5.9-64.6L774.6 225l-40.3 51.3c-4.6-5.4-11.5-9.8-20.6-13z"/&gt;&lt;path d="M632.9 193.5c.2 0 .3-.1.4-.2 1.5-2.2 2.5-4.9 2.8-8 .3-3.6.6-7.6.9-11.4 0-.3-.2-.5-.5-.5-.2 0-.5.2-.5.5-.3 3.8-.6 7.7-.9 11.4-.3 2.9-1.1 5.4-2.6 7.5-.2.2-.1.5.1.7.1-.1.2 0 .3 0zm4.2-28.6s.1 0 0 0c.3 0 .5-.2.5-.5.7-9.7 1.8-21.4 4-34.1 0-.3-.1-.5-.4-.6-.3 0-.5.1-.6.4-2.3 12.7-3.3 24.4-4.1 34.2.1.3.4.5.6.6zM508.7 10.2h-183c-.6 0-1 .4-1 1v181c0 .6.4 1 1 1h183c.6 0 1-.4 1-1v-181c0-.5-.4-1-1-1zm-1 181h-181v-179h181v16H504c-.6 0-1.3.6-1.3 1.1v3.9h-91c-2.5-3-3.7-4.6-3.7-4.7-.2-.4-.7-.6-1.1-.5l-10.8 3.1c-.3.1-.5.2-.6.5s-.2.6-.1.8c0 .1.1-.3.3.7h-7v-3.9c0-.6-.4-1.1-.9-1.1h-17.3c-.6 0-.7.6-.7 1.1v3.9h-25.1c-1.8 0-2.9 1.3-2.9 3.2v15.2c0 12.1-1.5 24.4-2.8 37.5-1.4 14.3-3 29-3 44.5 0 12.5 2.3 17.8 5.9 25.8 1 2.3 2.3 4.9 3.6 8 0 .1.1.2.1.3.1.2 0 .5.1.7 2.3 5.2 7.6 8.9 13.6 8.9h148.4v14zM417.6 52.5l5.7-7.4 4.1 3.1 4.1 3.1-5.7 7.4-8.2-6.2zm6.9 7.8l-.8 1-3.3-2.5.8-1 3.3 2.5zm-8.1-6.2l3.3 2.5-.8 1-3.3-2.5.8-1zm-18.6-21.3l9-2.6c1.3 1.9 5.8 7.8 14.9 13.8l-5.6 7.3c-12.9-9.2-17.1-16.1-18.3-18.5zm26.7 10.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm4.8 3.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm3.7 5.4l10.4 8-2.1 2.7-3.6 4.7-10.4-8 5.7-7.4zm-.9 14.1c.1-.1.1-.2.2-.3l4.2 3.2-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-4.2-3.2.1-.1c.5-.7 1.3-1.1 2.2-1.2.9-.1 1.7.1 2.4.6l49.1 37.7c1.4 1.1 1.7 3.1.6 4.5-1.1-.8-2.2-1.5-3.3-2.3l.4-.5c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.6-.7 1.9 1.2c.6.4 1.3.8 1.9 1.2-.3 0-.6.1-.8.4-.5.7-1.3 1.1-2.2 1.2-.9.1-1.7-.1-2.4-.6l-49.1-37.7c-.7-.5-1.1-1.3-1.2-2.2-.4-.9-.1-1.7.4-2.4zm54.3 38.3l-1.9-1.1 5.7-7.4c2.3 1.6 4.7 3.2 6.9 4.7 3.6 2.5 6.6 5 10.6 7.3v10c-7-3.9-13.5-8.4-21.3-13.5zm11.9-5.4c-.6-.4-1.3-.8-1.9-1.2 1.7-2.3 1.2-5.5-1-7.2l-49.1-37.7c-1.1-.9-2.5-1.2-3.9-1-1.4.2-2.6.9-3.5 2 0 .1-.1.1-.1.2l-4.7-3.6 1.3-1.7c.3-.4.3-1.1-.2-1.4l-4.1-3.1.3-.4c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.3.4-4.1-3.1c-.2-.2-.5-.2-.7-.2-.3 0-.5.2-.7.4l-1.4 1.8v.1c-3.8-2.5-6.8-5.2-9.1-7.2h94.2V</t>
+  </si>
+  <si>
+    <t>106c-3-2-6.2-4.2-9.4-6.4zm6.7-66.4h-.3v-3h3v3H505zm-118.3-3v3h-15v-3h15zM346.5 169c.1 0 .1 0 0 0zm46.4-32.1c.1.2.3.4.3.6s-.2.4-.3.6c.1-.2.2-.4.2-.6s-.1-.5-.2-.6zm.2 22.3c.1.1.3.1.5.1s.3-.1.5-.1h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.6v2h-.4c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.2v-2h.3zm6.6-19.4c-.6 0-1 .4-1 1v.4h-4v-19h11v19h-5v-.4c0-.5-.4-1-1-1zm-1 3.4v7.4c-.2-.1-.4-.1-.6.1-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.2-.2-.5-.2-.7 0s-.2.5 0 .7c.7.7.7 1.9 0 2.6-.7.7-1.9.7-2.6 0-.7-.7-.7-1.8-.1-2.5v.4c0 .6.4 1 1 1s1-.4 1-1v-8.6h5v9.9c-.1.1-.1.3-.1.4s0 .3.1.4v3.3h-11v-3.7c0 .2 0 .4-.2.5.1-.1.2-.3.2-.5v-10.3h4zm-4 15.4c0 .2-.1.3-.3.4.1-.1.2-.3.3-.4zm11.1-5.8c.1-.4.4-.6.8-.6-.3 0-.6.3-.8.6zm3.2 4.4h-1.3v-3h2.6c.6 0 1.4-.1 1.4-.7v-11.7c0-.6-.9-.6-1.4-.6h-2.6v-3.1c0 .2.3.1.7.1h75.1c.1 0 .3.2.3.2v2.8h-2.6c-.6 0-1.4.1-1.4.6v11.7c0 .6.8.7 1.4.7h2.6v3h-1.3c-.6 0-.7.6-.7 1.1v3.6c0 .6.1 1.3.7 1.3h1.3v6.4c0 .3.1.6.4.8l6 4.8h-88.9l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6.1-4.8c.2-.2.4-.5.4-.8v-6.4h1.3c.6 0 .7-.7.7-1.3v-3.6c-.1-.5-.3-1.1-.8-1.1zm-1.3-5v-9h2v9h-2zm77.5 7h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.5v2h-.3c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.3v-2h.5c.1.1.3.1.5.1s.3 0 .4-.1zm-.5-7c.5 0 .9.5 1 1-.1-.4-.5-1-1-1zm13.1 0c-.5 0-.9.5-1 1v-.1c0-.5.4-.9 1-.9zm-.4-15c0-.6.4-.9 1-.9-.5-.1-.9.4-1 .9zm-.5 21.6c-.1-.1-.1-.3-.1-.5-.1.2 0 .4.1.5zm-.2-17.6h-4v-.4c0-.6-.4-1-1-1s-1 .4-1 1v.4h-5v-19h11v19zm-6 2v8.6c0 .6.4 1 1 1s1-.4 1-1v-.3c.5.7.5 1.7-.2 2.4s-1.9.7-2.6 0c-.7-.7-.7-1.9 0-2.6.2-.2.2-.5 0-.7s-.5-.2-.7 0c-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.1-.1-.3-.2-.5-.1v-7.3h4v14h-11v-14h5zm6.1 18.4c0 .1-.1.2-.1.4 0-.2 0-.3.1-.4zm-.1 1.6v6l-5.5 4.4-5.5-4.4v-6h11zm-13-11h-2v-9h2v9zm-89 11h11v6l-5.5 4.4-5.5-4.4v-6zm-.2-1.7zm13 0c.1.1.2.2.2.5 0-.2-.1-.4-.2-.5zm-.1-2.5c.2-.2.3-.4.3-.6 0 .2-.1.5-.3.6zm-14.7-6.8h-2v-9h2v9zm0-13.9v2.9H390c-.6 0-1.2.1-1.2.6v11.7c0 .6.7.7 1.2.7h2.8v3h-1.5c-.6 0-.5.6-.5 1.1v3.6c0 .6 0 1.3.5 1.3h1.5v6.4c0 .3.1.6.3.8l6 4.8h-39.7c-5.3 0-9.8-3.2-11.8-7.7-.1-.2 0-.5-.1-.7-.1-.3-.2-.5-.3-.8-.3-1.2-.4-2.5-.4-3.7v-26.7c2 1.8 4.7 2.6 7.8 2.6h37.5c.2 0 .6.2.6.1s.1-.1.1-.1l-.1.1zm115 36.9h-15.4l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6-4.8c.2-.2.4-.5.4-.8v-6.4h1.4c.6 0 .6-.7.6-1.3v-3.6c0-.6-.1-1.1-.6-1.1h-1.4v-3h2.7c.6 0 1.3-.1 1.3-.7v-11.7c0-.6-.8-.6-1.3-.6h-2.7v-3h9v37zm-9-23v-9h2v9h-2zm9-20.5v-.3c-.1.1-.1.2-.1.3v.2c0 .1 0 .2.1.3v4h-9v-14h2.9c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h2.9v14.3s-.2-.3-.3-.3h-75.1c-.3 0-.7.4-.7.6v-14.6h2.8c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h3v14.4s0 .1.1.1l-.1-.1v-.1c0-.1-.4-.4-.6-.4h-37.5c-6.2 0-10.8-4.9-10.8-11.1V51.6c0 10.5-1 21.1-2 32.2v41.3c0 3.2 1 6.2 3 8.5v25.6c-.5-.2-.7-.4-.9-.7-3.6-8-5.8-12.9-5.9-25 0-15.4 1.6-30.1 3-44.3.2-1.8-.3-3.6.7-5.5 1-11.1 1.8-21.7 1.8-32.2 0-.5-.3-1-.8-1h.1c.6 0 1 .4 1 1V36.4c0-.7.1-1.2.9-1.2h51c.4 0 .7-.3.9-.6-.3-.6-.6-1.1-.7-1.4.2 0 .4.8.7 1.4 1.8 3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5 9.8 18.3 18.2l-1.4 1.8c-.2.2-.2.5-.2.7 0 .3.2.5.4.7l4.1 3.1-.3.4c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.3-.4 4.1 3.1c.2.1.4.2.6.2.3 0 .6-.1.8-.4l1.4-1.8 4.7 3.6c-.1.1-.2.1-.3.3-.9 1.1-1.2 2.5-1 3.9.2 1.4.9 2.6 2 3.5l49.1 37.7c.9.7 2 1.1 3.2 1.1h.7c1.4-.2 2.6-.9 3.5-2 .2-.3.2-.7.1-1-.1-.2-.2-.3-.3-.4.1.1.4.3.4.4 7 4.6 13.6 8.7 19.6 12.3v10.6c.1-.1.2-.2.4-.2-.3 0-.5.4-.6.5z"/&gt;&lt;path d="M345.6 168.4s.1 0 0 0c0-.1 0 0 0 0zm100.2-89.6c.3 0 .6-.1.8-.4l.5-.7 25.6 19.6-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-25.6-19.6.4-.6c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4 0 .3.2.3.5.3zm8.2-10.1l25.6 19.6-5.7 7.5-25.6-19.6 5.7-7.5zm-104.8 39.7c.3 0 .5-.2.5-.5V90.6c0-.3-.2-.5-.5-.5s-.5.2-.5.5V108c0 .2.2.4.5.4zm34.7 22.8h-26.3c-4.4 0-7.8-3.3-7.8-7.7v-7.8c0-.3-.2-.5-.5-.5s-.5.2-.5.5v7.8c0 4.9 3.9 8.7 8.8 8.7h26.3c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm74.2 0h-43c-.3 0-.5.2-.5.5s.2.5.5.5h43c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm18.3 0h-11.9c-.3 0-.5.2-.5.5s.2.5.5.5h11.9c.3 0 .5-.2.5-.5s-.2-.5-.5-.5z"/&gt;&lt;g&gt;&lt;path d="M529.9 380.5L398.8 210.7c-.4-.5-1.2-.5-1.6 0L266.1 380.5c-.2.3-.3.8-.1 1.1.2.3.5.6.9.6h262.2c.4 0 .7-.3.9-.6.2-.3.2-.8-.1-1.1zm-166-84c5.9-2.7 10.1-3.7 15.6-1.7 5.9 2.2 8.2 5.8 10.6 11.9-.6 1.1-1.1 2.2-1.6 3.3l-13.1-4.3-12.6-5.4h-.1c.4-1.3.7-2.6 1-3.8h.2zm95.4 49c-.5-.2-1.1.1-1.3.6 0 .1-.1.3-.1.4 0-.1 0-.3.1-.4.2-.5.8-.8 1.3-.6l1.1.4c1-1.8 1.8-3.6 2.5-5.5s1.3-3.9 1.7-5.9l2.7 1-4.3 11.4-2.7-1-1-.4zm1.8-5.8c-3.6 9.6-10.7 17.3-20 21.5-9.3 4.2-19.6 4.5-29.1.9-19.7-7.4-29.7-29.7-22.3-49.5 3.6-9.6 10.7-17.3 20-21.5 5-2.3 10.3-3.4 15.7-3.4 4.5 0 9.1.8 13.4 2.5 19.6 7.4 29.7 29.6 22.3 49.5zm-100.9-38.2c-3.6 9.6-10.7 17.3-20 21.5-8.9 4.1-18.9 4.5-28.1 1.3l2.2-2.8c3.4 1 6.8 1.6 10.3 1.6 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 3.9-10.5 2.5-21.7-2.9-30.6l2.2-2.8c6.3 10 8.1 22.7 3.7 34.6zm-23.1-9.7l14 5.9-8.1-2.8c-2.2-.8-4.5-1.4-6.8-1.9l.9-1.2zm5.2 5l13.1 4.4h.2c-3.3 7.9-9.4 14.2-17.3 17.8-7.5 3.4-15.7 3.9-23.5 1.6l20-25.9c2.5.7 5.1 1.3 7.5 2.1zm14.5 1.3c-.1-.1-.2-.2-.4-.3l-18-7.6 15.1-19.6c4.8 8 6.2 18 3.3 27.5zm-47 27.6c.2 0 .4.1.6.2.1.1.3.1.4.1 4.5 1.6 9.1 2.5 13.7 2.5 5.6 0 11.2-1.2 16.5-3.6 9.5-4.3 16.7-11.9 20.7-21.5l13 4.3 12.7 5.4c-7 20.6 3.5 43.2 23.9 50.9 4.6 1.7 9.4 2.6 14.1 2.6 3.5 0 7.4-.5 10.4-1.4 1-.2 1.4-.4 2-.6v-.3.3c1.4-.5 2.7-1 4.1-1.6.5-.2.9-.4 1.4-.7.9 2.9 1.6 5.8 2 8.8.2 1.4-.3 2.8-1.5 3.7-1.1.9-2.6 1.1-3.9.5-1.5-.6-2.5-2.2-2.4-3.8 0-.5.1-1 .1-1.6.1-1.4.2-3.2.2-5.3-.7.2-1.3.4-2 .6 0 1.8-.1 3.3-.2 4.6 0 .6-.1 1.2-.1 1.7-.1 2.5 1.3 4.8 3.6 5.8.8.3 1.5.5 2.3.5 1.3 0 2.6-.4 3.6-1.3 1.7-1.3 2.5-3.4 2.2-5.6-.5-3.2-1.2-6.4-2.2-9.5v-.1c-.2-.5-.7-.8-1.3-.7-.4.1-.7.5-.7.9 0-.4.3-.7.7-.9.5-.2 1.1.1 1.3.7v.1c5.9-3.3 10.8-8 14.3-13.7l3.9 1.5c.1 0 .2.1.4.1.1 0 .3 0 .4-.1.2-.1.4-.3.5-.6l5-13.3c.2-.5-.1-1.1-.6-1.3l-3.9-1.5c2.9-18.6-7.4-37.3-25.6-44.2-10-3.8-20.9-3.4-30.7 1-7.3 3.3-13.3 8.6-17.5 15.3-2-4.9-4.6-9.2-11.2-11.6-6.3-2.4-11.2-.9-16 1.2 1.6-10.3-.9-20.6-6.</t>
+  </si>
+  <si>
+    <t>5-28.9L398 213l129.1 167.2H269l41.8-54.1c-.1-.1-.3-.1-.4-.2-.3-.1-.5-.1-.6-.2L267 381.2l42.8-55.5z"/&gt;&lt;path d="M437.6 293.3c-8.7-3.3-18.1-3-26.6.9s-15 10.8-18.3 19.7c-6.8 18.1 2.4 38.4 20.4 45.2 4 1.5 8.1 2.3 12.3 2.3 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 6.7-18.2-2.4-38.5-20.4-45.3zm-24.2 64.8c-17.1-6.4-25.9-25.3-20.3-42.6.1 0 .1.1.2.1l12.7 5.3c7.8 3.3 14.7 8 20.6 13.8v.1c5.2 6.1 8.2 14.1 8.9 23.5 0 .1 0 .2.1.3-7.2 2.4-15 2.2-22.2-.5zm25.8-.9c-.6.3-1.1.5-1.7.7-.4-5-1.4-9.6-3.1-13.8 2.5 3.7 4.7 7.6 6.4 11.8.1.1.1.2.2.3-.5.4-1.1.7-1.8 1zm17.8-19.1c-2.7 7.3-7.7 13.3-14.2 17.2v-.1c-6.9-16.4-19.6-29.2-35.9-36.1l-8-3.4 58.5 19.7c.1 0 .2.1.3.1h.3c-.4.9-.7 1.8-1 2.6zm1.3-4.3c-.1-.1-.2-.2-.4-.3l-63-21.3c-.2-.1-.4-.1-.5 0 3.4-7.7 9.4-13.7 17-17.2 4.4-2 9.2-3 13.9-3 4 0 8 .7 11.9 2.2 16.1 6.1 24.9 23.2 21.1 39.6z"/&gt;&lt;/g&gt;&lt;g&gt;&lt;path d="M299.4 186.4L161.8 11.1c-.4-.5-1.2-.5-1.6 0L22.5 186.4c-.3.4-.3.9 0 1.2l137.6 175.3c.2.2.5.4.8.4s.6-.1.8-.4l137.6-175.3c.4-.3.4-.9.1-1.2zm-71.6-52.5l-2.3-3.7c-.1-.1-.1-.2-.1-.4 0 .1.1.3.1.4l2.3 3.7 3.7 6c-.7 2.7-.5 5.3.6 7.2.9 1.6 2.4 2.8 4.4 3.3.8.2 1.7.4 2.5.6 3.4.7 6.3 1.2 7 5 .1.5.5.8 1 .8h.2c.1 0 .3-.1.4-.1.3 3.8.2 7.9-.2 12-.7 6.8-1.8 13.2-3.3 19.1l-.6 2.3-.9 3.3c-1.9 6.2-4.2 12-6.9 17.3l-7.9-76.8zm-2.6-12.4c0 .1.1.3.1.4l1.5 2.5 10.9 17.9c.3.5.1 1.2-.4 1.5-.2.1-.5.2-.8.1-.3-.1-.5-.2-.7-.5l-8.6-14.2-.5-4.9-1.5-2.5v-.3zm9.1 23c.4.7 1.1 1.2 1.9 1.4.2.1.5.1.7.1.6 0 1.1-.2 1.6-.4 1.4-.9 1.9-2.8 1-4.2l-1.9-3.1c1.2-.4 2.3-.3 3.4.4 3 1.9 5.2 7.5 6.1 14.6-1.6-3-5-3.7-7.8-4.2-.8-.2-1.6-.3-2.4-.5-1.5-.4-2.5-1.2-3.2-2.4-.6-1-.8-2.2-.7-3.6l1.3 1.9zm10 49.9l1.8-6.3v-.1c1.5-6 2.6-12.3 3.2-19.1 1.4-14.8-1.6-28.3-7.2-31.9-1.7-1.1-3.6-1.3-5.6-.5l-9.5-15.6c-.1-.2-.3-.4-.6-.4l-.7-6.4c-.2-2.3-2.1-3.8-4.4-3.8h-36.7c-2-3-4.2-4.9-6.4-6.2v-.1c-1.4-20.5-5.9-40.4-12.9-56.1-4-9.1-8.8-16.6-14.1-22.3l9.7-12.3L297.4 187l-56.9 72.5-4.2-41.8c3.6-8.6 6.1-16.7 8-23.3zM200 174.8c.1-1.1.1-2.3.2-3.4.1.2.4.3.6.4l1.1.2-1.4 7.9-5.7-1-5.7-1 1.4-7.9 1.1.2h.3c-.2 2.1-.4 3.2-.4 3.3 0 .3 0 .5.2.8s.4.4.6.4l6.5 1.1h.2c.2 0 .4-.1.6-.2.3-.3.4-.5.4-.8zm7.3 8.4l-6.1-.9 6.1.9-2.6 34.7c-.1.8-.5 1.5-1.1 2-.6.5-1.4.7-2.2.5l-26.9-4.7c-.8-.1-1.5-.6-1.9-1.3-.4-.7-.6-1.5-.4-2.3l9.5-33.5 6.2 1.1 9.2 1.6-2.6-.5 2.6.5 4.1.9h.1-.1l-4.1-.9 4.1.7-4.1-.7 4.1.7 6.1 1.2zm-9.2-9.7l-4.4-.8c.6-4 2.4-19.5-.7-38.7.6.2 1.1.4 1.7.5 0-.1-.1-.2-.1-.3-.1-.5.2-1.1.7-1.2h.4-.4c-.5.1-.8.7-.7 1.2 0 .1.1.2.1.3 2.2 8.1 4.4 21.3 3.4 39zm-29.4-58.4c-.8-2.4-1.1-4.7-.6-6.5.2 1.1.7 2.1.7 3.1 0 .1.2.2.3.3 0 .1.2.2.3.3 0 .1.1.1.1.2 4.8 8.7 20.9 12.8 30.3 15.2l1 .2v6.3c-23.1-5.9-30.3-13.6-32.1-19.1zm13 16.7l-.2-2c.1 0 .2.1.2.1v1.9zm-1.4-4.6c.5 0 .9.3 1 .8v.1c-.1-.5-.5-.9-1-.9zm3.1 37.8c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6h-14.7c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-.9-.6-1.6l4-35.8h11.2l4.1 35.8zm6.1-41.2h-.2.2zm-1.3-1.4c0 .2.1.4.1.6 0-.2-.2-.5-.3-.7-1.4-.5-2.3-1-4.3-1.6v-3.2c0-.6-.2-1.3-.7-1.3h-4.1l-.1.2v.1c0-1.5 0-3-.1-4.5.1.1.3.2.4.2h3.1c2.5 3 5.1 6.3 6 10.2zm-9.6-12.1v-.1c0-.5 0-1.1-.1-1.6.5.5 1.1.7 1.7 1.7H179c-</t>
+  </si>
+  <si>
+    <t>.1-.1-.2-.1-.4 0zm.2 7.9c-.1 0-.2-.1-.3-.1 0 0 0-.1.1-.1.2.1.4.2.7.2h2.4v1.6c-1-.4-1.5-.6-2.4-1.6h-.5zm-2-1.2c-2.4-1.6-4.4-3.4-5.6-5.6 0 0 0-.1-.1-.1-.1-2.8-.3-5.6-.5-8.5v-.1c-2.2-28.5-10.4-56-24-71.3l3.3-4.2c5.9 6.4 10.4 14.2 13.6 21.5 8.4 18.7 13.2 43.6 13.3 68.3zm13.9 5.9c-2-2.7-4-6.7-6.8-10.7 2.8 4 5 8 6.5 10.7h-.1s.2.1.3.1c0 0 .1 0 .1-.1zm-.4-.1c-.6-3.9-3-7.6-5.4-10.6 2.4 3 4.7 6.6 5.4 10.6zM83.8 110l61-77.7c.2.3.5.5.7.8 4.6 5.3 8.2 11.7 10.9 17.6 6.4 14.2 10.7 32.7 12.3 51.9v.2c-.7.9-2.4 3.4-2.7 7.4 0 0 0-.1 0 0H85l60.4-77.1c-.2-.3-.5-.5-.7-.7l-61 77.8-1.6 2-1.4 1.6 1.4-1.8 1.7-2zm-5.1 8.2v13.5l-.4-3.8c-.1-.5-.5-.7-1-.7h-5.6l6.7-9h.3zM68.8 129l1.6-2 2.6-3.3-2.6 3.5-1.6 2-4.3 5.3-.2 1.9 5.7-7.3h6.3l4 35.9c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6H63.5c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-1.1-.6-1.7l3.2-28.5.2-1.9 4.2-5.5zm9.9 128.5L23.3 187l.1-.1 55.3 70.3.8 1 8.5 11.1-8.5-10.8-.8-1zm153 14.8l-.8-.4-5.7 7.4h-58.9c-2.5 0-5 1.4-7.6 2h-.2 65.2L161 361l-62.6-79.7h14.7c-.5 0-.9-.5-1-1v-.1c.1.5.5.8 1 .8h.1c1-.2 2.2-.3 3.4-.5-1.3.2-2.4.4-3.4.6-.1 0-.1.1-.1.1h45.3c-.5 0-.9-.4-1-.9v-.4.3c.1.5.5.7 1 .7.1 0 .1.1.2.1 2.6-.6 5.2-1.9 7.6-1.9 38.9-11 58-35.7 68.3-57.7l-.4-3.9c-3 6.9-6.8 14-11.7 20.9-14.7 20.5-36.3 33.7-64.2 40.7l-.1-.1c-.1 0-.2.1-.3.1h-31.4c28.6-5 81.3-17.1 107.7-61.7l-.4-3.6c-28.7 51.8-93.1 61.2-117.4 64.7-1.2.2-2.4.6-3.4.6 0 0 0-.1-.1-.1s-.3.1-.4.1H96.8l-16-21h39.7c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H80l-55.4-70.4L62 139.3l.2-1.8-.2 1.9-2.8 25.3c-.1 1.2.3 2.4 1.1 3.3.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3L79 133.4c.2.3.5.5.8.5.6 0 1-.4 1-1v-15.3c0-.6-.2-1.3-.7-1.3H80l3.6-4H166v-1.9c0 .6-.1.9 0 1.9h.1c.5 0 .9-.5 1-1v.1c0 .6-.4.9-1 .9h-.1c.1 1 .3 2.1.7 3.4.1.3.2.6.3.6h.2c.6 0 1 .6 1 1.1v-.1c0-.5-.5-1.1-1-1.1h-.2s-.1.1-.1 0h-2.3c-.6 0-.9.7-.9 1.3v15.3c0 .6.4 1 1 1s1-.4 1-1v-14.6h1.4c.2 0 .3-.1.5-.2 0 .1.1.2.1.2l.2-.2c-.1.1-.1.2-.2.2 1.8 3.2 4.8 5.9 8.9 8.9h-9.4c-.5 0-.9.3-1 .8l-4.1 36.8c-.1 1.2.3 2.3 1.1 3.2.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3l-3.5-31.3c.2.3.5.5.8.5.6 0 1-.4 1-1v-2c2 .9 4.5 1.8 7 2.6v-.4c-.1-.5.3-1.1.8-1.2-.5.1-.9.6-.8 1.2 0 .1 0 .3.1.4 2.5 15.1 2 28 1.4 34.9 0 0-.1 0-.1-.1l-2.1-.4c-.3 0-.5 0-.7.2-.2.2-.4.4-.4.6l-1.6 8.9-6.1-1.1-3.9-.7c-.5-.1-1.1.3-1.2.8-.1.5.3 1.1.8 1.2l2.8.5-9.4 33.4c-.4 1.3-.1 2.7.6 3.9s1.9 1.9 3.3 2.2l26.9 4.7c.3 0 .6.1.8.1 1.1 0 2.1-.3 3-1 1.1-.8 1.8-2.1 1.9-3.4l2.6-34.5 2.8.5h.2c.5 0 .9-.3 1-.8.1-.5-.3-1.1-.8-1.2l-9.9-1.8 1.6-8.9c0-.3 0-.5-.2-.7-.2-.2-.4-.4-.6-.4l-2.1-.4c-.4-.1-.7.1-.9.3.5-15.5-1.4-27.2-3.3-34.9 1.3.4 2.7.7 4.1 1.1h.2c.2 0 .7-.1.8-.2.2-.2.6-.5.6-.8V127c0-.5-.5-.9-1-1l-1.6-.4c-2.1-.5-4.6-1.2-7.1-1.9.1.4-.1.9-.5 1.1-.1.1-.3.1-.5.1.1 0 .3 0 .4-.1.4-.2.6-.7.5-1.1l-.1-.1c-1.3-2.7-3.8-7.4-6.7-11.4h35.2c1.2 0 2.3.8 2.4 2l10 99.7.3 3.5v.1l.4 3.9 4.1 40.4-7.1 9.1-15.4-10.2c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l15.3 10.1.8.7z"/&gt;&lt;path d="M201.4 207.1c-.3 0-.5.2-.5.5l-.5 7.1c0 .1-.1.3-.2.4-.1.1-.3.1-.4.1l-12.7-2.2-6.6-1.2-2.6-.5c-.1 0-.3-.1-.3-.2-.1-.1-.1-.3-.1-.4l5.3-</t>
+  </si>
+  <si>
+    <t>18.7c.1-.3-.1-.5-.3-.6-.3-.1-.5.1-.6.3l-5.3 18.7c-.1.4 0 .8.2 1.2.2.4.6.6 1 .7l2.6.5 6.6 1.2 12.7 2.2h.3c.3 0 .7-.1.9-.3.3-.3.5-.6.6-1.1l.5-7.1c-.1-.3-.3-.5-.6-.6zm-18.2-18.9h.1c.2 0 .4-.1.5-.4l1-3.7 14.5 2.6c.3 0 .5-.1.6-.4 0-.3-.1-.5-.4-.6l-15-2.6c-.3 0-.5.1-.6.4l-1.2 4.1c.1.3.3.5.5.6zm18.6 14.5c.3 0 .5-.2.5-.5l.9-12c0-.3-.2-.5-.5-.5s-.5.2-.5.5l-.9 12c0 .3.2.5.5.5zm-24.9 54.5h-18.2c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.2-.5-.5-.5zm-18-139.5c0-.3-.2-.5-.5-.5h-42.5c-.3 0-.5.2-.5.5s.2.5.5.5h42.5c.3 0 .5-.2.5-.5zm-93.8 45.6c.1.1.2 0 .4 0h10.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H66l1.4-12.6c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5L65 163.1c-.1.1 0 .1.1.2zm2.4-18.7c.1 0 .1 0 0 0 .3 0 .5-.2.6-.4l1.2-10.9c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4L67.1 144c0 .3.2.6.4.6zm100.7 18.7c.1.1.2 0 .4 0h6.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5h-5.9l.5-3.9c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5l-.5 4.7.1.1zm1.8-12.7s0 .1 0 0c.3 0 .5-.2.6-.4l1.9-17c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4l-1.9 17c-.1.4.1.6.4.6zm-62.6-33.4H89.1c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.1-.5-.4-.5z"/&gt;&lt;/g&gt;&lt;/svg&gt;
         &lt;/div&gt;
       &lt;/div&gt;
   &lt;/div&gt;
@@ -1304,10 +1695,7 @@
         &lt;!-- main hero container --&gt;
         &lt;div class="main-content-first-block" style="width: 100%; height: 100vh; min-height: 100vh; background: #e8ac04; position: relative;"&gt;
           &lt;div class="pageWidthFakeBox"&gt;
-            &lt;div class="main-content-con</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tainer-box"&gt;
+            &lt;div class="main-content-container-box"&gt;
               &lt;div id="ph-ch-2"&gt;
                 &lt;div class="main-content-paragraph"&gt;
                   &lt;h2 class="banner-title preload_header-h2" data-i18n="banner_header"&gt;
@@ -1334,7 +1722,10 @@
                     &lt;/span&gt;
                   &lt;/div&gt;
                 &lt;/div&gt;
-                &lt;a href="#offer" class="btn--medium btn preload_header-btn pivo-btn hero__btn pivo-btn--header pivo-buy-link shop-link" id="header-link" data-ga-label="data-theme-editor-setting="&gt;
+                &lt;a href="#offer" class="btn--medium btn preload_header-btn pivo-btn hero__btn pivo-btn--heade</t>
+  </si>
+  <si>
+    <t>r pivo-buy-link shop-link" id="header-link" data-ga-label="data-theme-editor-setting="&gt;
                   &lt;ly-as-18196401&gt;&lt;span data-translate="11"&gt;Скачать Pivo&lt;/span&gt;&lt;/ly-as-18196401&gt;
                 &lt;/a&gt;
                 &lt;a href="#offer" class="btn--medium btn preload_header-btn pivo-btn hero__btn pivo-btn--header pivo-buy-link shop-link" data-ga-label="data-theme-editor-setting="&gt;
@@ -1357,10 +1748,7 @@
           &lt;div id="pivo-intro-container" class="pivo-intro-container custom-content-wrapper--top-margin"&gt;
             &lt;div class="page-width"&gt;
               &lt;div class="page-width-header "&gt;
-                </t>
-  </si>
-  <si>
-    <t>&lt;p class="text-center custom-content__section-header-desc" data-i18n="tiny_pod"&gt;
+                &lt;p class="text-center custom-content__section-header-desc" data-i18n="tiny_pod"&gt;
                   &lt;ly-as-18196402&gt;&lt;span data-translate="13"&gt;Один маленький кубик, бесконечные возможности&lt;/span&gt;&lt;/ly-as-18196402&gt;
                 &lt;/p&gt;
               &lt;/div&gt;
@@ -1381,7 +1769,10 @@
                   &lt;/div&gt;
                   &lt;p class="custom__block-body-text maximize-camera" data-i18n="maximize_camera"&gt;
                     &lt;ly-as-18196404&gt;&lt;span data-translate="15"&gt;Максимизируйте возможности камеры вашего смартфона с помощью режимов Авто трекинг,
-                      умная съемка и 9 режимов быстрого создания. Больше не нужно умолять и подкупать друзей, чтобы они
+                      умная съемка и 9 режимов быстрого создания. Бол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ьше не нужно умолять и подкупать друзей, чтобы они
                       сделали вашу фотографию или снимали ваше видео. &lt;/span&gt;&lt;/ly-as-18196404&gt;
                   &lt;/p&gt;
                 &lt;/div&gt;
@@ -1412,10 +1803,7 @@
                   &lt;li&gt;
                     &lt;div class="sprite-remote"&gt;&lt;/div&gt;
                     &lt;br&gt;
-                    &lt;span data-i18n="remot</t>
-  </si>
-  <si>
-    <t>e_control"&gt;
+                    &lt;span data-i18n="remote_control"&gt;
                       &lt;ly-as-18196408&gt;&lt;span data-translate="19"&gt;Удаленный контроль&lt;/span&gt;&lt;/ly-as-18196408&gt;
                     &lt;/span&gt;
                   &lt;/li&gt;
@@ -1452,7 +1840,10 @@
             }
             .custom-content-wrapper--1570752002898 .section-logo--size img {
               width: 36px;
-              margin-bottom: 15px;
+          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    margin-bottom: 15px;
             }
           &lt;/style&gt;
           &lt;div data-bgset id class="  custom-content-wrapper custom-content-wrapper--1570752002898 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1570752002898" data-section-type="custom-content"&gt;
@@ -1467,10 +1858,7 @@
               &lt;div class="custom-content main-contents custom-content--1570752002898"&gt;
                 &lt;div id class="  pivo-slider auto-tracking-slider custom__item custom__item--1570752150932 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
-                    &lt;</t>
-  </si>
-  <si>
-    <t>div id="pivo-slide-barricade"&gt;
+                    &lt;div id="pivo-slide-barricade"&gt;
                       &lt;div class="left-barricade"&gt;
                       &lt;/div&gt;
                       &lt;div class="video-slider carousel type-one-carousel"&gt;
@@ -1482,7 +1870,10 @@
 videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="txhkfkqmfg"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/txhkfkqmfg/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
-                          &lt;div class="mode-desc"&gt;
+                          &lt;div class="mode-</t>
+  </si>
+  <si>
+    <t>desc"&gt;
                             &lt;h2 data-i18n="smart_tracking"&gt;&lt;span data-translate="24"&gt;Куда бы вы не направились, Pivo последует за вами&lt;/span&gt;&lt;/h2&gt;
                             &lt;p data-i18n="smart_tracking_desc"&gt;&lt;span data-translate="25"&gt;Face Tracking всегда держит вас в поле зрения, так что
                               вы никогда не уйдете с экрана и не испортите еще один почти идеальный дубль. Работает как
@@ -1493,10 +1884,7 @@
                           &lt;div class="desktop wistia_async_lw26fsjd4k  load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/lw26fsjd4k/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
-                          &lt;div class="mobile wistia_async_3dvscrfnop  load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;wid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th:100%"&gt;
+                          &lt;div class="mobile wistia_async_3dvscrfnop  load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/3dvscrfnop/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
                           &lt;div class="mode-desc"&gt;
@@ -1520,7 +1908,10 @@
             .custom-content-wrapper--1558999154788 .custom-content__section-header {
               color: #869da5;
             }
-            .custom-content-wrapper--1558999154788 .custom-content__section-header-desc {
+            .custom-content-wrapper--1558999154788 .custom-conte</t>
+  </si>
+  <si>
+    <t>nt__section-header-desc {
               color: ;
             }
             .custom-content-wrapper--1558999154788 {
@@ -1540,10 +1931,7 @@
               &lt;div class="custom-content main-contents custom-content--1558999154788"&gt;
                 &lt;div id class="   custom__item custom__item--1559112112161 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
-            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">        &lt;div class="desktop wistia_async_isqsjj7ni7  load_wistia wistia_embed  autoplay_wistia videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="isqsjj7ni7"&gt;
+                    &lt;div class="desktop wistia_async_isqsjj7ni7  load_wistia wistia_embed  autoplay_wistia videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="isqsjj7ni7"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;
 &lt;img src="https://fast.wistia.com/embed/medias/isqsjj7ni7/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;--&gt;
                     &lt;/div&gt;
@@ -1555,7 +1943,10 @@
                 &lt;div id class="  homepage--text custom__item custom__item--1558999154788-0 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--text"&gt;
                     &lt;style&gt;
-                      .custom-content-wrapper--1558999154788 .custom__item--1558999154788-0 .custom__block-heading-text {
+                      .cust</t>
+  </si>
+  <si>
+    <t>om-content-wrapper--1558999154788 .custom__item--1558999154788-0 .custom__block-heading-text {
                         color: #3a3a3a;
                       }
                       .custom-content-wrapper--1558999154788 .custom__item--1558999154788-0 .custom__block-body-text {
@@ -1583,10 +1974,7 @@
             .custom-content-wrapper--1558999863000 .custom-content__section-header-desc {
               color: ;
             }
-     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       .custom-content-wrapper--1558999863000 {
+            .custom-content-wrapper--1558999863000 {
               background-color: #ffffff;
             }
             .custom-content-wrapper--1558999863000 .section-logo--size img {
@@ -1605,7 +1993,10 @@
                 &lt;div id class="   custom__item custom__item--1559212897571 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
                     &lt;div class="desktop wistia_async_xu2ctw8xwd load_wistia wistia_embed autoplay_wistia 
- videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="xu2ctw8xwd"&gt;
+ videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-id="xu2ctw8xwd"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/xu2ctw8xwd/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
                     &lt;div class="mobile wistia_async_6llji8sa8k load_wistia wistia_embed autoplay_wistia 
@@ -1617,10 +2008,7 @@
                 &lt;div id class="  homepage--text multi-stream__text custom__item custom__item--1558999863000-0 small--one-whole medium-up--one-half align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--text"&gt;
                     &lt;style&gt;
-                      .</t>
-  </si>
-  <si>
-    <t>custom-content-wrapper--1558999863000 .custom__item--1558999863000-0 .custom__block-heading-text {
+                      .custom-content-wrapper--1558999863000 .custom__item--1558999863000-0 .custom__block-heading-text {
                         color: #3a3a3a;
                       }
                       .custom-content-wrapper--1558999863000 .custom__item--1558999863000-0 .custom__block-body-text {
@@ -1647,7 +2035,10 @@
                       .custom__item--1579486037741 {
                         margin-left: 0 !important;
                       }
-                    &lt;/style&gt;
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 &lt;/style&gt;
                     &lt;div class="custom__block-image-container" style="padding-top:12.612035851472472%"&gt;
                       &lt;img class="custom__block-image lazyload" data-src="//cdn.shopify.com/s/files/1/2065/8833/files/multiple_platforms_{width}x.png?v=1581381230" data-widths="[180, 360, 540, 720, 900, 1080, 1296, 1512, 1728, 2048]" data-aspectratio="7.928934010152284" data-sizes="auto" alt="sns collection"&gt;
                       &lt;noscript&gt;&lt;span data-translate="34"&gt;&lt;span data-translate="34"&gt;&lt;img src="img/multiple_platforms_1024x1024.png" alt="sns collection" class="custom__block-image"&gt;
@@ -1670,10 +2061,7 @@
             .custom-content-wrapper--1558999999655 {
               background-color: #ffffff;
             }
-            .custom-content-wrapper--1558999999655 .section-logo--size</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> img {
+            .custom-content-wrapper--1558999999655 .section-logo--size img {
               width: 70px;
               margin-bottom: 15px;
             }
@@ -1691,7 +2079,10 @@
                     &lt;div class="video-slider carousel type-one-carousel"&gt;
                       &lt;div class&gt;
                         &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Many-Me-web.jpg?v=1590022411" class="lazyload desktop" alt="manyme web" style&gt;
-                        &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/ManyMe-Mobile.jpg?v=1590020006" class="lazyload mobile" alt="manyme mobile" style&gt;
+                        &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/ManyMe-Mobile.jpg?v=1590020006" class="lazyload mobil</t>
+  </si>
+  <si>
+    <t>e" alt="manyme mobile" style&gt;
                       &lt;/div&gt;
                       &lt;div class style&gt;
                         &lt;div class="mobile
@@ -1710,10 +2101,7 @@
                         &lt;/div&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
-                    </t>
-  </si>
-  <si>
-    <t>&lt;div class="mode-desc" style="padding:0 5%;"&gt;
+                    &lt;div class="mode-desc" style="padding:0 5%;"&gt;
                       &lt;p data-i18n="many_me_desc"&gt;&lt;span data-translate="37"&gt;Умножьте себя до 15 раз и создайте столько разных версий себя,
                         сколько вы хотите, в одном и том же месте, в одной и той же картине.&lt;/span&gt;&lt;/p&gt;
                     &lt;/div&gt;
@@ -1742,7 +2130,10 @@
           &lt;div data-bgset id class="  custom-content-wrapper custom-content-wrapper--1559000137865 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1559000137865" data-section-type="custom-content"&gt;
             &lt;div class="page-width "&gt;
               &lt;div class="page-width-header custom-content"&gt;
-                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header--cap  text-center" data-i18n="motion_time_lapse"&gt;&lt;span data-translate="38"&gt;ВРЕМЕННОЙ ИНТЕРВАЛ ДВИЖЕНИЯ&lt;/span&gt;&lt;/h2&gt;
+                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-cap  text-center" data-i18n="motion_time_lapse"&gt;&lt;span data-translate="38"&gt;ВРЕМЕННОЙ ИНТЕРВАЛ ДВИЖЕНИЯ&lt;/span&gt;&lt;/h2&gt;
                 &lt;p class="custom__item text-center custom-content__section-header-desc" data-i18n="time_lapse_title"&gt;&lt;span data-translate="39"&gt;Более иммерсивный. Всегда широкомасштабный.&lt;/span&gt;&lt;/p&gt;
               &lt;/div&gt;
               &lt;div class="custom-content main-contents custom-content--1559000137865"&gt;
@@ -1752,10 +2143,7 @@
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/om2ehdhm1e/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
                     &lt;div class="mobile wistia_async_rjcdmrghzp load_wistia wistia_embed autoplay_wistia 
- videoFoam=true playsuspendedoffscreen=tru</t>
-  </si>
-  <si>
-    <t>e preload=none" style="height:100%;position:relative;width:100%" data-id="rjcdmrghzp"&gt;
+ videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="rjcdmrghzp"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/rjcdmrghzp/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
                   &lt;/div&gt;
@@ -1774,7 +2162,10 @@
                     &lt;div class="text-center text-center--mobile"&gt;
                       &lt;div class="custom__block-body-text rte-setting" data-i18n="timelap_desc"&gt;
                         &lt;p&gt;&lt;span data-translate="40"&gt;Съемка с помощью Pivo Motion Time Lapse переводит традиционные фотографии с временным
-                          отставанием на другой уровень динамики. В чем секрет? Плавное 360-градусное горизонтальное
+                          отставанием на другой уровень </t>
+  </si>
+  <si>
+    <t>динамики. В чем секрет? Плавное 360-градусное горизонтальное
                           панорамирование камеры.&lt;/span&gt;&lt;/p&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
@@ -1800,10 +2191,7 @@
           &lt;div data-bgset id class=" latest custom-content-wrapper custom-content-wrapper--1589945912443 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1589945912443" data-section-type="custom-content"&gt;
             &lt;div class="page-width "&gt;
               &lt;div class="page-width-header custom-content"&gt;
-                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header--cap  text-center" data-i18n="pivorama"&gt;&lt;span data-translate="41"&gt;PIVORAMA</t>
-  </si>
-  <si>
-    <t>&lt;/span&gt;&lt;/h2&gt;
+                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header--cap  text-center" data-i18n="pivorama"&gt;&lt;span data-translate="41"&gt;PIVORAMA&lt;/span&gt;&lt;/h2&gt;
                 &lt;p class="custom__item text-center custom-content__section-header-desc" data-i18n="pivorama_title"&gt;&lt;span data-translate="42"&gt;Идеальная панорама и Миниатюрная планета.&lt;/span&gt;&lt;/p&gt;
               &lt;/div&gt;
               &lt;div class="custom-content main-contents custom-content--1589945912443"&gt;
@@ -1827,7 +2215,10 @@
               color: #035e88;
             }
             .custom-content-wrapper--1571029054276 {
-              background-color: #ffffff;
+              background</t>
+  </si>
+  <si>
+    <t>-color: #ffffff;
             }
             .custom-content-wrapper--1571029054276 .section-logo--size img {
               width: 70px;
@@ -1843,10 +2234,7 @@
               &lt;div class="custom-content main-contents custom-content--1571029054276"&gt;
                 &lt;div id class="  pivo-slider wide-angle-slider custom__item custom__item--1571029155455 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
-                    &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Tinyplanets.jpg?v=1583740002" alt="ti</t>
-  </si>
-  <si>
-    <t>ny planet" class="lazyload"&gt;
+                    &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Tinyplanets.jpg?v=1583740002" alt="tiny planet" class="lazyload"&gt;
                     &lt;div class="mode-desc"&gt;
                       &lt;p data-i18n="tiny_planet_desc"&gt;&lt;span data-translate="46"&gt;Заставь мир вращаться вокруг тебя! Идеально подходит для
                         совместного использования в любимых социальных сетях.&lt;/span&gt;&lt;/p&gt;
@@ -1882,7 +2270,10 @@
             .custom-content-wrapper--1589946164634 .custom-content__section-header-desc {
               color: ;
             }
-            .custom-content-wrapper--1589946164634 .section-logo--size img {
+            .custom-content-wrappe</t>
+  </si>
+  <si>
+    <t>r--1589946164634 .section-logo--size img {
               width: 70px;
               margin-bottom: 15px;
             }
@@ -1899,10 +2290,7 @@
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
                     &lt;div class="video-slider carousel type-two-carousel"&gt;
                       &lt;div class&gt;
-                        &lt;div class="desktop wistia_async_7hgvts3cre load_wistia wistia_embed  autoplay_wistia videoFoa</t>
-  </si>
-  <si>
-    <t>m=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="7hgvts3cre"&gt;
+                        &lt;div class="desktop wistia_async_7hgvts3cre load_wistia wistia_embed  autoplay_wistia videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="7hgvts3cre"&gt;
                           &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/7hgvts3cre/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                         &lt;/div&gt;
                         &lt;div class="mobile wistia_async_21yhcrress load_wistia wistia_embed autoplay_wistia 
@@ -1912,7 +2300,10 @@
                       &lt;/div&gt;
                       &lt;div class style&gt;
                         &lt;div class="desktop  wistia_async_wxupvcz648 load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt; &lt;/div&gt;
-                        &lt;div class="mobile  wistia_async_pc8t7dpbew load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt; &lt;/div&gt;
+                        &lt;div class="mobile  wistia_async_pc8t7dpbew load_wistia wistia_embed videoFoam=true playsuspendedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt; &lt;/div&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
                   &lt;/div&gt;
@@ -1939,10 +2330,7 @@
             &lt;/div&gt;
           &lt;/div&gt;
         &lt;/div&gt;
-        &lt;div id="shopify-section-15722288802</t>
-  </si>
-  <si>
-    <t>85" class="shopify-section index-section index-section--custom-content"&gt;
+        &lt;div id="shopify-section-1572228880285" class="shopify-section index-section index-section--custom-content"&gt;
           &lt;style&gt;
             .custom-content-wrapper--1572228880285 .custom-content__section-header {
               color: #035e88;
@@ -1965,7 +2353,10 @@
                 &lt;p class="custom__item text-center custom-content__section-header-desc" data-i18n="special_effect_title"&gt;&lt;span data-translate="51"&gt;Готовые эффекты.&lt;/span&gt;&lt;/p&gt;
               &lt;/div&gt;
               &lt;div class="custom-content main-contents custom-content--1572228880285"&gt;
-                &lt;div id class="   custom__item custom__item--1572228967517 small--one-whole one-whole align--center"&gt;
+                &lt;div id class="   custom__item custom__item--1572228967517 small--one-whole </t>
+  </si>
+  <si>
+    <t>one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
                     &lt;div class="desktop wistia_async_fos69o1qpw load_wistia wistia_embed autoplay_wistia  videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="fos69o1qpw"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/fos69o1qpw/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
@@ -1973,10 +2364,7 @@
                     &lt;div class="mobile wistia_async_scseu1w4o4 load_wistia wistia_embed autoplay_wistia  videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="scseu1w4o4"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/scseu1w4o4/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
-                    &lt;div cla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ss="mode-desc custom__block-body-text mode-desc--top"&gt;
+                    &lt;div class="mode-desc custom__block-body-text mode-desc--top"&gt;
                       &lt;h2 style="color:white; margin-bottom:10px;" data-i18n="special_effect_subtitle"&gt;&lt;span data-translate="52"&gt;Double Take,
                         Flash, Versus&lt;/span&gt;&lt;/h2&gt;
                       &lt;p style="color:white;" data-i18n="special_effect_desc"&gt;&lt;span data-translate="53"&gt;Соберите вместе отдельные мероприятия для
@@ -2005,7 +2393,10 @@
               margin-bottom: 15px;
             }
           &lt;/style&gt;
-          &lt;div data-bgset id class=" pivo-pod custom-content-wrapper custom-content-wrapper--1559000796350 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1559000796350" data-section-type="custom-content"&gt;
+          &lt;div data-bgset id class=" pivo-pod custom-content-wrapper custom-content-wrapper--1559000796350 custom-content-wrapper--top-margin c</t>
+  </si>
+  <si>
+    <t>ustom-content-wrapper--bottom-margin one-whole" data-section-id="1559000796350" data-section-type="custom-content"&gt;
             &lt;div class="page-width full-size"&gt;
               &lt;div class="page-width-header custom-content"&gt;
                 &lt;div class="custom__item section-logo--size"&gt;
@@ -2021,10 +2412,7 @@
                     &lt;div id="pivo-slide-barricade"&gt;
                       &lt;div class="left-barricade"&gt;
                       &lt;/div&gt;
-                      &lt;div class="video-slider carousel type-two-carousel </t>
-  </si>
-  <si>
-    <t>pivo-pod-slider"&gt;
+                      &lt;div class="video-slider carousel type-two-carousel pivo-pod-slider"&gt;
                         &lt;div&gt;
                           &lt;div class="desktop wistia_async_rehnmfmzv2 load_wistia wistia_embed autoplay_wistia  videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="rehnmfmzv2"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/rehnmfmzv2/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
@@ -2034,7 +2422,10 @@
                           &lt;/div&gt;
                           &lt;div class="mode-desc"&gt;
                             &lt;h2 data-i18n="portable"&gt;&lt;span data-translate="56"&gt;Идеально портативный&lt;/span&gt;&lt;/h2&gt;
-                            &lt;p data-i18n="portable_desc"&gt;&lt;span data-translate="57"&gt;Возьмите Pivo to-go с автоматическим вращением на 360°,
+                            &lt;p data-i18n="portable_desc"</t>
+  </si>
+  <si>
+    <t>&gt;&lt;span data-translate="57"&gt;Возьмите Pivo to-go с автоматическим вращением на 360°,
                               выдвижными стабилизирующими ножками и поддержкой стандартных штативов камеры.&lt;/span&gt;&lt;/p&gt;
                           &lt;/div&gt;
                         &lt;/div&gt;
@@ -2044,10 +2435,7 @@
  wistia_async_ghsj3h9say load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/ghsj3h9say/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;" /&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;div class="mobile wistia_async_7sfbdipf92 load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/7sfbdipf92/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;" /&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;div class="mode-desc"&gt;
-&lt;h2 da</t>
-  </si>
-  <si>
-    <t>ta-i18n="lean_machine"&gt;Lean, mean, selfie machine&lt;/h2&gt;
+&lt;h2 data-i18n="lean_machine"&gt;Lean, mean, selfie machine&lt;/h2&gt;
 &lt;p data-i18n="lean_machine_desc"&gt;Hit your best angles every time with the Adjustable mount. Tilt angle: 30°- 50°.&lt;/p&gt;
 &lt;/div&gt;
 &lt;/div&gt; --&gt;
@@ -2059,7 +2447,10 @@
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/7u8j0swuhk/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
                           &lt;div class="mode-desc"&gt;
-                            &lt;h2 data-i18n="steady_footing"&gt;&lt;span data-translate="58"&gt;Устойчивая основа&lt;/span&gt;&lt;/h2&gt;
+                            &lt;h2 data-i18n="steady_footing"&gt;&lt;span data-tr</t>
+  </si>
+  <si>
+    <t>anslate="58"&gt;Устойчивая основа&lt;/span&gt;&lt;/h2&gt;
                             &lt;p data-i18n="steady_footing_desc"&gt;&lt;span data-translate="59"&gt;Вытяните ножки Pivo для дополнительной устойчивости или
                               просто прикрепите их к любому стандартному штативу с резьбой ¼".&lt;/span&gt;&lt;/p&gt;
                           &lt;/div&gt;
@@ -2081,10 +2472,7 @@
             &lt;/div&gt;
           &lt;/div&gt;
         &lt;/div&gt;
-        &lt;div id="shopify-section-1559000863269" cl</t>
-  </si>
-  <si>
-    <t>ass="shopify-section index-section index-section--custom-content"&gt;
+        &lt;div id="shopify-section-1559000863269" class="shopify-section index-section index-section--custom-content"&gt;
           &lt;style&gt;
             .custom-content-wrapper--1559000863269 .custom-content__section-header {
               color: #ec2544;
@@ -2110,7 +2498,10 @@
                       &lt;/div&gt;
                       &lt;div class="video-slider carousel type-two-carousel"&gt;
                         &lt;div&gt;
-                          &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Turntable_web.jpg?51280" alt="Turntable web" class="lazyload desktop"&gt;
+                          &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Turntable_web.jpg?51280" alt="Turntable web" class=</t>
+  </si>
+  <si>
+    <t>"lazyload desktop"&gt;
                           &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Turntable_Mobile.jpg?51280" alt="Turntable mobile" class="lazyload mobile"&gt;
                           &lt;div class="mode-desc"&gt;
                             &lt;h2 data-i18n="turntable"&gt;&lt;span data-translate="62"&gt;Вертушка&lt;/span&gt;&lt;/h2&gt;
@@ -2123,10 +2514,7 @@
                           &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Copy_of_Compact_studio-webjpg@2x.jpg" style="width:100%;" alt="lightbox web" class="lazyload desktop"&gt;&lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Compact_studio-Mobile_96784c34-87d7-4f70-8c9a-2bebea9d7b0c.jpg?v=1560926784" style="width:100%;" alt="lightbox mobile" class="lazyload mobile"&gt;
                           &lt;div class="mode-desc"&gt;
                             &lt;h2 data-i18n="lightbox"&gt;&lt;span data-translate="64"&gt;Лайтбокс&lt;/span&gt;&lt;/h2&gt;
-                            &lt;p data-i18n="lightbox_desc"&gt;&lt;span data-translate=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"65"&gt;Дайте своей продукции профессиональную среду освещения,
+                            &lt;p data-i18n="lightbox_desc"&gt;&lt;span data-translate="65"&gt;Дайте своей продукции профессиональную среду освещения,
                               которую они заслуживают. Идеально сочетаются с вертушкой.&lt;/span&gt;&lt;/p&gt;
                           &lt;/div&gt;
                         &lt;/div&gt;
@@ -2151,7 +2539,10 @@
         &lt;div id="shopify-section-1577342158977" class="shopify-section index-section index-section--custom-content"&gt;
           &lt;style&gt;
             .custom-content-wrapper--1577342158977 .custom-content__section-header {
-              color: #ec2544;
+              c</t>
+  </si>
+  <si>
+    <t>olor: #ec2544;
             }
             .custom-content-wrapper--1577342158977 .custom-content__section-header-desc {
               color: ;
@@ -2180,10 +2571,7 @@
               background-color: #ffffff;
             }
             .custom-content-wrapper--1571008651045 .section-logo--size img {
-          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    width: 36px;
+              width: 36px;
               margin-bottom: 15px;
             }
           &lt;/style&gt;
@@ -2211,7 +2599,10 @@
               background-color: #c0ccd0;
             }
             .custom-content-wrapper--1579485461755 .section-logo--size img {
-              width: 70px;
+              width: 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0px;
               margin-bottom: 15px;
             }
           &lt;/style&gt;
@@ -2240,10 +2631,7 @@
             .custom-content-wrapper--1571046462449 .custom-content__section-header {
               color: #3a3a3a;
             }
-            .custom-conte</t>
-  </si>
-  <si>
-    <t>nt-wrapper--1571046462449 .custom-content__section-header-desc {
+            .custom-content-wrapper--1571046462449 .custom-content__section-header-desc {
               color: ;
             }
             .custom-content-wrapper--1571046462449 {
@@ -2269,7 +2657,10 @@
                         &lt;div class="item-desc" data-i18n="reduced_shipping"&gt;&lt;span data-translate="68"&gt;Worldwide&lt;/span&gt;&lt;br&gt;&lt;span data-translate="69"&gt;Доставка&lt;/span&gt;&lt;/div&gt;
                       &lt;/div&gt;
                       &lt;div class="contain-item "&gt;
-                        &lt;div class="item-image icon-warranty"&gt;&lt;/div&gt;
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       &lt;div class="item-image icon-warranty"&gt;&lt;/div&gt;
                         &lt;div class="item-desc" data-i18n="year_warranty"&gt;&lt;span data-translate="70"&gt;1 год гарантии&lt;/span&gt;&lt;/div&gt;
                       &lt;/div&gt;
                       &lt;div class="contain-item"&gt;
@@ -2301,10 +2692,7 @@
           max-width: 500px;
           margin: 0 auto;
           display: grid;
-          paddin</t>
-  </si>
-  <si>
-    <t>g: 40px 15px;
+          padding: 40px 15px;
         }
         .offer__form button,
         input {
@@ -2327,12 +2715,16 @@
             &lt;div class="flex-footer "&gt;
               &lt;div class="site-footer__logo-wrapper flex-footer__item"&gt;
                 &lt;div class&gt;
+                  &lt;div class="site-footer__logo pivo-logo-light" style="margin-bottom: 20px;"&gt;&lt;/div&gt;
                 &lt;/div&gt;
               &lt;/div&gt;
             &lt;/div&gt;
           &lt;/div&gt;
           &lt;div class="page-width pivo-footer site-footer__bottom"&gt;
-            &lt;div class="flex-footer flex-footer--info flex-medium-up--one-third flex-small--one-whole flex-footer--left "&gt;
+            &lt;div class="flex-footer flex-footer--info flex-medium-up--one-third fle</t>
+  </si>
+  <si>
+    <t>x-small--one-whole flex-footer--left "&gt;
               &lt;span data-i18n="company_info"&gt;&lt;/span&gt;&lt;span data-translate="75"&gt;ⓒ2020 GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Spain
               (поменять в соответствии с гео)&lt;/span&gt;&lt;br&gt;
               &lt;div style="display: grid"&gt;&lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="76"&gt;Privacy policy&lt;/span&gt;&lt;/a&gt;
@@ -2372,10 +2764,7 @@
             color: #aaa;
           }
           .lan_select-box {
-            position</t>
-  </si>
-  <si>
-    <t>: fixed;
+            position: fixed;
             max-width: 1000px;
             min-width: 800px;
             top: 50%;
@@ -2427,7 +2816,10 @@
             color: #ec2544;
           }
           .redBorder {
-            border-left: 1px solid red;
+            border-left: 1px solid red</t>
+  </si>
+  <si>
+    <t>;
           }
           .countryFlag {
             width: 25px;
@@ -2476,10 +2868,7 @@
           .country-language a:hover {
             color: #ec2544;
           }
-          .newSelector_popup-right .locale-select-country-item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s {
+          .newSelector_popup-right .locale-select-country-items {
             height: 0;
             overflow: hidden;
           }
@@ -2525,7 +2914,10 @@
             }
             .newSelector_popup-leftItem.selected .locale-select-country-items {
               max-height: 1000px;
-              width: unset;
+              width: unset</t>
+  </si>
+  <si>
+    <t>;
             }
           }
         &lt;/style&gt;
@@ -2559,10 +2951,7 @@
               if (current == e.target) {
                 console.log("clicking.. same...");
                 return false;
-       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       }
+              }
               var before = document.querySelectorAll(
                 ".locale_select_country-selected"
               );
@@ -2597,7 +2986,10 @@
               }
             });
           });
-          (function init() {
+          (functi</t>
+  </si>
+  <si>
+    <t>on init() {
             var newCreatedElement = createLangElement(lan_selector_obj.NA);
             newSelector_popup_right.insertAdjacentHTML(
               "beforeend",
@@ -2628,10 +3020,7 @@
               countryHtml = "";
               for (var j = 0; j &lt; elemData.country[i].lang.length; j += 1) {
                 countryHtml +=
-                  '&lt;div</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> class="country-language"&gt;&lt;a href="' +
+                  '&lt;div class="country-language"&gt;&lt;a href="' +
                   elemData.country[i].lang[j].link + '"&gt;' +
                   elemData.country[i].lang[j].name +
                   "&lt;/a&gt;&lt;/div&gt;";
@@ -2668,140 +3057,134 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="[$€-2] 0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="8">
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color indexed="8"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Times Roman"/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="59" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office Theme">
+    <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -2809,10 +3192,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -2836,22 +3219,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FF00FF"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office Theme">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office Theme">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2860,92 +3243,90 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -2955,2183 +3336,2626 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="35000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:txDef>
-  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="123.56"/>
+    <col customWidth="1" min="2" max="6" width="11.33"/>
+    <col customWidth="1" min="7" max="26" width="14.44"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.45" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="17.45" customHeight="1">
-      <c r="A2" t="s" s="2">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="17.45" customHeight="1">
-      <c r="A3" t="s" s="2">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="17.45" customHeight="1">
-      <c r="A4" t="s" s="2">
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="17.45" customHeight="1">
-      <c r="A5" t="s" s="2">
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="17.45" customHeight="1">
-      <c r="A6" t="s" s="2">
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="17.45" customHeight="1">
-      <c r="A7" t="s" s="2">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="17.45" customHeight="1">
-      <c r="A8" t="s" s="2">
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="17.45" customHeight="1">
-      <c r="A9" s="4">
-        <v>138</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="17.45" customHeight="1">
-      <c r="A10" s="4">
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="17.45" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="17.45" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="17.45" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="17.45" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="17.45" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="17.45" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="17.45" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="17.45" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="17.45" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="17.45" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="17.45" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="17.45" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="17.45" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="17.45" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="17.45" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="17.45" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="17.45" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="17.45" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="17.45" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="17.45" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="17.45" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="17.45" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="17.45" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="17.45" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="17.45" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="17.45" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="17.45" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="17.45" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="17.45" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="17.45" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="17.45" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="17.45" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="17.45" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="17.45" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="17.45" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="17.45" customHeight="1">
-      <c r="A47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" ht="17.45" customHeight="1">
-      <c r="A48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" ht="17.45" customHeight="1">
-      <c r="A49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" ht="17.45" customHeight="1">
-      <c r="A50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" ht="17.45" customHeight="1">
-      <c r="A51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" ht="17.45" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" ht="17.45" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" ht="17.45" customHeight="1">
-      <c r="A54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" ht="17.45" customHeight="1">
-      <c r="A55" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" ht="17.45" customHeight="1">
-      <c r="A56" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" ht="17.45" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" ht="17.45" customHeight="1">
-      <c r="A58" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" ht="17.45" customHeight="1">
-      <c r="A59" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" ht="17.45" customHeight="1">
-      <c r="A60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" ht="17.45" customHeight="1">
-      <c r="A61" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" ht="17.45" customHeight="1">
-      <c r="A62" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" ht="17.45" customHeight="1">
-      <c r="A63" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" ht="17.45" customHeight="1">
-      <c r="A64" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" ht="17.45" customHeight="1">
-      <c r="A65" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" ht="17.45" customHeight="1">
-      <c r="A66" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" ht="17.45" customHeight="1">
-      <c r="A67" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" ht="17.45" customHeight="1">
-      <c r="A68" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" ht="17.45" customHeight="1">
-      <c r="A69" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" ht="17.45" customHeight="1">
-      <c r="A70" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" ht="17.45" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" ht="17.45" customHeight="1">
-      <c r="A72" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" ht="17.45" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" ht="17.45" customHeight="1">
-      <c r="A74" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" ht="17.45" customHeight="1">
-      <c r="A75" t="s" s="2">
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" ht="17.45" customHeight="1">
-      <c r="A76" t="s" s="2">
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" ht="17.45" customHeight="1">
-      <c r="A77" t="s" s="2">
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" ht="17.45" customHeight="1">
-      <c r="A78" t="s" s="2">
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" ht="17.45" customHeight="1">
-      <c r="A79" t="s" s="2">
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" ht="17.45" customHeight="1">
-      <c r="A80" t="s" s="2">
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" ht="17.45" customHeight="1">
-      <c r="A81" t="s" s="2">
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="5" width="8" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8" style="7" customWidth="1"/>
+    <col customWidth="1" min="1" max="6" width="11.33"/>
+    <col customWidth="1" min="7" max="26" width="14.44"/>
   </cols>
   <sheetData>
-    <row r="1" ht="1185.35" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" ht="525.35" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>78</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="1905.35" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="2145.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="1">
+      <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" ht="2100.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" ht="2265.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" ht="1230.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" ht="1305.35" customHeight="1">
-      <c r="A8" t="s" s="9">
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" ht="810.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" ht="1185.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" ht="1485.35" customHeight="1">
-      <c r="A11" t="s" s="9">
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="1440.35" customHeight="1">
-      <c r="A12" t="s" s="9">
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="1140.35" customHeight="1">
-      <c r="A13" t="s" s="9">
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="8">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="8">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="8">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="8">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="8">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="8">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="8">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" t="s" s="8">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" t="s" s="8">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" ht="15.35" customHeight="1">
-      <c r="A23" t="s" s="8">
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" ht="15.35" customHeight="1">
-      <c r="A24" t="s" s="8">
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" ht="15.35" customHeight="1">
-      <c r="A25" t="s" s="8">
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" ht="585.35" customHeight="1">
-      <c r="A26" t="s" s="9">
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" ht="1050.35" customHeight="1">
-      <c r="A27" t="s" s="9">
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="855.35" customHeight="1">
-      <c r="A28" t="s" s="9">
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" ht="1290.35" customHeight="1">
-      <c r="A29" t="s" s="9">
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" ht="615.35" customHeight="1">
-      <c r="A30" t="s" s="9">
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" ht="1200.35" customHeight="1">
-      <c r="A31" t="s" s="9">
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" ht="1095.35" customHeight="1">
-      <c r="A32" t="s" s="9">
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" ht="855.35" customHeight="1">
-      <c r="A33" t="s" s="9">
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" ht="1395.35" customHeight="1">
-      <c r="A34" t="s" s="9">
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" ht="840.35" customHeight="1">
-      <c r="A35" t="s" s="9">
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" ht="1065.35" customHeight="1">
-      <c r="A36" t="s" s="9">
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" ht="1215.35" customHeight="1">
-      <c r="A37" t="s" s="9">
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" ht="1185.35" customHeight="1">
-      <c r="A38" t="s" s="9">
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" ht="1440.35" customHeight="1">
-      <c r="A39" t="s" s="9">
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" ht="1035.35" customHeight="1">
-      <c r="A40" t="s" s="9">
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" ht="795.35" customHeight="1">
-      <c r="A41" t="s" s="9">
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" ht="1155.35" customHeight="1">
-      <c r="A42" t="s" s="9">
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" ht="450.35" customHeight="1">
-      <c r="A43" t="s" s="9">
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" ht="765.35" customHeight="1">
-      <c r="A44" t="s" s="9">
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" ht="840.35" customHeight="1">
-      <c r="A45" t="s" s="9">
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" ht="1455.35" customHeight="1">
-      <c r="A46" t="s" s="9">
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="1485.35" customHeight="1">
-      <c r="A47" t="s" s="9">
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" ht="1590.35" customHeight="1">
-      <c r="A48" t="s" s="9">
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" ht="1790" customHeight="1">
-      <c r="A49" t="s" s="9">
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" ht="1815.35" customHeight="1">
-      <c r="A50" t="s" s="9">
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" ht="1455.35" customHeight="1">
-      <c r="A51" t="s" s="9">
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" ht="1215.35" customHeight="1">
-      <c r="A52" t="s" s="9">
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" ht="735.35" customHeight="1">
-      <c r="A53" t="s" s="9">
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/getpivo/gr/gr2.xlsx
+++ b/getpivo/gr/gr2.xlsx
@@ -8,11 +8,6 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mh7UWldgsubPgH73IYaIUezbIr+3g=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -49,43 +44,10 @@
     <t>69€</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Παραγγείλτε </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t xml:space="preserve">το </t>
-    </r>
-    <r>
-      <t>Cube</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Παραγγείλτε </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t xml:space="preserve">το </t>
-    </r>
-    <r>
-      <t>Cube</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t xml:space="preserve">Ένα μικρό </t>
-    </r>
-    <r>
-      <t>Cube, με ατελείωτες δυνατότητες</t>
-    </r>
+    <t>Παραγγείλτε Cube</t>
+  </si>
+  <si>
+    <t>Ένας μικρός Cube, με ατελείωτες δυνατότητες</t>
   </si>
   <si>
     <t>Μετατρέψτε το smartphone σας σε προσωπικό φωτογράφο.</t>
@@ -94,50 +56,31 @@
     <t>Μεγιστοποιήστε τις δυνατότητες της κάμερας του smartphone σας με την αυτόματη παρακολούθηση, την έξυπνη λήψη και μια ποικιλία άλλων λειτουργιών. Δεν χρειάζεται πλέον να ζητάτε από τους φίλους σας να σας τραβήξουν φωτογραφίες και βίντεο.</t>
   </si>
   <si>
+    <t>ΑΥΤΟΜΑΤΗ ΠΑΡΑΚΟΛΟΥΘΗΣΗ</t>
+  </si>
+  <si>
+    <t>Εφαρμογή Cube</t>
+  </si>
+  <si>
+    <t>Bluetooth Pair</t>
+  </si>
+  <si>
+    <t>Απομακρυσμένος έλεγχος</t>
+  </si>
+  <si>
+    <t>Έτοιμο τρίποδο</t>
+  </si>
+  <si>
+    <t>Μοιραστείτε πληροφορίες</t>
+  </si>
+  <si>
     <t>Αυτόματη παρακολούθηση</t>
   </si>
   <si>
-    <t>Εφαρμογή Cube</t>
-  </si>
-  <si>
-    <t>Bluetooth Pair</t>
-  </si>
-  <si>
-    <t>Απομακρυσμένος έλεγχος</t>
-  </si>
-  <si>
-    <t>Έτοιμο τρίποδο</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Μοιραστείτε </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t xml:space="preserve">τις </t>
-    </r>
-    <r>
-      <t>πληροφορίες</t>
-    </r>
-  </si>
-  <si>
     <t>Στο κέντρο της προσοχής.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Όπου κι αν πάτε, </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t xml:space="preserve">το </t>
-    </r>
-    <r>
-      <t>Cube θα σας ακολουθεί</t>
-    </r>
+    <t>Όπου κι αν πάτε, ο Cube θα σας ακολουθεί</t>
   </si>
   <si>
     <t>Το Face Tracking σας κρατάει σε εγρήγορση, οπότε βρίσκεστε πάντα σε ετοιμότητα για τη τέλεια λήψη. Λειτουργεί τόσο σε κατακόρυφη όσο και σε οριζόντια θέση</t>
@@ -179,7 +122,7 @@
     <t>Πολλαπλασιάστε τον εαυτό σας έως και 15 φορές και δημιουργήστε όσες θέλετε διαφορετικές εκδόσεις του εαυτού σας, στο ίδιο μέρος, στην ίδια εικόνα.</t>
   </si>
   <si>
-    <t>ΧΡΟΝΙΚΌ ΠΕΡΙΘΩΡΙΟ ΚΙΝΗΣΗΣ</t>
+    <t>ΧΡΟΝΙΚΟ ΠΕΡΙΘΩΡΙΟ ΚΙΝΗΣΗΣ</t>
   </si>
   <si>
     <t>Πιο συναρπαστικό. Με περιστρεφόμενη κάμερα.</t>
@@ -239,7 +182,7 @@
     <t>Πάρτε ένα Cube to-go με αυτόματη περιστροφή 360 °, επεκτάσιμα πόδια σταθεροποιητή και υποστήριξη για στάνταρ τρίποδα κάμερας.</t>
   </si>
   <si>
-    <t>Σταθερή βάση</t>
+    <t xml:space="preserve">Σταθερή βάση </t>
   </si>
   <si>
     <t>Τραβήξτε τα πόδια του Cube για πρόσθετη σταθερότητα ή απλώς συνδέστε το με οποιοδήποτε σύγχρονο τρίποδο ¼ ".</t>
@@ -251,21 +194,10 @@
     <t>Εξαιρετική ευκολία. Κάθε Cube διαθέτει τηλεχειριστήριο, διευκολύνοντας τη λήψη φωτογραφιών.</t>
   </si>
   <si>
-    <t>Περιστρεφόμενο εργαλείο</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Τραβήξτε </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FFFF0000"/>
-      </rPr>
-      <t>απ' όλες</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> τις γωνίες, μπρός-πίσω και στο πλάι. Ιδανικό για λήψη 360 μοιρών που μπορούν να ενσωματωθούν και να μεταφορτωθούν σε ιστολόγια, στους ιστότοπους και σε άλλα κοινωνικά δίκτυα.</t>
-    </r>
+    <t>Περιστρεφόμενη κάμερα</t>
+  </si>
+  <si>
+    <t>Τραβήξτε όλες τις γωνίες, μπρός-πίσω και στο πλάι. Ιδανικό για λήψη 360 μοιρών που μπορούν να ενσωματωθούν και να μεταφορτωθούν σε ιστολόγια, στους ιστότοπους και σε άλλα κοινωνικά δίκτυα.</t>
   </si>
   <si>
     <t>Lightbox</t>
@@ -301,7 +233,7 @@
     <t>Παραγγέιλτε τώρα</t>
   </si>
   <si>
-    <t>GADGET SHOP, 26th Oktovriou, 546 27, Thessaloniki, Greece</t>
+    <t>ⓒ2020 GADGET SHOP, 26th Oktovriou, 546 27, Thessaloniki, Greece</t>
   </si>
   <si>
     <t>Privacy policy</t>
@@ -3058,23 +2990,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3087,14 +3010,11 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <color rgb="FFFF0000"/>
+      <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3103,14 +3023,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -3120,51 +3046,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3293,21 +3197,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="6350" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="12700" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln cap="flat" cmpd="sng" w="19050" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3324,7 +3228,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" rotWithShape="0" algn="ctr" dir="5400000" dist="19050">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3380,11 +3284,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="123.56"/>
-    <col customWidth="1" min="2" max="6" width="11.33"/>
-    <col customWidth="1" min="7" max="26" width="14.44"/>
+    <col customWidth="1" min="1" max="1" width="123.57"/>
+    <col customWidth="1" min="2" max="6" width="11.29"/>
+    <col customWidth="1" min="7" max="21" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3403,152 +3307,152 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
+    <row r="19">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3558,32 +3462,32 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3593,62 +3497,62 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3658,57 +3562,77 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3718,17 +3642,17 @@
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3738,7 +3662,7 @@
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3758,7 +3682,7 @@
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3788,7 +3712,7 @@
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3992,725 +3916,6 @@
     <row r="279" ht="15.75" customHeight="1"/>
     <row r="280" ht="15.75" customHeight="1"/>
     <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4721,10 +3926,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="11.33"/>
-    <col customWidth="1" min="7" max="26" width="14.44"/>
+    <col customWidth="1" min="1" max="11" width="11.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5212,749 +4416,6 @@
     <row r="255" ht="15.75" customHeight="1"/>
     <row r="256" ht="15.75" customHeight="1"/>
     <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
